--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -760,21 +760,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,6 +802,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,43 +857,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1187,7 +1187,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,23 +1238,23 @@
       <c r="AI2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="91">
+      <c r="AN2" s="104">
         <v>43202</v>
       </c>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="90"/>
-      <c r="BB2" s="90"/>
-      <c r="BC2" s="90"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
     </row>
     <row r="3" spans="1:123" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1354,501 +1354,501 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="92">
+      <c r="AN4" s="105">
         <v>43235</v>
       </c>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
     </row>
     <row r="5" spans="1:123" s="1" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:123" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="90">
         <v>43202</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="75">
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="90">
         <v>43203</v>
       </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="75">
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="90">
         <v>43206</v>
       </c>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="75">
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="90">
         <v>43207</v>
       </c>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="75">
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="90">
         <v>43216</v>
       </c>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="77"/>
-      <c r="AW6" s="77"/>
-      <c r="AX6" s="77"/>
-      <c r="AY6" s="77"/>
-      <c r="AZ6" s="77"/>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="75">
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="90">
         <v>43217</v>
       </c>
-      <c r="BC6" s="76"/>
-      <c r="BD6" s="76"/>
-      <c r="BE6" s="76"/>
-      <c r="BF6" s="77"/>
-      <c r="BG6" s="77"/>
-      <c r="BH6" s="77"/>
-      <c r="BI6" s="77"/>
-      <c r="BJ6" s="77"/>
-      <c r="BK6" s="78"/>
-      <c r="BL6" s="75">
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="90">
         <v>43220</v>
       </c>
-      <c r="BM6" s="76"/>
-      <c r="BN6" s="76"/>
-      <c r="BO6" s="76"/>
-      <c r="BP6" s="77"/>
-      <c r="BQ6" s="77"/>
-      <c r="BR6" s="77"/>
-      <c r="BS6" s="77"/>
-      <c r="BT6" s="77"/>
-      <c r="BU6" s="78"/>
-      <c r="BV6" s="75">
+      <c r="BM6" s="91"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="92"/>
+      <c r="BQ6" s="92"/>
+      <c r="BR6" s="92"/>
+      <c r="BS6" s="92"/>
+      <c r="BT6" s="92"/>
+      <c r="BU6" s="93"/>
+      <c r="BV6" s="90">
         <v>43221</v>
       </c>
-      <c r="BW6" s="76"/>
-      <c r="BX6" s="76"/>
-      <c r="BY6" s="76"/>
-      <c r="BZ6" s="77"/>
-      <c r="CA6" s="77"/>
-      <c r="CB6" s="77"/>
-      <c r="CC6" s="77"/>
-      <c r="CD6" s="77"/>
-      <c r="CE6" s="78"/>
-      <c r="CF6" s="75">
+      <c r="BW6" s="91"/>
+      <c r="BX6" s="91"/>
+      <c r="BY6" s="91"/>
+      <c r="BZ6" s="92"/>
+      <c r="CA6" s="92"/>
+      <c r="CB6" s="92"/>
+      <c r="CC6" s="92"/>
+      <c r="CD6" s="92"/>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="90">
         <v>43230</v>
       </c>
-      <c r="CG6" s="76"/>
-      <c r="CH6" s="76"/>
-      <c r="CI6" s="76"/>
-      <c r="CJ6" s="77"/>
-      <c r="CK6" s="77"/>
-      <c r="CL6" s="77"/>
-      <c r="CM6" s="77"/>
-      <c r="CN6" s="77"/>
-      <c r="CO6" s="78"/>
-      <c r="CP6" s="75">
+      <c r="CG6" s="91"/>
+      <c r="CH6" s="91"/>
+      <c r="CI6" s="91"/>
+      <c r="CJ6" s="92"/>
+      <c r="CK6" s="92"/>
+      <c r="CL6" s="92"/>
+      <c r="CM6" s="92"/>
+      <c r="CN6" s="92"/>
+      <c r="CO6" s="93"/>
+      <c r="CP6" s="90">
         <v>43231</v>
       </c>
-      <c r="CQ6" s="76"/>
-      <c r="CR6" s="76"/>
-      <c r="CS6" s="76"/>
-      <c r="CT6" s="77"/>
-      <c r="CU6" s="77"/>
-      <c r="CV6" s="77"/>
-      <c r="CW6" s="77"/>
-      <c r="CX6" s="77"/>
-      <c r="CY6" s="78"/>
-      <c r="CZ6" s="75">
+      <c r="CQ6" s="91"/>
+      <c r="CR6" s="91"/>
+      <c r="CS6" s="91"/>
+      <c r="CT6" s="92"/>
+      <c r="CU6" s="92"/>
+      <c r="CV6" s="92"/>
+      <c r="CW6" s="92"/>
+      <c r="CX6" s="92"/>
+      <c r="CY6" s="93"/>
+      <c r="CZ6" s="90">
         <v>43234</v>
       </c>
-      <c r="DA6" s="76"/>
-      <c r="DB6" s="76"/>
-      <c r="DC6" s="76"/>
-      <c r="DD6" s="77"/>
-      <c r="DE6" s="77"/>
-      <c r="DF6" s="77"/>
-      <c r="DG6" s="77"/>
-      <c r="DH6" s="77"/>
-      <c r="DI6" s="78"/>
-      <c r="DJ6" s="75">
+      <c r="DA6" s="91"/>
+      <c r="DB6" s="91"/>
+      <c r="DC6" s="91"/>
+      <c r="DD6" s="92"/>
+      <c r="DE6" s="92"/>
+      <c r="DF6" s="92"/>
+      <c r="DG6" s="92"/>
+      <c r="DH6" s="92"/>
+      <c r="DI6" s="93"/>
+      <c r="DJ6" s="90">
         <v>43235</v>
       </c>
-      <c r="DK6" s="76"/>
-      <c r="DL6" s="76"/>
-      <c r="DM6" s="76"/>
-      <c r="DN6" s="77"/>
-      <c r="DO6" s="77"/>
-      <c r="DP6" s="77"/>
-      <c r="DQ6" s="77"/>
-      <c r="DR6" s="77"/>
-      <c r="DS6" s="78"/>
+      <c r="DK6" s="91"/>
+      <c r="DL6" s="91"/>
+      <c r="DM6" s="91"/>
+      <c r="DN6" s="92"/>
+      <c r="DO6" s="92"/>
+      <c r="DP6" s="92"/>
+      <c r="DQ6" s="92"/>
+      <c r="DR6" s="92"/>
+      <c r="DS6" s="93"/>
     </row>
     <row r="7" spans="1:123" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="95" t="s">
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="79" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="79" t="s">
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="79" t="s">
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="80"/>
-      <c r="AO7" s="80"/>
-      <c r="AP7" s="80"/>
-      <c r="AQ7" s="81"/>
-      <c r="AR7" s="79" t="s">
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="80"/>
-      <c r="AT7" s="80"/>
-      <c r="AU7" s="80"/>
-      <c r="AV7" s="80"/>
-      <c r="AW7" s="80"/>
-      <c r="AX7" s="80"/>
-      <c r="AY7" s="80"/>
-      <c r="AZ7" s="80"/>
-      <c r="BA7" s="81"/>
-      <c r="BB7" s="79" t="s">
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="80"/>
-      <c r="BD7" s="80"/>
-      <c r="BE7" s="80"/>
-      <c r="BF7" s="80"/>
-      <c r="BG7" s="80"/>
-      <c r="BH7" s="80"/>
-      <c r="BI7" s="80"/>
-      <c r="BJ7" s="80"/>
-      <c r="BK7" s="81"/>
-      <c r="BL7" s="79" t="s">
+      <c r="BC7" s="95"/>
+      <c r="BD7" s="95"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="95"/>
+      <c r="BK7" s="96"/>
+      <c r="BL7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="80"/>
-      <c r="BN7" s="80"/>
-      <c r="BO7" s="80"/>
-      <c r="BP7" s="80"/>
-      <c r="BQ7" s="80"/>
-      <c r="BR7" s="80"/>
-      <c r="BS7" s="80"/>
-      <c r="BT7" s="80"/>
-      <c r="BU7" s="81"/>
-      <c r="BV7" s="79" t="s">
+      <c r="BM7" s="95"/>
+      <c r="BN7" s="95"/>
+      <c r="BO7" s="95"/>
+      <c r="BP7" s="95"/>
+      <c r="BQ7" s="95"/>
+      <c r="BR7" s="95"/>
+      <c r="BS7" s="95"/>
+      <c r="BT7" s="95"/>
+      <c r="BU7" s="96"/>
+      <c r="BV7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="80"/>
-      <c r="BX7" s="80"/>
-      <c r="BY7" s="80"/>
-      <c r="BZ7" s="80"/>
-      <c r="CA7" s="80"/>
-      <c r="CB7" s="80"/>
-      <c r="CC7" s="80"/>
-      <c r="CD7" s="80"/>
-      <c r="CE7" s="81"/>
-      <c r="CF7" s="79" t="s">
+      <c r="BW7" s="95"/>
+      <c r="BX7" s="95"/>
+      <c r="BY7" s="95"/>
+      <c r="BZ7" s="95"/>
+      <c r="CA7" s="95"/>
+      <c r="CB7" s="95"/>
+      <c r="CC7" s="95"/>
+      <c r="CD7" s="95"/>
+      <c r="CE7" s="96"/>
+      <c r="CF7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="80"/>
-      <c r="CH7" s="80"/>
-      <c r="CI7" s="80"/>
-      <c r="CJ7" s="80"/>
-      <c r="CK7" s="80"/>
-      <c r="CL7" s="80"/>
-      <c r="CM7" s="80"/>
-      <c r="CN7" s="80"/>
-      <c r="CO7" s="81"/>
-      <c r="CP7" s="79" t="s">
+      <c r="CG7" s="95"/>
+      <c r="CH7" s="95"/>
+      <c r="CI7" s="95"/>
+      <c r="CJ7" s="95"/>
+      <c r="CK7" s="95"/>
+      <c r="CL7" s="95"/>
+      <c r="CM7" s="95"/>
+      <c r="CN7" s="95"/>
+      <c r="CO7" s="96"/>
+      <c r="CP7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="CQ7" s="80"/>
-      <c r="CR7" s="80"/>
-      <c r="CS7" s="80"/>
-      <c r="CT7" s="80"/>
-      <c r="CU7" s="80"/>
-      <c r="CV7" s="80"/>
-      <c r="CW7" s="80"/>
-      <c r="CX7" s="80"/>
-      <c r="CY7" s="81"/>
-      <c r="CZ7" s="79" t="s">
+      <c r="CQ7" s="95"/>
+      <c r="CR7" s="95"/>
+      <c r="CS7" s="95"/>
+      <c r="CT7" s="95"/>
+      <c r="CU7" s="95"/>
+      <c r="CV7" s="95"/>
+      <c r="CW7" s="95"/>
+      <c r="CX7" s="95"/>
+      <c r="CY7" s="96"/>
+      <c r="CZ7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="DA7" s="80"/>
-      <c r="DB7" s="80"/>
-      <c r="DC7" s="80"/>
-      <c r="DD7" s="80"/>
-      <c r="DE7" s="80"/>
-      <c r="DF7" s="80"/>
-      <c r="DG7" s="80"/>
-      <c r="DH7" s="80"/>
-      <c r="DI7" s="81"/>
-      <c r="DJ7" s="79" t="s">
+      <c r="DA7" s="95"/>
+      <c r="DB7" s="95"/>
+      <c r="DC7" s="95"/>
+      <c r="DD7" s="95"/>
+      <c r="DE7" s="95"/>
+      <c r="DF7" s="95"/>
+      <c r="DG7" s="95"/>
+      <c r="DH7" s="95"/>
+      <c r="DI7" s="96"/>
+      <c r="DJ7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="DK7" s="80"/>
-      <c r="DL7" s="80"/>
-      <c r="DM7" s="80"/>
-      <c r="DN7" s="80"/>
-      <c r="DO7" s="80"/>
-      <c r="DP7" s="80"/>
-      <c r="DQ7" s="80"/>
-      <c r="DR7" s="80"/>
-      <c r="DS7" s="81"/>
+      <c r="DK7" s="95"/>
+      <c r="DL7" s="95"/>
+      <c r="DM7" s="95"/>
+      <c r="DN7" s="95"/>
+      <c r="DO7" s="95"/>
+      <c r="DP7" s="95"/>
+      <c r="DQ7" s="95"/>
+      <c r="DR7" s="95"/>
+      <c r="DS7" s="96"/>
     </row>
     <row r="8" spans="1:123" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="70" t="s">
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="73" t="s">
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="70" t="s">
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="73" t="s">
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="70" t="s">
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="73" t="s">
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="70" t="s">
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="71"/>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="73" t="s">
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="70" t="s">
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="101"/>
+      <c r="BB8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="71"/>
-      <c r="BD8" s="71"/>
-      <c r="BE8" s="71"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="73" t="s">
+      <c r="BC8" s="98"/>
+      <c r="BD8" s="98"/>
+      <c r="BE8" s="98"/>
+      <c r="BF8" s="99"/>
+      <c r="BG8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="72"/>
-      <c r="BK8" s="74"/>
-      <c r="BL8" s="70" t="s">
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="99"/>
+      <c r="BJ8" s="99"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BM8" s="71"/>
-      <c r="BN8" s="71"/>
-      <c r="BO8" s="71"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="73" t="s">
+      <c r="BM8" s="98"/>
+      <c r="BN8" s="98"/>
+      <c r="BO8" s="98"/>
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="72"/>
-      <c r="BU8" s="74"/>
-      <c r="BV8" s="70" t="s">
+      <c r="BR8" s="99"/>
+      <c r="BS8" s="99"/>
+      <c r="BT8" s="99"/>
+      <c r="BU8" s="101"/>
+      <c r="BV8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BW8" s="71"/>
-      <c r="BX8" s="71"/>
-      <c r="BY8" s="71"/>
-      <c r="BZ8" s="72"/>
-      <c r="CA8" s="73" t="s">
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="99"/>
+      <c r="CA8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CB8" s="72"/>
-      <c r="CC8" s="72"/>
-      <c r="CD8" s="72"/>
-      <c r="CE8" s="74"/>
-      <c r="CF8" s="70" t="s">
+      <c r="CB8" s="99"/>
+      <c r="CC8" s="99"/>
+      <c r="CD8" s="99"/>
+      <c r="CE8" s="101"/>
+      <c r="CF8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="CG8" s="71"/>
-      <c r="CH8" s="71"/>
-      <c r="CI8" s="71"/>
-      <c r="CJ8" s="72"/>
-      <c r="CK8" s="73" t="s">
+      <c r="CG8" s="98"/>
+      <c r="CH8" s="98"/>
+      <c r="CI8" s="98"/>
+      <c r="CJ8" s="99"/>
+      <c r="CK8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CL8" s="72"/>
-      <c r="CM8" s="72"/>
-      <c r="CN8" s="72"/>
-      <c r="CO8" s="74"/>
-      <c r="CP8" s="70" t="s">
+      <c r="CL8" s="99"/>
+      <c r="CM8" s="99"/>
+      <c r="CN8" s="99"/>
+      <c r="CO8" s="101"/>
+      <c r="CP8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="71"/>
-      <c r="CR8" s="71"/>
-      <c r="CS8" s="71"/>
-      <c r="CT8" s="72"/>
-      <c r="CU8" s="73" t="s">
+      <c r="CQ8" s="98"/>
+      <c r="CR8" s="98"/>
+      <c r="CS8" s="98"/>
+      <c r="CT8" s="99"/>
+      <c r="CU8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CV8" s="72"/>
-      <c r="CW8" s="72"/>
-      <c r="CX8" s="72"/>
-      <c r="CY8" s="74"/>
-      <c r="CZ8" s="70" t="s">
+      <c r="CV8" s="99"/>
+      <c r="CW8" s="99"/>
+      <c r="CX8" s="99"/>
+      <c r="CY8" s="101"/>
+      <c r="CZ8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="DA8" s="71"/>
-      <c r="DB8" s="71"/>
-      <c r="DC8" s="71"/>
-      <c r="DD8" s="72"/>
-      <c r="DE8" s="73" t="s">
+      <c r="DA8" s="98"/>
+      <c r="DB8" s="98"/>
+      <c r="DC8" s="98"/>
+      <c r="DD8" s="99"/>
+      <c r="DE8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="DF8" s="72"/>
-      <c r="DG8" s="72"/>
-      <c r="DH8" s="72"/>
-      <c r="DI8" s="74"/>
-      <c r="DJ8" s="70" t="s">
+      <c r="DF8" s="99"/>
+      <c r="DG8" s="99"/>
+      <c r="DH8" s="99"/>
+      <c r="DI8" s="101"/>
+      <c r="DJ8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="DK8" s="71"/>
-      <c r="DL8" s="71"/>
-      <c r="DM8" s="71"/>
-      <c r="DN8" s="72"/>
-      <c r="DO8" s="73" t="s">
+      <c r="DK8" s="98"/>
+      <c r="DL8" s="98"/>
+      <c r="DM8" s="98"/>
+      <c r="DN8" s="99"/>
+      <c r="DO8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="DP8" s="72"/>
-      <c r="DQ8" s="72"/>
-      <c r="DR8" s="72"/>
-      <c r="DS8" s="74"/>
+      <c r="DP8" s="99"/>
+      <c r="DQ8" s="99"/>
+      <c r="DR8" s="99"/>
+      <c r="DS8" s="101"/>
     </row>
     <row r="9" spans="1:123" s="10" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -1980,7 +1980,7 @@
       <c r="DS9" s="21"/>
     </row>
     <row r="10" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82">
+      <c r="A10" s="107">
         <v>0</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2080,11 +2080,11 @@
       <c r="BS10" s="36"/>
       <c r="BT10" s="37"/>
       <c r="BU10" s="38"/>
-      <c r="BV10" s="96"/>
-      <c r="BW10" s="97"/>
-      <c r="BX10" s="97"/>
-      <c r="BY10" s="97"/>
-      <c r="BZ10" s="98"/>
+      <c r="BV10" s="71"/>
+      <c r="BW10" s="72"/>
+      <c r="BX10" s="72"/>
+      <c r="BY10" s="72"/>
+      <c r="BZ10" s="73"/>
       <c r="CA10" s="40"/>
       <c r="CB10" s="40"/>
       <c r="CC10" s="40"/>
@@ -2092,14 +2092,14 @@
       <c r="CE10" s="42"/>
       <c r="CF10" s="33"/>
       <c r="CG10" s="34"/>
-      <c r="CH10" s="104"/>
-      <c r="CI10" s="104"/>
-      <c r="CJ10" s="105"/>
-      <c r="CK10" s="105"/>
-      <c r="CL10" s="105"/>
-      <c r="CM10" s="105"/>
-      <c r="CN10" s="106"/>
-      <c r="CO10" s="107"/>
+      <c r="CH10" s="79"/>
+      <c r="CI10" s="79"/>
+      <c r="CJ10" s="80"/>
+      <c r="CK10" s="80"/>
+      <c r="CL10" s="80"/>
+      <c r="CM10" s="80"/>
+      <c r="CN10" s="81"/>
+      <c r="CO10" s="82"/>
       <c r="CP10" s="39"/>
       <c r="CQ10" s="35"/>
       <c r="CR10" s="35"/>
@@ -2132,7 +2132,7 @@
       <c r="DS10" s="42"/>
     </row>
     <row r="11" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
@@ -2218,11 +2218,11 @@
       <c r="BS11" s="46"/>
       <c r="BT11" s="46"/>
       <c r="BU11" s="47"/>
-      <c r="BV11" s="99"/>
-      <c r="BW11" s="100"/>
-      <c r="BX11" s="100"/>
-      <c r="BY11" s="100"/>
-      <c r="BZ11" s="101"/>
+      <c r="BV11" s="74"/>
+      <c r="BW11" s="75"/>
+      <c r="BX11" s="75"/>
+      <c r="BY11" s="75"/>
+      <c r="BZ11" s="76"/>
       <c r="CA11" s="49"/>
       <c r="CB11" s="49"/>
       <c r="CC11" s="49"/>
@@ -2230,14 +2230,14 @@
       <c r="CE11" s="50"/>
       <c r="CF11" s="43"/>
       <c r="CG11" s="44"/>
-      <c r="CH11" s="108"/>
-      <c r="CI11" s="108"/>
-      <c r="CJ11" s="109"/>
-      <c r="CK11" s="109"/>
-      <c r="CL11" s="109"/>
-      <c r="CM11" s="109"/>
-      <c r="CN11" s="109"/>
-      <c r="CO11" s="110"/>
+      <c r="CH11" s="83"/>
+      <c r="CI11" s="83"/>
+      <c r="CJ11" s="84"/>
+      <c r="CK11" s="84"/>
+      <c r="CL11" s="84"/>
+      <c r="CM11" s="84"/>
+      <c r="CN11" s="84"/>
+      <c r="CO11" s="85"/>
       <c r="CP11" s="48"/>
       <c r="CQ11" s="45"/>
       <c r="CR11" s="45"/>
@@ -2270,7 +2270,7 @@
       <c r="DS11" s="50"/>
     </row>
     <row r="12" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82">
+      <c r="A12" s="107">
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(D12:DS12, "P")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="34"/>
@@ -2289,15 +2289,23 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="114"/>
+      <c r="M12" s="89"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
+      <c r="R12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="V12" s="37"/>
       <c r="W12" s="42"/>
       <c r="X12" s="57" t="s">
@@ -2358,11 +2366,11 @@
       <c r="BS12" s="36"/>
       <c r="BT12" s="37"/>
       <c r="BU12" s="38"/>
-      <c r="BV12" s="96"/>
-      <c r="BW12" s="97"/>
-      <c r="BX12" s="97"/>
-      <c r="BY12" s="97"/>
-      <c r="BZ12" s="98"/>
+      <c r="BV12" s="71"/>
+      <c r="BW12" s="72"/>
+      <c r="BX12" s="72"/>
+      <c r="BY12" s="72"/>
+      <c r="BZ12" s="73"/>
       <c r="CA12" s="40"/>
       <c r="CB12" s="40"/>
       <c r="CC12" s="40"/>
@@ -2370,14 +2378,14 @@
       <c r="CE12" s="42"/>
       <c r="CF12" s="33"/>
       <c r="CG12" s="34"/>
-      <c r="CH12" s="104"/>
-      <c r="CI12" s="104"/>
-      <c r="CJ12" s="105"/>
-      <c r="CK12" s="105"/>
-      <c r="CL12" s="105"/>
-      <c r="CM12" s="105"/>
-      <c r="CN12" s="106"/>
-      <c r="CO12" s="107"/>
+      <c r="CH12" s="79"/>
+      <c r="CI12" s="79"/>
+      <c r="CJ12" s="80"/>
+      <c r="CK12" s="80"/>
+      <c r="CL12" s="80"/>
+      <c r="CM12" s="80"/>
+      <c r="CN12" s="81"/>
+      <c r="CO12" s="82"/>
       <c r="CP12" s="39"/>
       <c r="CQ12" s="35"/>
       <c r="CR12" s="35"/>
@@ -2410,7 +2418,7 @@
       <c r="DS12" s="42"/>
     </row>
     <row r="13" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
@@ -2486,11 +2494,11 @@
       <c r="BS13" s="46"/>
       <c r="BT13" s="46"/>
       <c r="BU13" s="47"/>
-      <c r="BV13" s="99"/>
-      <c r="BW13" s="100"/>
-      <c r="BX13" s="100"/>
-      <c r="BY13" s="100"/>
-      <c r="BZ13" s="101"/>
+      <c r="BV13" s="74"/>
+      <c r="BW13" s="75"/>
+      <c r="BX13" s="75"/>
+      <c r="BY13" s="75"/>
+      <c r="BZ13" s="76"/>
       <c r="CA13" s="49"/>
       <c r="CB13" s="49"/>
       <c r="CC13" s="49"/>
@@ -2498,14 +2506,14 @@
       <c r="CE13" s="50"/>
       <c r="CF13" s="43"/>
       <c r="CG13" s="44"/>
-      <c r="CH13" s="108"/>
-      <c r="CI13" s="108"/>
-      <c r="CJ13" s="109"/>
-      <c r="CK13" s="109"/>
-      <c r="CL13" s="109"/>
-      <c r="CM13" s="109"/>
-      <c r="CN13" s="109"/>
-      <c r="CO13" s="110"/>
+      <c r="CH13" s="83"/>
+      <c r="CI13" s="83"/>
+      <c r="CJ13" s="84"/>
+      <c r="CK13" s="84"/>
+      <c r="CL13" s="84"/>
+      <c r="CM13" s="84"/>
+      <c r="CN13" s="84"/>
+      <c r="CO13" s="85"/>
       <c r="CP13" s="48"/>
       <c r="CQ13" s="45"/>
       <c r="CR13" s="45"/>
@@ -2538,7 +2546,7 @@
       <c r="DS13" s="50"/>
     </row>
     <row r="14" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89">
+      <c r="A14" s="114">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2546,7 +2554,7 @@
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(D14:DS14, "P")</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
@@ -2570,30 +2578,18 @@
       <c r="Q14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>15</v>
-      </c>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
       <c r="V14" s="36"/>
       <c r="W14" s="40"/>
       <c r="X14" s="57"/>
       <c r="Y14" s="58"/>
       <c r="Z14" s="58"/>
       <c r="AA14" s="58"/>
-      <c r="AB14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC14" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
       <c r="AD14" s="59" t="s">
         <v>15</v>
       </c>
@@ -2610,8 +2606,12 @@
       <c r="AI14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
+      <c r="AJ14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK14" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="AL14" s="36"/>
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
@@ -2664,11 +2664,11 @@
       <c r="BS14" s="36"/>
       <c r="BT14" s="36"/>
       <c r="BU14" s="36"/>
-      <c r="BV14" s="96"/>
-      <c r="BW14" s="97"/>
-      <c r="BX14" s="97"/>
-      <c r="BY14" s="97"/>
-      <c r="BZ14" s="98"/>
+      <c r="BV14" s="71"/>
+      <c r="BW14" s="72"/>
+      <c r="BX14" s="72"/>
+      <c r="BY14" s="72"/>
+      <c r="BZ14" s="73"/>
       <c r="CA14" s="40"/>
       <c r="CB14" s="40"/>
       <c r="CC14" s="40"/>
@@ -2676,14 +2676,14 @@
       <c r="CE14" s="40"/>
       <c r="CF14" s="33"/>
       <c r="CG14" s="34"/>
-      <c r="CH14" s="104"/>
-      <c r="CI14" s="104"/>
-      <c r="CJ14" s="105"/>
-      <c r="CK14" s="105"/>
-      <c r="CL14" s="105"/>
-      <c r="CM14" s="105"/>
-      <c r="CN14" s="105"/>
-      <c r="CO14" s="105"/>
+      <c r="CH14" s="79"/>
+      <c r="CI14" s="79"/>
+      <c r="CJ14" s="80"/>
+      <c r="CK14" s="80"/>
+      <c r="CL14" s="80"/>
+      <c r="CM14" s="80"/>
+      <c r="CN14" s="80"/>
+      <c r="CO14" s="80"/>
       <c r="CP14" s="39"/>
       <c r="CQ14" s="35"/>
       <c r="CR14" s="35"/>
@@ -2716,7 +2716,7 @@
       <c r="DS14" s="40"/>
     </row>
     <row r="15" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="84"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
@@ -2792,11 +2792,11 @@
       <c r="BS15" s="46"/>
       <c r="BT15" s="46"/>
       <c r="BU15" s="47"/>
-      <c r="BV15" s="99"/>
-      <c r="BW15" s="100"/>
-      <c r="BX15" s="100"/>
-      <c r="BY15" s="100"/>
-      <c r="BZ15" s="101"/>
+      <c r="BV15" s="74"/>
+      <c r="BW15" s="75"/>
+      <c r="BX15" s="75"/>
+      <c r="BY15" s="75"/>
+      <c r="BZ15" s="76"/>
       <c r="CA15" s="49"/>
       <c r="CB15" s="49"/>
       <c r="CC15" s="49"/>
@@ -2804,14 +2804,14 @@
       <c r="CE15" s="50"/>
       <c r="CF15" s="43"/>
       <c r="CG15" s="44"/>
-      <c r="CH15" s="108"/>
-      <c r="CI15" s="108"/>
-      <c r="CJ15" s="109"/>
-      <c r="CK15" s="109"/>
-      <c r="CL15" s="109"/>
-      <c r="CM15" s="109"/>
-      <c r="CN15" s="109"/>
-      <c r="CO15" s="110"/>
+      <c r="CH15" s="83"/>
+      <c r="CI15" s="83"/>
+      <c r="CJ15" s="84"/>
+      <c r="CK15" s="84"/>
+      <c r="CL15" s="84"/>
+      <c r="CM15" s="84"/>
+      <c r="CN15" s="84"/>
+      <c r="CO15" s="85"/>
       <c r="CP15" s="48"/>
       <c r="CQ15" s="45"/>
       <c r="CR15" s="45"/>
@@ -2844,7 +2844,7 @@
       <c r="DS15" s="50"/>
     </row>
     <row r="16" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82">
+      <c r="A16" s="107">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -2932,11 +2932,11 @@
       <c r="BS16" s="36"/>
       <c r="BT16" s="36"/>
       <c r="BU16" s="38"/>
-      <c r="BV16" s="96"/>
-      <c r="BW16" s="97"/>
-      <c r="BX16" s="97"/>
-      <c r="BY16" s="97"/>
-      <c r="BZ16" s="98"/>
+      <c r="BV16" s="71"/>
+      <c r="BW16" s="72"/>
+      <c r="BX16" s="72"/>
+      <c r="BY16" s="72"/>
+      <c r="BZ16" s="73"/>
       <c r="CA16" s="40"/>
       <c r="CB16" s="40"/>
       <c r="CC16" s="40"/>
@@ -2944,14 +2944,14 @@
       <c r="CE16" s="42"/>
       <c r="CF16" s="33"/>
       <c r="CG16" s="34"/>
-      <c r="CH16" s="104"/>
-      <c r="CI16" s="104"/>
-      <c r="CJ16" s="105"/>
-      <c r="CK16" s="105"/>
-      <c r="CL16" s="105"/>
-      <c r="CM16" s="105"/>
-      <c r="CN16" s="105"/>
-      <c r="CO16" s="107"/>
+      <c r="CH16" s="79"/>
+      <c r="CI16" s="79"/>
+      <c r="CJ16" s="80"/>
+      <c r="CK16" s="80"/>
+      <c r="CL16" s="80"/>
+      <c r="CM16" s="80"/>
+      <c r="CN16" s="80"/>
+      <c r="CO16" s="82"/>
       <c r="CP16" s="39"/>
       <c r="CQ16" s="35"/>
       <c r="CR16" s="35"/>
@@ -2984,7 +2984,7 @@
       <c r="DS16" s="42"/>
     </row>
     <row r="17" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25">
         <f>COUNTIF(D17:DS17, "C")</f>
@@ -3060,11 +3060,11 @@
       <c r="BS17" s="46"/>
       <c r="BT17" s="46"/>
       <c r="BU17" s="47"/>
-      <c r="BV17" s="99"/>
-      <c r="BW17" s="100"/>
-      <c r="BX17" s="100"/>
-      <c r="BY17" s="100"/>
-      <c r="BZ17" s="101"/>
+      <c r="BV17" s="74"/>
+      <c r="BW17" s="75"/>
+      <c r="BX17" s="75"/>
+      <c r="BY17" s="75"/>
+      <c r="BZ17" s="76"/>
       <c r="CA17" s="49"/>
       <c r="CB17" s="49"/>
       <c r="CC17" s="49"/>
@@ -3072,14 +3072,14 @@
       <c r="CE17" s="50"/>
       <c r="CF17" s="43"/>
       <c r="CG17" s="44"/>
-      <c r="CH17" s="108"/>
-      <c r="CI17" s="108"/>
-      <c r="CJ17" s="109"/>
-      <c r="CK17" s="109"/>
-      <c r="CL17" s="109"/>
-      <c r="CM17" s="109"/>
-      <c r="CN17" s="109"/>
-      <c r="CO17" s="110"/>
+      <c r="CH17" s="83"/>
+      <c r="CI17" s="83"/>
+      <c r="CJ17" s="84"/>
+      <c r="CK17" s="84"/>
+      <c r="CL17" s="84"/>
+      <c r="CM17" s="84"/>
+      <c r="CN17" s="84"/>
+      <c r="CO17" s="85"/>
       <c r="CP17" s="48"/>
       <c r="CQ17" s="45"/>
       <c r="CR17" s="45"/>
@@ -3112,7 +3112,7 @@
       <c r="DS17" s="50"/>
     </row>
     <row r="18" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82">
+      <c r="A18" s="107">
         <v>4</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3146,20 +3146,20 @@
       <c r="Y18" s="58"/>
       <c r="Z18" s="58"/>
       <c r="AA18" s="58"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
+      <c r="AB18" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC18" s="59" t="s">
+        <v>15</v>
+      </c>
       <c r="AD18" s="59"/>
       <c r="AE18" s="59"/>
       <c r="AF18" s="59"/>
       <c r="AG18" s="61"/>
       <c r="AH18" s="39"/>
       <c r="AI18" s="35"/>
-      <c r="AJ18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK18" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
       <c r="AL18" s="36"/>
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
@@ -3210,11 +3210,11 @@
         <v>15</v>
       </c>
       <c r="BU18" s="38"/>
-      <c r="BV18" s="96"/>
-      <c r="BW18" s="97"/>
-      <c r="BX18" s="97"/>
-      <c r="BY18" s="97"/>
-      <c r="BZ18" s="98"/>
+      <c r="BV18" s="71"/>
+      <c r="BW18" s="72"/>
+      <c r="BX18" s="72"/>
+      <c r="BY18" s="72"/>
+      <c r="BZ18" s="73"/>
       <c r="CA18" s="40"/>
       <c r="CB18" s="40"/>
       <c r="CC18" s="40"/>
@@ -3222,14 +3222,14 @@
       <c r="CE18" s="42"/>
       <c r="CF18" s="33"/>
       <c r="CG18" s="34"/>
-      <c r="CH18" s="104"/>
-      <c r="CI18" s="104"/>
-      <c r="CJ18" s="105"/>
-      <c r="CK18" s="105"/>
-      <c r="CL18" s="105"/>
-      <c r="CM18" s="105"/>
-      <c r="CN18" s="105"/>
-      <c r="CO18" s="107"/>
+      <c r="CH18" s="79"/>
+      <c r="CI18" s="79"/>
+      <c r="CJ18" s="80"/>
+      <c r="CK18" s="80"/>
+      <c r="CL18" s="80"/>
+      <c r="CM18" s="80"/>
+      <c r="CN18" s="80"/>
+      <c r="CO18" s="82"/>
       <c r="CP18" s="39" t="s">
         <v>15</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="DS18" s="42"/>
     </row>
     <row r="19" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
@@ -3342,11 +3342,11 @@
       <c r="BS19" s="46"/>
       <c r="BT19" s="46"/>
       <c r="BU19" s="47"/>
-      <c r="BV19" s="99"/>
-      <c r="BW19" s="100"/>
-      <c r="BX19" s="100"/>
-      <c r="BY19" s="100"/>
-      <c r="BZ19" s="101"/>
+      <c r="BV19" s="74"/>
+      <c r="BW19" s="75"/>
+      <c r="BX19" s="75"/>
+      <c r="BY19" s="75"/>
+      <c r="BZ19" s="76"/>
       <c r="CA19" s="49"/>
       <c r="CB19" s="49"/>
       <c r="CC19" s="49"/>
@@ -3354,14 +3354,14 @@
       <c r="CE19" s="50"/>
       <c r="CF19" s="43"/>
       <c r="CG19" s="44"/>
-      <c r="CH19" s="108"/>
-      <c r="CI19" s="108"/>
-      <c r="CJ19" s="109"/>
-      <c r="CK19" s="109"/>
-      <c r="CL19" s="109"/>
-      <c r="CM19" s="109"/>
-      <c r="CN19" s="109"/>
-      <c r="CO19" s="110"/>
+      <c r="CH19" s="83"/>
+      <c r="CI19" s="83"/>
+      <c r="CJ19" s="84"/>
+      <c r="CK19" s="84"/>
+      <c r="CL19" s="84"/>
+      <c r="CM19" s="84"/>
+      <c r="CN19" s="84"/>
+      <c r="CO19" s="85"/>
       <c r="CP19" s="48"/>
       <c r="CQ19" s="45"/>
       <c r="CR19" s="45"/>
@@ -3394,7 +3394,7 @@
       <c r="DS19" s="50"/>
     </row>
     <row r="20" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82">
+      <c r="A20" s="107">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3474,11 +3474,11 @@
       <c r="BS20" s="36"/>
       <c r="BT20" s="36"/>
       <c r="BU20" s="38"/>
-      <c r="BV20" s="96"/>
-      <c r="BW20" s="97"/>
-      <c r="BX20" s="97"/>
-      <c r="BY20" s="97"/>
-      <c r="BZ20" s="98"/>
+      <c r="BV20" s="71"/>
+      <c r="BW20" s="72"/>
+      <c r="BX20" s="72"/>
+      <c r="BY20" s="72"/>
+      <c r="BZ20" s="73"/>
       <c r="CA20" s="40"/>
       <c r="CB20" s="40"/>
       <c r="CC20" s="40"/>
@@ -3486,14 +3486,14 @@
       <c r="CE20" s="42"/>
       <c r="CF20" s="33"/>
       <c r="CG20" s="34"/>
-      <c r="CH20" s="104"/>
-      <c r="CI20" s="104"/>
-      <c r="CJ20" s="105"/>
-      <c r="CK20" s="105"/>
-      <c r="CL20" s="105"/>
-      <c r="CM20" s="105"/>
-      <c r="CN20" s="105"/>
-      <c r="CO20" s="107"/>
+      <c r="CH20" s="79"/>
+      <c r="CI20" s="79"/>
+      <c r="CJ20" s="80"/>
+      <c r="CK20" s="80"/>
+      <c r="CL20" s="80"/>
+      <c r="CM20" s="80"/>
+      <c r="CN20" s="80"/>
+      <c r="CO20" s="82"/>
       <c r="CP20" s="39"/>
       <c r="CQ20" s="35"/>
       <c r="CR20" s="35" t="s">
@@ -3548,7 +3548,7 @@
       <c r="DS20" s="42"/>
     </row>
     <row r="21" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="84"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
@@ -3624,11 +3624,11 @@
       <c r="BS21" s="46"/>
       <c r="BT21" s="46"/>
       <c r="BU21" s="47"/>
-      <c r="BV21" s="99"/>
-      <c r="BW21" s="100"/>
-      <c r="BX21" s="100"/>
-      <c r="BY21" s="100"/>
-      <c r="BZ21" s="101"/>
+      <c r="BV21" s="74"/>
+      <c r="BW21" s="75"/>
+      <c r="BX21" s="75"/>
+      <c r="BY21" s="75"/>
+      <c r="BZ21" s="76"/>
       <c r="CA21" s="49"/>
       <c r="CB21" s="49"/>
       <c r="CC21" s="49"/>
@@ -3636,14 +3636,14 @@
       <c r="CE21" s="50"/>
       <c r="CF21" s="43"/>
       <c r="CG21" s="44"/>
-      <c r="CH21" s="108"/>
-      <c r="CI21" s="108"/>
-      <c r="CJ21" s="109"/>
-      <c r="CK21" s="109"/>
-      <c r="CL21" s="109"/>
-      <c r="CM21" s="109"/>
-      <c r="CN21" s="109"/>
-      <c r="CO21" s="110"/>
+      <c r="CH21" s="83"/>
+      <c r="CI21" s="83"/>
+      <c r="CJ21" s="84"/>
+      <c r="CK21" s="84"/>
+      <c r="CL21" s="84"/>
+      <c r="CM21" s="84"/>
+      <c r="CN21" s="84"/>
+      <c r="CO21" s="85"/>
       <c r="CP21" s="48"/>
       <c r="CQ21" s="45"/>
       <c r="CR21" s="45"/>
@@ -3676,7 +3676,7 @@
       <c r="DS21" s="50"/>
     </row>
     <row r="22" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82">
+      <c r="A22" s="107">
         <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3760,11 +3760,11 @@
       <c r="BS22" s="36"/>
       <c r="BT22" s="36"/>
       <c r="BU22" s="38"/>
-      <c r="BV22" s="96"/>
-      <c r="BW22" s="97"/>
-      <c r="BX22" s="97"/>
-      <c r="BY22" s="97"/>
-      <c r="BZ22" s="98"/>
+      <c r="BV22" s="71"/>
+      <c r="BW22" s="72"/>
+      <c r="BX22" s="72"/>
+      <c r="BY22" s="72"/>
+      <c r="BZ22" s="73"/>
       <c r="CA22" s="40"/>
       <c r="CB22" s="40"/>
       <c r="CC22" s="40"/>
@@ -3772,14 +3772,14 @@
       <c r="CE22" s="42"/>
       <c r="CF22" s="33"/>
       <c r="CG22" s="34"/>
-      <c r="CH22" s="104"/>
-      <c r="CI22" s="104"/>
-      <c r="CJ22" s="105"/>
-      <c r="CK22" s="105"/>
-      <c r="CL22" s="105"/>
-      <c r="CM22" s="105"/>
-      <c r="CN22" s="105"/>
-      <c r="CO22" s="107"/>
+      <c r="CH22" s="79"/>
+      <c r="CI22" s="79"/>
+      <c r="CJ22" s="80"/>
+      <c r="CK22" s="80"/>
+      <c r="CL22" s="80"/>
+      <c r="CM22" s="80"/>
+      <c r="CN22" s="80"/>
+      <c r="CO22" s="82"/>
       <c r="CP22" s="39"/>
       <c r="CQ22" s="35"/>
       <c r="CR22" s="35"/>
@@ -3820,7 +3820,7 @@
       <c r="DS22" s="42"/>
     </row>
     <row r="23" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="84"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25">
         <f>COUNTIF(D23:DS23, "C")</f>
@@ -3896,11 +3896,11 @@
       <c r="BS23" s="46"/>
       <c r="BT23" s="46"/>
       <c r="BU23" s="47"/>
-      <c r="BV23" s="99"/>
-      <c r="BW23" s="100"/>
-      <c r="BX23" s="100"/>
-      <c r="BY23" s="100"/>
-      <c r="BZ23" s="101"/>
+      <c r="BV23" s="74"/>
+      <c r="BW23" s="75"/>
+      <c r="BX23" s="75"/>
+      <c r="BY23" s="75"/>
+      <c r="BZ23" s="76"/>
       <c r="CA23" s="49"/>
       <c r="CB23" s="49"/>
       <c r="CC23" s="49"/>
@@ -3908,14 +3908,14 @@
       <c r="CE23" s="50"/>
       <c r="CF23" s="43"/>
       <c r="CG23" s="44"/>
-      <c r="CH23" s="108"/>
-      <c r="CI23" s="108"/>
-      <c r="CJ23" s="109"/>
-      <c r="CK23" s="109"/>
-      <c r="CL23" s="109"/>
-      <c r="CM23" s="109"/>
-      <c r="CN23" s="109"/>
-      <c r="CO23" s="110"/>
+      <c r="CH23" s="83"/>
+      <c r="CI23" s="83"/>
+      <c r="CJ23" s="84"/>
+      <c r="CK23" s="84"/>
+      <c r="CL23" s="84"/>
+      <c r="CM23" s="84"/>
+      <c r="CN23" s="84"/>
+      <c r="CO23" s="85"/>
       <c r="CP23" s="48"/>
       <c r="CQ23" s="45"/>
       <c r="CR23" s="45"/>
@@ -3948,7 +3948,7 @@
       <c r="DS23" s="50"/>
     </row>
     <row r="24" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="82">
+      <c r="A24" s="107">
         <v>7</v>
       </c>
       <c r="B24" s="22"/>
@@ -4026,11 +4026,11 @@
       <c r="BS24" s="36"/>
       <c r="BT24" s="36"/>
       <c r="BU24" s="38"/>
-      <c r="BV24" s="96"/>
-      <c r="BW24" s="97"/>
-      <c r="BX24" s="97"/>
-      <c r="BY24" s="97"/>
-      <c r="BZ24" s="98"/>
+      <c r="BV24" s="71"/>
+      <c r="BW24" s="72"/>
+      <c r="BX24" s="72"/>
+      <c r="BY24" s="72"/>
+      <c r="BZ24" s="73"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="40"/>
       <c r="CC24" s="40"/>
@@ -4038,14 +4038,14 @@
       <c r="CE24" s="42"/>
       <c r="CF24" s="33"/>
       <c r="CG24" s="34"/>
-      <c r="CH24" s="104"/>
-      <c r="CI24" s="104"/>
-      <c r="CJ24" s="105"/>
-      <c r="CK24" s="105"/>
-      <c r="CL24" s="105"/>
-      <c r="CM24" s="105"/>
-      <c r="CN24" s="105"/>
-      <c r="CO24" s="107"/>
+      <c r="CH24" s="79"/>
+      <c r="CI24" s="79"/>
+      <c r="CJ24" s="80"/>
+      <c r="CK24" s="80"/>
+      <c r="CL24" s="80"/>
+      <c r="CM24" s="80"/>
+      <c r="CN24" s="80"/>
+      <c r="CO24" s="82"/>
       <c r="CP24" s="39"/>
       <c r="CQ24" s="35"/>
       <c r="CR24" s="35"/>
@@ -4078,7 +4078,7 @@
       <c r="DS24" s="42"/>
     </row>
     <row r="25" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25">
         <f>COUNTIF(D25:DS25, "C")</f>
@@ -4154,11 +4154,11 @@
       <c r="BS25" s="46"/>
       <c r="BT25" s="46"/>
       <c r="BU25" s="47"/>
-      <c r="BV25" s="99"/>
-      <c r="BW25" s="100"/>
-      <c r="BX25" s="100"/>
-      <c r="BY25" s="100"/>
-      <c r="BZ25" s="101"/>
+      <c r="BV25" s="74"/>
+      <c r="BW25" s="75"/>
+      <c r="BX25" s="75"/>
+      <c r="BY25" s="75"/>
+      <c r="BZ25" s="76"/>
       <c r="CA25" s="49"/>
       <c r="CB25" s="49"/>
       <c r="CC25" s="49"/>
@@ -4166,14 +4166,14 @@
       <c r="CE25" s="50"/>
       <c r="CF25" s="43"/>
       <c r="CG25" s="44"/>
-      <c r="CH25" s="108"/>
-      <c r="CI25" s="108"/>
-      <c r="CJ25" s="109"/>
-      <c r="CK25" s="109"/>
-      <c r="CL25" s="109"/>
-      <c r="CM25" s="109"/>
-      <c r="CN25" s="109"/>
-      <c r="CO25" s="110"/>
+      <c r="CH25" s="83"/>
+      <c r="CI25" s="83"/>
+      <c r="CJ25" s="84"/>
+      <c r="CK25" s="84"/>
+      <c r="CL25" s="84"/>
+      <c r="CM25" s="84"/>
+      <c r="CN25" s="84"/>
+      <c r="CO25" s="85"/>
       <c r="CP25" s="48"/>
       <c r="CQ25" s="45"/>
       <c r="CR25" s="45"/>
@@ -4206,7 +4206,7 @@
       <c r="DS25" s="50"/>
     </row>
     <row r="26" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="82">
+      <c r="A26" s="107">
         <v>8</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4300,11 +4300,11 @@
       <c r="BU26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BV26" s="96"/>
-      <c r="BW26" s="97"/>
-      <c r="BX26" s="97"/>
-      <c r="BY26" s="97"/>
-      <c r="BZ26" s="98"/>
+      <c r="BV26" s="71"/>
+      <c r="BW26" s="72"/>
+      <c r="BX26" s="72"/>
+      <c r="BY26" s="72"/>
+      <c r="BZ26" s="73"/>
       <c r="CA26" s="40"/>
       <c r="CB26" s="40"/>
       <c r="CC26" s="40"/>
@@ -4312,14 +4312,14 @@
       <c r="CE26" s="42"/>
       <c r="CF26" s="33"/>
       <c r="CG26" s="34"/>
-      <c r="CH26" s="104"/>
-      <c r="CI26" s="104"/>
-      <c r="CJ26" s="105"/>
-      <c r="CK26" s="105"/>
-      <c r="CL26" s="105"/>
-      <c r="CM26" s="105"/>
-      <c r="CN26" s="105"/>
-      <c r="CO26" s="107"/>
+      <c r="CH26" s="79"/>
+      <c r="CI26" s="79"/>
+      <c r="CJ26" s="80"/>
+      <c r="CK26" s="80"/>
+      <c r="CL26" s="80"/>
+      <c r="CM26" s="80"/>
+      <c r="CN26" s="80"/>
+      <c r="CO26" s="82"/>
       <c r="CP26" s="39"/>
       <c r="CQ26" s="35"/>
       <c r="CR26" s="35"/>
@@ -4366,7 +4366,7 @@
       <c r="DS26" s="42"/>
     </row>
     <row r="27" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
@@ -4442,11 +4442,11 @@
       <c r="BS27" s="46"/>
       <c r="BT27" s="46"/>
       <c r="BU27" s="47"/>
-      <c r="BV27" s="99"/>
-      <c r="BW27" s="100"/>
-      <c r="BX27" s="100"/>
-      <c r="BY27" s="100"/>
-      <c r="BZ27" s="101"/>
+      <c r="BV27" s="74"/>
+      <c r="BW27" s="75"/>
+      <c r="BX27" s="75"/>
+      <c r="BY27" s="75"/>
+      <c r="BZ27" s="76"/>
       <c r="CA27" s="49"/>
       <c r="CB27" s="49"/>
       <c r="CC27" s="49"/>
@@ -4454,14 +4454,14 @@
       <c r="CE27" s="50"/>
       <c r="CF27" s="43"/>
       <c r="CG27" s="44"/>
-      <c r="CH27" s="108"/>
-      <c r="CI27" s="108"/>
-      <c r="CJ27" s="109"/>
-      <c r="CK27" s="109"/>
-      <c r="CL27" s="109"/>
-      <c r="CM27" s="109"/>
-      <c r="CN27" s="109"/>
-      <c r="CO27" s="110"/>
+      <c r="CH27" s="83"/>
+      <c r="CI27" s="83"/>
+      <c r="CJ27" s="84"/>
+      <c r="CK27" s="84"/>
+      <c r="CL27" s="84"/>
+      <c r="CM27" s="84"/>
+      <c r="CN27" s="84"/>
+      <c r="CO27" s="85"/>
       <c r="CP27" s="48"/>
       <c r="CQ27" s="45"/>
       <c r="CR27" s="45"/>
@@ -4494,7 +4494,7 @@
       <c r="DS27" s="50"/>
     </row>
     <row r="28" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="29" t="s">
         <v>5</v>
       </c>
@@ -4572,11 +4572,11 @@
       <c r="BS28" s="36"/>
       <c r="BT28" s="36"/>
       <c r="BU28" s="38"/>
-      <c r="BV28" s="97"/>
-      <c r="BW28" s="97"/>
-      <c r="BX28" s="97"/>
-      <c r="BY28" s="97"/>
-      <c r="BZ28" s="98"/>
+      <c r="BV28" s="72"/>
+      <c r="BW28" s="72"/>
+      <c r="BX28" s="72"/>
+      <c r="BY28" s="72"/>
+      <c r="BZ28" s="73"/>
       <c r="CA28" s="40"/>
       <c r="CB28" s="40"/>
       <c r="CC28" s="40"/>
@@ -4584,14 +4584,14 @@
       <c r="CE28" s="42"/>
       <c r="CF28" s="34"/>
       <c r="CG28" s="34"/>
-      <c r="CH28" s="104"/>
-      <c r="CI28" s="104"/>
-      <c r="CJ28" s="105"/>
-      <c r="CK28" s="105"/>
-      <c r="CL28" s="105"/>
-      <c r="CM28" s="105"/>
-      <c r="CN28" s="105"/>
-      <c r="CO28" s="107"/>
+      <c r="CH28" s="79"/>
+      <c r="CI28" s="79"/>
+      <c r="CJ28" s="80"/>
+      <c r="CK28" s="80"/>
+      <c r="CL28" s="80"/>
+      <c r="CM28" s="80"/>
+      <c r="CN28" s="80"/>
+      <c r="CO28" s="82"/>
       <c r="CP28" s="35"/>
       <c r="CQ28" s="35"/>
       <c r="CR28" s="35"/>
@@ -4624,7 +4624,7 @@
       <c r="DS28" s="42"/>
     </row>
     <row r="29" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
@@ -4702,11 +4702,11 @@
       <c r="BS29" s="53"/>
       <c r="BT29" s="53"/>
       <c r="BU29" s="54"/>
-      <c r="BV29" s="102"/>
-      <c r="BW29" s="102"/>
-      <c r="BX29" s="102"/>
-      <c r="BY29" s="102"/>
-      <c r="BZ29" s="103"/>
+      <c r="BV29" s="77"/>
+      <c r="BW29" s="77"/>
+      <c r="BX29" s="77"/>
+      <c r="BY29" s="77"/>
+      <c r="BZ29" s="78"/>
       <c r="CA29" s="55"/>
       <c r="CB29" s="55"/>
       <c r="CC29" s="55"/>
@@ -4714,14 +4714,14 @@
       <c r="CE29" s="56"/>
       <c r="CF29" s="51"/>
       <c r="CG29" s="51"/>
-      <c r="CH29" s="111"/>
-      <c r="CI29" s="111"/>
-      <c r="CJ29" s="112"/>
-      <c r="CK29" s="112"/>
-      <c r="CL29" s="112"/>
-      <c r="CM29" s="112"/>
-      <c r="CN29" s="112"/>
-      <c r="CO29" s="113"/>
+      <c r="CH29" s="86"/>
+      <c r="CI29" s="86"/>
+      <c r="CJ29" s="87"/>
+      <c r="CK29" s="87"/>
+      <c r="CL29" s="87"/>
+      <c r="CM29" s="87"/>
+      <c r="CN29" s="87"/>
+      <c r="CO29" s="88"/>
       <c r="CP29" s="52"/>
       <c r="CQ29" s="52"/>
       <c r="CR29" s="52"/>
@@ -4952,21 +4952,41 @@
     <row r="35" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="CZ6:DI6"/>
-    <mergeCell ref="DJ6:DS6"/>
-    <mergeCell ref="CZ7:DI7"/>
-    <mergeCell ref="DJ7:DS7"/>
-    <mergeCell ref="CZ8:DD8"/>
-    <mergeCell ref="DE8:DI8"/>
-    <mergeCell ref="DJ8:DN8"/>
-    <mergeCell ref="DO8:DS8"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="CU8:CY8"/>
+    <mergeCell ref="CF6:CO6"/>
+    <mergeCell ref="CP6:CY6"/>
+    <mergeCell ref="CF7:CO7"/>
+    <mergeCell ref="CP7:CY7"/>
+    <mergeCell ref="BL6:BU6"/>
+    <mergeCell ref="BV6:CE6"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CE7"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="CA8:CE8"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="AR7:BA7"/>
+    <mergeCell ref="BB7:BK7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BB8:BF8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AV2:BC2"/>
@@ -4981,41 +5001,21 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AV4:BC4"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="AR7:BA7"/>
-    <mergeCell ref="BB7:BK7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="BV6:CE6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CE7"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="CU8:CY8"/>
-    <mergeCell ref="CF6:CO6"/>
-    <mergeCell ref="CP6:CY6"/>
-    <mergeCell ref="CF7:CO7"/>
-    <mergeCell ref="CP7:CY7"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="CZ6:DI6"/>
+    <mergeCell ref="DJ6:DS6"/>
+    <mergeCell ref="CZ7:DI7"/>
+    <mergeCell ref="DJ7:DS7"/>
+    <mergeCell ref="CZ8:DD8"/>
+    <mergeCell ref="DE8:DI8"/>
+    <mergeCell ref="DJ8:DN8"/>
+    <mergeCell ref="DO8:DS8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D10:CY29">

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -1183,11 +1183,11 @@
   </sheetPr>
   <dimension ref="A1:DS35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2136,7 +2136,7 @@
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="44"/>
@@ -2165,8 +2165,12 @@
       <c r="R11" s="46"/>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
+      <c r="U11" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="W11" s="50"/>
       <c r="X11" s="62"/>
       <c r="Y11" s="63"/>
@@ -2278,7 +2282,7 @@
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(D12:DS12, "P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="34"/>
@@ -2293,7 +2297,9 @@
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="Q12" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="R12" s="36" t="s">
         <v>15</v>
       </c>
@@ -2422,7 +2428,7 @@
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="44"/>
@@ -2439,7 +2445,9 @@
       <c r="P13" s="45"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
+      <c r="S13" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
       <c r="V13" s="46"/>
@@ -2554,7 +2562,7 @@
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(D14:DS14, "P")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
@@ -2575,9 +2583,7 @@
       <c r="P14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q14" s="35"/>
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
@@ -2720,7 +2726,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2732,13 +2738,25 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="46"/>
+      <c r="N15" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
+      <c r="T15" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="U15" s="46"/>
       <c r="V15" s="46"/>
       <c r="W15" s="50"/>
@@ -4370,7 +4388,7 @@
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
@@ -4381,7 +4399,9 @@
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
       <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
+      <c r="M27" s="47" t="s">
+        <v>14</v>
+      </c>
       <c r="N27" s="48"/>
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
@@ -4630,7 +4650,7 @@
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -782,6 +782,21 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,36 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +841,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1187,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomRight" activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,23 +1238,23 @@
       <c r="AI2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="104">
+      <c r="AN2" s="111">
         <v>43202</v>
       </c>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="111"/>
+      <c r="AS2" s="111"/>
+      <c r="AT2" s="111"/>
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="110"/>
+      <c r="AX2" s="110"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="110"/>
+      <c r="BA2" s="110"/>
+      <c r="BB2" s="110"/>
+      <c r="BC2" s="110"/>
     </row>
     <row r="3" spans="1:123" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1354,501 +1354,501 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="105">
+      <c r="AN4" s="112">
         <v>43235</v>
       </c>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
     </row>
     <row r="5" spans="1:123" s="1" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:123" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="95">
         <v>43202</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="90">
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="95">
         <v>43203</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="90">
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="95">
         <v>43206</v>
       </c>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="90">
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="95">
         <v>43207</v>
       </c>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="90">
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="98"/>
+      <c r="AR6" s="95">
         <v>43216</v>
       </c>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="92"/>
-      <c r="BA6" s="93"/>
-      <c r="BB6" s="90">
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="98"/>
+      <c r="BB6" s="95">
         <v>43217</v>
       </c>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="92"/>
-      <c r="BJ6" s="92"/>
-      <c r="BK6" s="93"/>
-      <c r="BL6" s="90">
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="97"/>
+      <c r="BJ6" s="97"/>
+      <c r="BK6" s="98"/>
+      <c r="BL6" s="95">
         <v>43220</v>
       </c>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="91"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="92"/>
-      <c r="BQ6" s="92"/>
-      <c r="BR6" s="92"/>
-      <c r="BS6" s="92"/>
-      <c r="BT6" s="92"/>
-      <c r="BU6" s="93"/>
-      <c r="BV6" s="90">
+      <c r="BM6" s="96"/>
+      <c r="BN6" s="96"/>
+      <c r="BO6" s="96"/>
+      <c r="BP6" s="97"/>
+      <c r="BQ6" s="97"/>
+      <c r="BR6" s="97"/>
+      <c r="BS6" s="97"/>
+      <c r="BT6" s="97"/>
+      <c r="BU6" s="98"/>
+      <c r="BV6" s="95">
         <v>43221</v>
       </c>
-      <c r="BW6" s="91"/>
-      <c r="BX6" s="91"/>
-      <c r="BY6" s="91"/>
-      <c r="BZ6" s="92"/>
-      <c r="CA6" s="92"/>
-      <c r="CB6" s="92"/>
-      <c r="CC6" s="92"/>
-      <c r="CD6" s="92"/>
-      <c r="CE6" s="93"/>
-      <c r="CF6" s="90">
+      <c r="BW6" s="96"/>
+      <c r="BX6" s="96"/>
+      <c r="BY6" s="96"/>
+      <c r="BZ6" s="97"/>
+      <c r="CA6" s="97"/>
+      <c r="CB6" s="97"/>
+      <c r="CC6" s="97"/>
+      <c r="CD6" s="97"/>
+      <c r="CE6" s="98"/>
+      <c r="CF6" s="95">
         <v>43230</v>
       </c>
-      <c r="CG6" s="91"/>
-      <c r="CH6" s="91"/>
-      <c r="CI6" s="91"/>
-      <c r="CJ6" s="92"/>
-      <c r="CK6" s="92"/>
-      <c r="CL6" s="92"/>
-      <c r="CM6" s="92"/>
-      <c r="CN6" s="92"/>
-      <c r="CO6" s="93"/>
-      <c r="CP6" s="90">
+      <c r="CG6" s="96"/>
+      <c r="CH6" s="96"/>
+      <c r="CI6" s="96"/>
+      <c r="CJ6" s="97"/>
+      <c r="CK6" s="97"/>
+      <c r="CL6" s="97"/>
+      <c r="CM6" s="97"/>
+      <c r="CN6" s="97"/>
+      <c r="CO6" s="98"/>
+      <c r="CP6" s="95">
         <v>43231</v>
       </c>
-      <c r="CQ6" s="91"/>
-      <c r="CR6" s="91"/>
-      <c r="CS6" s="91"/>
-      <c r="CT6" s="92"/>
-      <c r="CU6" s="92"/>
-      <c r="CV6" s="92"/>
-      <c r="CW6" s="92"/>
-      <c r="CX6" s="92"/>
-      <c r="CY6" s="93"/>
-      <c r="CZ6" s="90">
+      <c r="CQ6" s="96"/>
+      <c r="CR6" s="96"/>
+      <c r="CS6" s="96"/>
+      <c r="CT6" s="97"/>
+      <c r="CU6" s="97"/>
+      <c r="CV6" s="97"/>
+      <c r="CW6" s="97"/>
+      <c r="CX6" s="97"/>
+      <c r="CY6" s="98"/>
+      <c r="CZ6" s="95">
         <v>43234</v>
       </c>
-      <c r="DA6" s="91"/>
-      <c r="DB6" s="91"/>
-      <c r="DC6" s="91"/>
-      <c r="DD6" s="92"/>
-      <c r="DE6" s="92"/>
-      <c r="DF6" s="92"/>
-      <c r="DG6" s="92"/>
-      <c r="DH6" s="92"/>
-      <c r="DI6" s="93"/>
-      <c r="DJ6" s="90">
+      <c r="DA6" s="96"/>
+      <c r="DB6" s="96"/>
+      <c r="DC6" s="96"/>
+      <c r="DD6" s="97"/>
+      <c r="DE6" s="97"/>
+      <c r="DF6" s="97"/>
+      <c r="DG6" s="97"/>
+      <c r="DH6" s="97"/>
+      <c r="DI6" s="98"/>
+      <c r="DJ6" s="95">
         <v>43235</v>
       </c>
-      <c r="DK6" s="91"/>
-      <c r="DL6" s="91"/>
-      <c r="DM6" s="91"/>
-      <c r="DN6" s="92"/>
-      <c r="DO6" s="92"/>
-      <c r="DP6" s="92"/>
-      <c r="DQ6" s="92"/>
-      <c r="DR6" s="92"/>
-      <c r="DS6" s="93"/>
+      <c r="DK6" s="96"/>
+      <c r="DL6" s="96"/>
+      <c r="DM6" s="96"/>
+      <c r="DN6" s="97"/>
+      <c r="DO6" s="97"/>
+      <c r="DP6" s="97"/>
+      <c r="DQ6" s="97"/>
+      <c r="DR6" s="97"/>
+      <c r="DS6" s="98"/>
     </row>
     <row r="7" spans="1:123" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="94" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="94" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="94" t="s">
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="94" t="s">
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="94" t="s">
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="101"/>
+      <c r="BB7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="94" t="s">
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="100"/>
+      <c r="BK7" s="101"/>
+      <c r="BL7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
-      <c r="BQ7" s="95"/>
-      <c r="BR7" s="95"/>
-      <c r="BS7" s="95"/>
-      <c r="BT7" s="95"/>
-      <c r="BU7" s="96"/>
-      <c r="BV7" s="94" t="s">
+      <c r="BM7" s="100"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="100"/>
+      <c r="BP7" s="100"/>
+      <c r="BQ7" s="100"/>
+      <c r="BR7" s="100"/>
+      <c r="BS7" s="100"/>
+      <c r="BT7" s="100"/>
+      <c r="BU7" s="101"/>
+      <c r="BV7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="95"/>
-      <c r="BX7" s="95"/>
-      <c r="BY7" s="95"/>
-      <c r="BZ7" s="95"/>
-      <c r="CA7" s="95"/>
-      <c r="CB7" s="95"/>
-      <c r="CC7" s="95"/>
-      <c r="CD7" s="95"/>
-      <c r="CE7" s="96"/>
-      <c r="CF7" s="94" t="s">
+      <c r="BW7" s="100"/>
+      <c r="BX7" s="100"/>
+      <c r="BY7" s="100"/>
+      <c r="BZ7" s="100"/>
+      <c r="CA7" s="100"/>
+      <c r="CB7" s="100"/>
+      <c r="CC7" s="100"/>
+      <c r="CD7" s="100"/>
+      <c r="CE7" s="101"/>
+      <c r="CF7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="95"/>
-      <c r="CH7" s="95"/>
-      <c r="CI7" s="95"/>
-      <c r="CJ7" s="95"/>
-      <c r="CK7" s="95"/>
-      <c r="CL7" s="95"/>
-      <c r="CM7" s="95"/>
-      <c r="CN7" s="95"/>
-      <c r="CO7" s="96"/>
-      <c r="CP7" s="94" t="s">
+      <c r="CG7" s="100"/>
+      <c r="CH7" s="100"/>
+      <c r="CI7" s="100"/>
+      <c r="CJ7" s="100"/>
+      <c r="CK7" s="100"/>
+      <c r="CL7" s="100"/>
+      <c r="CM7" s="100"/>
+      <c r="CN7" s="100"/>
+      <c r="CO7" s="101"/>
+      <c r="CP7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="CQ7" s="95"/>
-      <c r="CR7" s="95"/>
-      <c r="CS7" s="95"/>
-      <c r="CT7" s="95"/>
-      <c r="CU7" s="95"/>
-      <c r="CV7" s="95"/>
-      <c r="CW7" s="95"/>
-      <c r="CX7" s="95"/>
-      <c r="CY7" s="96"/>
-      <c r="CZ7" s="94" t="s">
+      <c r="CQ7" s="100"/>
+      <c r="CR7" s="100"/>
+      <c r="CS7" s="100"/>
+      <c r="CT7" s="100"/>
+      <c r="CU7" s="100"/>
+      <c r="CV7" s="100"/>
+      <c r="CW7" s="100"/>
+      <c r="CX7" s="100"/>
+      <c r="CY7" s="101"/>
+      <c r="CZ7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="DA7" s="95"/>
-      <c r="DB7" s="95"/>
-      <c r="DC7" s="95"/>
-      <c r="DD7" s="95"/>
-      <c r="DE7" s="95"/>
-      <c r="DF7" s="95"/>
-      <c r="DG7" s="95"/>
-      <c r="DH7" s="95"/>
-      <c r="DI7" s="96"/>
-      <c r="DJ7" s="94" t="s">
+      <c r="DA7" s="100"/>
+      <c r="DB7" s="100"/>
+      <c r="DC7" s="100"/>
+      <c r="DD7" s="100"/>
+      <c r="DE7" s="100"/>
+      <c r="DF7" s="100"/>
+      <c r="DG7" s="100"/>
+      <c r="DH7" s="100"/>
+      <c r="DI7" s="101"/>
+      <c r="DJ7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="DK7" s="95"/>
-      <c r="DL7" s="95"/>
-      <c r="DM7" s="95"/>
-      <c r="DN7" s="95"/>
-      <c r="DO7" s="95"/>
-      <c r="DP7" s="95"/>
-      <c r="DQ7" s="95"/>
-      <c r="DR7" s="95"/>
-      <c r="DS7" s="96"/>
+      <c r="DK7" s="100"/>
+      <c r="DL7" s="100"/>
+      <c r="DM7" s="100"/>
+      <c r="DN7" s="100"/>
+      <c r="DO7" s="100"/>
+      <c r="DP7" s="100"/>
+      <c r="DQ7" s="100"/>
+      <c r="DR7" s="100"/>
+      <c r="DS7" s="101"/>
     </row>
     <row r="8" spans="1:123" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="97" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100" t="s">
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="97" t="s">
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="100" t="s">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="97" t="s">
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="100" t="s">
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="97" t="s">
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="100" t="s">
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="97" t="s">
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="100" t="s">
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BH8" s="99"/>
-      <c r="BI8" s="99"/>
-      <c r="BJ8" s="99"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="97" t="s">
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BM8" s="98"/>
-      <c r="BN8" s="98"/>
-      <c r="BO8" s="98"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="100" t="s">
+      <c r="BM8" s="91"/>
+      <c r="BN8" s="91"/>
+      <c r="BO8" s="91"/>
+      <c r="BP8" s="92"/>
+      <c r="BQ8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BR8" s="99"/>
-      <c r="BS8" s="99"/>
-      <c r="BT8" s="99"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="97" t="s">
+      <c r="BR8" s="92"/>
+      <c r="BS8" s="92"/>
+      <c r="BT8" s="92"/>
+      <c r="BU8" s="94"/>
+      <c r="BV8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BW8" s="98"/>
-      <c r="BX8" s="98"/>
-      <c r="BY8" s="98"/>
-      <c r="BZ8" s="99"/>
-      <c r="CA8" s="100" t="s">
+      <c r="BW8" s="91"/>
+      <c r="BX8" s="91"/>
+      <c r="BY8" s="91"/>
+      <c r="BZ8" s="92"/>
+      <c r="CA8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CB8" s="99"/>
-      <c r="CC8" s="99"/>
-      <c r="CD8" s="99"/>
-      <c r="CE8" s="101"/>
-      <c r="CF8" s="97" t="s">
+      <c r="CB8" s="92"/>
+      <c r="CC8" s="92"/>
+      <c r="CD8" s="92"/>
+      <c r="CE8" s="94"/>
+      <c r="CF8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CG8" s="98"/>
-      <c r="CH8" s="98"/>
-      <c r="CI8" s="98"/>
-      <c r="CJ8" s="99"/>
-      <c r="CK8" s="100" t="s">
+      <c r="CG8" s="91"/>
+      <c r="CH8" s="91"/>
+      <c r="CI8" s="91"/>
+      <c r="CJ8" s="92"/>
+      <c r="CK8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CL8" s="99"/>
-      <c r="CM8" s="99"/>
-      <c r="CN8" s="99"/>
-      <c r="CO8" s="101"/>
-      <c r="CP8" s="97" t="s">
+      <c r="CL8" s="92"/>
+      <c r="CM8" s="92"/>
+      <c r="CN8" s="92"/>
+      <c r="CO8" s="94"/>
+      <c r="CP8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="98"/>
-      <c r="CR8" s="98"/>
-      <c r="CS8" s="98"/>
-      <c r="CT8" s="99"/>
-      <c r="CU8" s="100" t="s">
+      <c r="CQ8" s="91"/>
+      <c r="CR8" s="91"/>
+      <c r="CS8" s="91"/>
+      <c r="CT8" s="92"/>
+      <c r="CU8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CV8" s="99"/>
-      <c r="CW8" s="99"/>
-      <c r="CX8" s="99"/>
-      <c r="CY8" s="101"/>
-      <c r="CZ8" s="97" t="s">
+      <c r="CV8" s="92"/>
+      <c r="CW8" s="92"/>
+      <c r="CX8" s="92"/>
+      <c r="CY8" s="94"/>
+      <c r="CZ8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="DA8" s="98"/>
-      <c r="DB8" s="98"/>
-      <c r="DC8" s="98"/>
-      <c r="DD8" s="99"/>
-      <c r="DE8" s="100" t="s">
+      <c r="DA8" s="91"/>
+      <c r="DB8" s="91"/>
+      <c r="DC8" s="91"/>
+      <c r="DD8" s="92"/>
+      <c r="DE8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DF8" s="99"/>
-      <c r="DG8" s="99"/>
-      <c r="DH8" s="99"/>
-      <c r="DI8" s="101"/>
-      <c r="DJ8" s="97" t="s">
+      <c r="DF8" s="92"/>
+      <c r="DG8" s="92"/>
+      <c r="DH8" s="92"/>
+      <c r="DI8" s="94"/>
+      <c r="DJ8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="DK8" s="98"/>
-      <c r="DL8" s="98"/>
-      <c r="DM8" s="98"/>
-      <c r="DN8" s="99"/>
-      <c r="DO8" s="100" t="s">
+      <c r="DK8" s="91"/>
+      <c r="DL8" s="91"/>
+      <c r="DM8" s="91"/>
+      <c r="DN8" s="92"/>
+      <c r="DO8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DP8" s="99"/>
-      <c r="DQ8" s="99"/>
-      <c r="DR8" s="99"/>
-      <c r="DS8" s="101"/>
+      <c r="DP8" s="92"/>
+      <c r="DQ8" s="92"/>
+      <c r="DR8" s="92"/>
+      <c r="DS8" s="94"/>
     </row>
     <row r="9" spans="1:123" s="10" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -1980,7 +1980,7 @@
       <c r="DS9" s="21"/>
     </row>
     <row r="10" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107">
+      <c r="A10" s="102">
         <v>0</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2132,7 +2132,7 @@
       <c r="DS10" s="42"/>
     </row>
     <row r="11" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
@@ -2274,7 +2274,7 @@
       <c r="DS11" s="50"/>
     </row>
     <row r="12" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107">
+      <c r="A12" s="102">
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2424,11 +2424,11 @@
       <c r="DS12" s="42"/>
     </row>
     <row r="13" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="44"/>
@@ -2452,10 +2452,14 @@
       <c r="U13" s="46"/>
       <c r="V13" s="46"/>
       <c r="W13" s="50"/>
-      <c r="X13" s="62"/>
+      <c r="X13" s="62" t="s">
+        <v>14</v>
+      </c>
       <c r="Y13" s="63"/>
       <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
+      <c r="AA13" s="63" t="s">
+        <v>14</v>
+      </c>
       <c r="AB13" s="64"/>
       <c r="AC13" s="64"/>
       <c r="AD13" s="64"/>
@@ -2554,7 +2558,7 @@
       <c r="DS13" s="50"/>
     </row>
     <row r="14" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114">
+      <c r="A14" s="109">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2722,11 +2726,11 @@
       <c r="DS14" s="40"/>
     </row>
     <row r="15" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="109"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2761,8 +2765,12 @@
       <c r="V15" s="46"/>
       <c r="W15" s="50"/>
       <c r="X15" s="62"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
+      <c r="Y15" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="63" t="s">
+        <v>14</v>
+      </c>
       <c r="AA15" s="63"/>
       <c r="AB15" s="64"/>
       <c r="AC15" s="64"/>
@@ -2862,7 +2870,7 @@
       <c r="DS15" s="50"/>
     </row>
     <row r="16" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107">
+      <c r="A16" s="102">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3002,7 +3010,7 @@
       <c r="DS16" s="42"/>
     </row>
     <row r="17" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="109"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25">
         <f>COUNTIF(D17:DS17, "C")</f>
@@ -3130,7 +3138,7 @@
       <c r="DS17" s="50"/>
     </row>
     <row r="18" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107">
+      <c r="A18" s="102">
         <v>4</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3284,7 +3292,7 @@
       <c r="DS18" s="42"/>
     </row>
     <row r="19" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
@@ -3412,7 +3420,7 @@
       <c r="DS19" s="50"/>
     </row>
     <row r="20" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107">
+      <c r="A20" s="102">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3566,7 +3574,7 @@
       <c r="DS20" s="42"/>
     </row>
     <row r="21" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
@@ -3694,7 +3702,7 @@
       <c r="DS21" s="50"/>
     </row>
     <row r="22" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107">
+      <c r="A22" s="102">
         <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3838,7 +3846,7 @@
       <c r="DS22" s="42"/>
     </row>
     <row r="23" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25">
         <f>COUNTIF(D23:DS23, "C")</f>
@@ -3966,7 +3974,7 @@
       <c r="DS23" s="50"/>
     </row>
     <row r="24" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107">
+      <c r="A24" s="102">
         <v>7</v>
       </c>
       <c r="B24" s="22"/>
@@ -4096,7 +4104,7 @@
       <c r="DS24" s="42"/>
     </row>
     <row r="25" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25">
         <f>COUNTIF(D25:DS25, "C")</f>
@@ -4224,7 +4232,7 @@
       <c r="DS25" s="50"/>
     </row>
     <row r="26" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107">
+      <c r="A26" s="102">
         <v>8</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4384,7 +4392,7 @@
       <c r="DS26" s="42"/>
     </row>
     <row r="27" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
@@ -4514,7 +4522,7 @@
       <c r="DS27" s="50"/>
     </row>
     <row r="28" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="29" t="s">
         <v>5</v>
       </c>
@@ -4644,13 +4652,13 @@
       <c r="DS28" s="42"/>
     </row>
     <row r="29" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -4972,41 +4980,21 @@
     <row r="35" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="CU8:CY8"/>
-    <mergeCell ref="CF6:CO6"/>
-    <mergeCell ref="CP6:CY6"/>
-    <mergeCell ref="CF7:CO7"/>
-    <mergeCell ref="CP7:CY7"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="BV6:CE6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CE7"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="AR7:BA7"/>
-    <mergeCell ref="BB7:BK7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="CZ6:DI6"/>
+    <mergeCell ref="DJ6:DS6"/>
+    <mergeCell ref="CZ7:DI7"/>
+    <mergeCell ref="DJ7:DS7"/>
+    <mergeCell ref="CZ8:DD8"/>
+    <mergeCell ref="DE8:DI8"/>
+    <mergeCell ref="DJ8:DN8"/>
+    <mergeCell ref="DO8:DS8"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AV2:BC2"/>
@@ -5021,21 +5009,41 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AV4:BC4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="CZ6:DI6"/>
-    <mergeCell ref="DJ6:DS6"/>
-    <mergeCell ref="CZ7:DI7"/>
-    <mergeCell ref="DJ7:DS7"/>
-    <mergeCell ref="CZ8:DD8"/>
-    <mergeCell ref="DE8:DI8"/>
-    <mergeCell ref="DJ8:DN8"/>
-    <mergeCell ref="DO8:DS8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="AR7:BA7"/>
+    <mergeCell ref="BB7:BK7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BB8:BF8"/>
+    <mergeCell ref="BL6:BU6"/>
+    <mergeCell ref="BV6:CE6"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CE7"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="CA8:CE8"/>
+    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="CU8:CY8"/>
+    <mergeCell ref="CF6:CO6"/>
+    <mergeCell ref="CP6:CY6"/>
+    <mergeCell ref="CF7:CO7"/>
+    <mergeCell ref="CP7:CY7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D10:CY29">

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -1184,10 +1184,10 @@
   <dimension ref="A1:DS35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AA14" sqref="AA14"/>
+      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2730,7 +2730,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2761,7 +2761,9 @@
       <c r="T15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U15" s="46"/>
+      <c r="U15" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="V15" s="46"/>
       <c r="W15" s="50"/>
       <c r="X15" s="62"/>
@@ -2777,7 +2779,9 @@
       <c r="AD15" s="64"/>
       <c r="AE15" s="64"/>
       <c r="AF15" s="64"/>
-      <c r="AG15" s="65"/>
+      <c r="AG15" s="65" t="s">
+        <v>14</v>
+      </c>
       <c r="AH15" s="48"/>
       <c r="AI15" s="45"/>
       <c r="AJ15" s="45"/>
@@ -3296,7 +3300,7 @@
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="44"/>
@@ -3322,11 +3326,21 @@
       <c r="Y19" s="63"/>
       <c r="Z19" s="63"/>
       <c r="AA19" s="63"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="64"/>
+      <c r="AB19" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC19" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD19" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE19" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF19" s="64" t="s">
+        <v>14</v>
+      </c>
       <c r="AG19" s="65"/>
       <c r="AH19" s="48"/>
       <c r="AI19" s="45"/>
@@ -4658,7 +4672,7 @@
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -5063,7 +5077,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.6692913385826772" right="0.47244094488188981" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;F</oddFooter>
   </headerFooter>

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -782,21 +782,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,6 +802,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,21 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1187,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
+      <selection pane="bottomRight" activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,23 +1238,23 @@
       <c r="AI2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="111">
+      <c r="AN2" s="104">
         <v>43202</v>
       </c>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
-      <c r="AT2" s="111"/>
-      <c r="AV2" s="110"/>
-      <c r="AW2" s="110"/>
-      <c r="AX2" s="110"/>
-      <c r="AY2" s="110"/>
-      <c r="AZ2" s="110"/>
-      <c r="BA2" s="110"/>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
     </row>
     <row r="3" spans="1:123" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1354,501 +1354,501 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="112">
+      <c r="AN4" s="105">
         <v>43235</v>
       </c>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113"/>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="113"/>
-      <c r="AS4" s="113"/>
-      <c r="AT4" s="113"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BH4" s="114"/>
-      <c r="BI4" s="114"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
     </row>
     <row r="5" spans="1:123" s="1" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:123" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="95">
+      <c r="D6" s="90">
         <v>43202</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="95">
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="90">
         <v>43203</v>
       </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="95">
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="90">
         <v>43206</v>
       </c>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="95">
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="90">
         <v>43207</v>
       </c>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="95">
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="90">
         <v>43216</v>
       </c>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="97"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97"/>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="95">
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="90">
         <v>43217</v>
       </c>
-      <c r="BC6" s="96"/>
-      <c r="BD6" s="96"/>
-      <c r="BE6" s="96"/>
-      <c r="BF6" s="97"/>
-      <c r="BG6" s="97"/>
-      <c r="BH6" s="97"/>
-      <c r="BI6" s="97"/>
-      <c r="BJ6" s="97"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="95">
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="90">
         <v>43220</v>
       </c>
-      <c r="BM6" s="96"/>
-      <c r="BN6" s="96"/>
-      <c r="BO6" s="96"/>
-      <c r="BP6" s="97"/>
-      <c r="BQ6" s="97"/>
-      <c r="BR6" s="97"/>
-      <c r="BS6" s="97"/>
-      <c r="BT6" s="97"/>
-      <c r="BU6" s="98"/>
-      <c r="BV6" s="95">
+      <c r="BM6" s="91"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="92"/>
+      <c r="BQ6" s="92"/>
+      <c r="BR6" s="92"/>
+      <c r="BS6" s="92"/>
+      <c r="BT6" s="92"/>
+      <c r="BU6" s="93"/>
+      <c r="BV6" s="90">
         <v>43221</v>
       </c>
-      <c r="BW6" s="96"/>
-      <c r="BX6" s="96"/>
-      <c r="BY6" s="96"/>
-      <c r="BZ6" s="97"/>
-      <c r="CA6" s="97"/>
-      <c r="CB6" s="97"/>
-      <c r="CC6" s="97"/>
-      <c r="CD6" s="97"/>
-      <c r="CE6" s="98"/>
-      <c r="CF6" s="95">
+      <c r="BW6" s="91"/>
+      <c r="BX6" s="91"/>
+      <c r="BY6" s="91"/>
+      <c r="BZ6" s="92"/>
+      <c r="CA6" s="92"/>
+      <c r="CB6" s="92"/>
+      <c r="CC6" s="92"/>
+      <c r="CD6" s="92"/>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="90">
         <v>43230</v>
       </c>
-      <c r="CG6" s="96"/>
-      <c r="CH6" s="96"/>
-      <c r="CI6" s="96"/>
-      <c r="CJ6" s="97"/>
-      <c r="CK6" s="97"/>
-      <c r="CL6" s="97"/>
-      <c r="CM6" s="97"/>
-      <c r="CN6" s="97"/>
-      <c r="CO6" s="98"/>
-      <c r="CP6" s="95">
+      <c r="CG6" s="91"/>
+      <c r="CH6" s="91"/>
+      <c r="CI6" s="91"/>
+      <c r="CJ6" s="92"/>
+      <c r="CK6" s="92"/>
+      <c r="CL6" s="92"/>
+      <c r="CM6" s="92"/>
+      <c r="CN6" s="92"/>
+      <c r="CO6" s="93"/>
+      <c r="CP6" s="90">
         <v>43231</v>
       </c>
-      <c r="CQ6" s="96"/>
-      <c r="CR6" s="96"/>
-      <c r="CS6" s="96"/>
-      <c r="CT6" s="97"/>
-      <c r="CU6" s="97"/>
-      <c r="CV6" s="97"/>
-      <c r="CW6" s="97"/>
-      <c r="CX6" s="97"/>
-      <c r="CY6" s="98"/>
-      <c r="CZ6" s="95">
+      <c r="CQ6" s="91"/>
+      <c r="CR6" s="91"/>
+      <c r="CS6" s="91"/>
+      <c r="CT6" s="92"/>
+      <c r="CU6" s="92"/>
+      <c r="CV6" s="92"/>
+      <c r="CW6" s="92"/>
+      <c r="CX6" s="92"/>
+      <c r="CY6" s="93"/>
+      <c r="CZ6" s="90">
         <v>43234</v>
       </c>
-      <c r="DA6" s="96"/>
-      <c r="DB6" s="96"/>
-      <c r="DC6" s="96"/>
-      <c r="DD6" s="97"/>
-      <c r="DE6" s="97"/>
-      <c r="DF6" s="97"/>
-      <c r="DG6" s="97"/>
-      <c r="DH6" s="97"/>
-      <c r="DI6" s="98"/>
-      <c r="DJ6" s="95">
+      <c r="DA6" s="91"/>
+      <c r="DB6" s="91"/>
+      <c r="DC6" s="91"/>
+      <c r="DD6" s="92"/>
+      <c r="DE6" s="92"/>
+      <c r="DF6" s="92"/>
+      <c r="DG6" s="92"/>
+      <c r="DH6" s="92"/>
+      <c r="DI6" s="93"/>
+      <c r="DJ6" s="90">
         <v>43235</v>
       </c>
-      <c r="DK6" s="96"/>
-      <c r="DL6" s="96"/>
-      <c r="DM6" s="96"/>
-      <c r="DN6" s="97"/>
-      <c r="DO6" s="97"/>
-      <c r="DP6" s="97"/>
-      <c r="DQ6" s="97"/>
-      <c r="DR6" s="97"/>
-      <c r="DS6" s="98"/>
+      <c r="DK6" s="91"/>
+      <c r="DL6" s="91"/>
+      <c r="DM6" s="91"/>
+      <c r="DN6" s="92"/>
+      <c r="DO6" s="92"/>
+      <c r="DP6" s="92"/>
+      <c r="DQ6" s="92"/>
+      <c r="DR6" s="92"/>
+      <c r="DS6" s="93"/>
     </row>
     <row r="7" spans="1:123" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="99" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="99" t="s">
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="99" t="s">
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="99" t="s">
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
-      <c r="AU7" s="100"/>
-      <c r="AV7" s="100"/>
-      <c r="AW7" s="100"/>
-      <c r="AX7" s="100"/>
-      <c r="AY7" s="100"/>
-      <c r="AZ7" s="100"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="99" t="s">
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="100"/>
-      <c r="BD7" s="100"/>
-      <c r="BE7" s="100"/>
-      <c r="BF7" s="100"/>
-      <c r="BG7" s="100"/>
-      <c r="BH7" s="100"/>
-      <c r="BI7" s="100"/>
-      <c r="BJ7" s="100"/>
-      <c r="BK7" s="101"/>
-      <c r="BL7" s="99" t="s">
+      <c r="BC7" s="95"/>
+      <c r="BD7" s="95"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="95"/>
+      <c r="BK7" s="96"/>
+      <c r="BL7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="100"/>
-      <c r="BN7" s="100"/>
-      <c r="BO7" s="100"/>
-      <c r="BP7" s="100"/>
-      <c r="BQ7" s="100"/>
-      <c r="BR7" s="100"/>
-      <c r="BS7" s="100"/>
-      <c r="BT7" s="100"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="99" t="s">
+      <c r="BM7" s="95"/>
+      <c r="BN7" s="95"/>
+      <c r="BO7" s="95"/>
+      <c r="BP7" s="95"/>
+      <c r="BQ7" s="95"/>
+      <c r="BR7" s="95"/>
+      <c r="BS7" s="95"/>
+      <c r="BT7" s="95"/>
+      <c r="BU7" s="96"/>
+      <c r="BV7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="100"/>
-      <c r="BX7" s="100"/>
-      <c r="BY7" s="100"/>
-      <c r="BZ7" s="100"/>
-      <c r="CA7" s="100"/>
-      <c r="CB7" s="100"/>
-      <c r="CC7" s="100"/>
-      <c r="CD7" s="100"/>
-      <c r="CE7" s="101"/>
-      <c r="CF7" s="99" t="s">
+      <c r="BW7" s="95"/>
+      <c r="BX7" s="95"/>
+      <c r="BY7" s="95"/>
+      <c r="BZ7" s="95"/>
+      <c r="CA7" s="95"/>
+      <c r="CB7" s="95"/>
+      <c r="CC7" s="95"/>
+      <c r="CD7" s="95"/>
+      <c r="CE7" s="96"/>
+      <c r="CF7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="100"/>
-      <c r="CH7" s="100"/>
-      <c r="CI7" s="100"/>
-      <c r="CJ7" s="100"/>
-      <c r="CK7" s="100"/>
-      <c r="CL7" s="100"/>
-      <c r="CM7" s="100"/>
-      <c r="CN7" s="100"/>
-      <c r="CO7" s="101"/>
-      <c r="CP7" s="99" t="s">
+      <c r="CG7" s="95"/>
+      <c r="CH7" s="95"/>
+      <c r="CI7" s="95"/>
+      <c r="CJ7" s="95"/>
+      <c r="CK7" s="95"/>
+      <c r="CL7" s="95"/>
+      <c r="CM7" s="95"/>
+      <c r="CN7" s="95"/>
+      <c r="CO7" s="96"/>
+      <c r="CP7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="CQ7" s="100"/>
-      <c r="CR7" s="100"/>
-      <c r="CS7" s="100"/>
-      <c r="CT7" s="100"/>
-      <c r="CU7" s="100"/>
-      <c r="CV7" s="100"/>
-      <c r="CW7" s="100"/>
-      <c r="CX7" s="100"/>
-      <c r="CY7" s="101"/>
-      <c r="CZ7" s="99" t="s">
+      <c r="CQ7" s="95"/>
+      <c r="CR7" s="95"/>
+      <c r="CS7" s="95"/>
+      <c r="CT7" s="95"/>
+      <c r="CU7" s="95"/>
+      <c r="CV7" s="95"/>
+      <c r="CW7" s="95"/>
+      <c r="CX7" s="95"/>
+      <c r="CY7" s="96"/>
+      <c r="CZ7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="DA7" s="100"/>
-      <c r="DB7" s="100"/>
-      <c r="DC7" s="100"/>
-      <c r="DD7" s="100"/>
-      <c r="DE7" s="100"/>
-      <c r="DF7" s="100"/>
-      <c r="DG7" s="100"/>
-      <c r="DH7" s="100"/>
-      <c r="DI7" s="101"/>
-      <c r="DJ7" s="99" t="s">
+      <c r="DA7" s="95"/>
+      <c r="DB7" s="95"/>
+      <c r="DC7" s="95"/>
+      <c r="DD7" s="95"/>
+      <c r="DE7" s="95"/>
+      <c r="DF7" s="95"/>
+      <c r="DG7" s="95"/>
+      <c r="DH7" s="95"/>
+      <c r="DI7" s="96"/>
+      <c r="DJ7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="DK7" s="100"/>
-      <c r="DL7" s="100"/>
-      <c r="DM7" s="100"/>
-      <c r="DN7" s="100"/>
-      <c r="DO7" s="100"/>
-      <c r="DP7" s="100"/>
-      <c r="DQ7" s="100"/>
-      <c r="DR7" s="100"/>
-      <c r="DS7" s="101"/>
+      <c r="DK7" s="95"/>
+      <c r="DL7" s="95"/>
+      <c r="DM7" s="95"/>
+      <c r="DN7" s="95"/>
+      <c r="DO7" s="95"/>
+      <c r="DP7" s="95"/>
+      <c r="DQ7" s="95"/>
+      <c r="DR7" s="95"/>
+      <c r="DS7" s="96"/>
     </row>
     <row r="8" spans="1:123" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="90" t="s">
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="93" t="s">
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="90" t="s">
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="93" t="s">
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="90" t="s">
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="93" t="s">
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="90" t="s">
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="91"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="93" t="s">
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="90" t="s">
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="101"/>
+      <c r="BB8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="93" t="s">
+      <c r="BC8" s="98"/>
+      <c r="BD8" s="98"/>
+      <c r="BE8" s="98"/>
+      <c r="BF8" s="99"/>
+      <c r="BG8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="94"/>
-      <c r="BL8" s="90" t="s">
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="99"/>
+      <c r="BJ8" s="99"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BM8" s="91"/>
-      <c r="BN8" s="91"/>
-      <c r="BO8" s="91"/>
-      <c r="BP8" s="92"/>
-      <c r="BQ8" s="93" t="s">
+      <c r="BM8" s="98"/>
+      <c r="BN8" s="98"/>
+      <c r="BO8" s="98"/>
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BR8" s="92"/>
-      <c r="BS8" s="92"/>
-      <c r="BT8" s="92"/>
-      <c r="BU8" s="94"/>
-      <c r="BV8" s="90" t="s">
+      <c r="BR8" s="99"/>
+      <c r="BS8" s="99"/>
+      <c r="BT8" s="99"/>
+      <c r="BU8" s="101"/>
+      <c r="BV8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BW8" s="91"/>
-      <c r="BX8" s="91"/>
-      <c r="BY8" s="91"/>
-      <c r="BZ8" s="92"/>
-      <c r="CA8" s="93" t="s">
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="99"/>
+      <c r="CA8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CB8" s="92"/>
-      <c r="CC8" s="92"/>
-      <c r="CD8" s="92"/>
-      <c r="CE8" s="94"/>
-      <c r="CF8" s="90" t="s">
+      <c r="CB8" s="99"/>
+      <c r="CC8" s="99"/>
+      <c r="CD8" s="99"/>
+      <c r="CE8" s="101"/>
+      <c r="CF8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="CG8" s="91"/>
-      <c r="CH8" s="91"/>
-      <c r="CI8" s="91"/>
-      <c r="CJ8" s="92"/>
-      <c r="CK8" s="93" t="s">
+      <c r="CG8" s="98"/>
+      <c r="CH8" s="98"/>
+      <c r="CI8" s="98"/>
+      <c r="CJ8" s="99"/>
+      <c r="CK8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CL8" s="92"/>
-      <c r="CM8" s="92"/>
-      <c r="CN8" s="92"/>
-      <c r="CO8" s="94"/>
-      <c r="CP8" s="90" t="s">
+      <c r="CL8" s="99"/>
+      <c r="CM8" s="99"/>
+      <c r="CN8" s="99"/>
+      <c r="CO8" s="101"/>
+      <c r="CP8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="91"/>
-      <c r="CS8" s="91"/>
-      <c r="CT8" s="92"/>
-      <c r="CU8" s="93" t="s">
+      <c r="CQ8" s="98"/>
+      <c r="CR8" s="98"/>
+      <c r="CS8" s="98"/>
+      <c r="CT8" s="99"/>
+      <c r="CU8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CV8" s="92"/>
-      <c r="CW8" s="92"/>
-      <c r="CX8" s="92"/>
-      <c r="CY8" s="94"/>
-      <c r="CZ8" s="90" t="s">
+      <c r="CV8" s="99"/>
+      <c r="CW8" s="99"/>
+      <c r="CX8" s="99"/>
+      <c r="CY8" s="101"/>
+      <c r="CZ8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="DA8" s="91"/>
-      <c r="DB8" s="91"/>
-      <c r="DC8" s="91"/>
-      <c r="DD8" s="92"/>
-      <c r="DE8" s="93" t="s">
+      <c r="DA8" s="98"/>
+      <c r="DB8" s="98"/>
+      <c r="DC8" s="98"/>
+      <c r="DD8" s="99"/>
+      <c r="DE8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="DF8" s="92"/>
-      <c r="DG8" s="92"/>
-      <c r="DH8" s="92"/>
-      <c r="DI8" s="94"/>
-      <c r="DJ8" s="90" t="s">
+      <c r="DF8" s="99"/>
+      <c r="DG8" s="99"/>
+      <c r="DH8" s="99"/>
+      <c r="DI8" s="101"/>
+      <c r="DJ8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="DK8" s="91"/>
-      <c r="DL8" s="91"/>
-      <c r="DM8" s="91"/>
-      <c r="DN8" s="92"/>
-      <c r="DO8" s="93" t="s">
+      <c r="DK8" s="98"/>
+      <c r="DL8" s="98"/>
+      <c r="DM8" s="98"/>
+      <c r="DN8" s="99"/>
+      <c r="DO8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="DP8" s="92"/>
-      <c r="DQ8" s="92"/>
-      <c r="DR8" s="92"/>
-      <c r="DS8" s="94"/>
+      <c r="DP8" s="99"/>
+      <c r="DQ8" s="99"/>
+      <c r="DR8" s="99"/>
+      <c r="DS8" s="101"/>
     </row>
     <row r="9" spans="1:123" s="10" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -1980,7 +1980,7 @@
       <c r="DS9" s="21"/>
     </row>
     <row r="10" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102">
+      <c r="A10" s="107">
         <v>0</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2132,7 +2132,7 @@
       <c r="DS10" s="42"/>
     </row>
     <row r="11" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
@@ -2274,7 +2274,7 @@
       <c r="DS11" s="50"/>
     </row>
     <row r="12" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102">
+      <c r="A12" s="107">
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2424,7 +2424,7 @@
       <c r="DS12" s="42"/>
     </row>
     <row r="13" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
@@ -2558,7 +2558,7 @@
       <c r="DS13" s="50"/>
     </row>
     <row r="14" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="109">
+      <c r="A14" s="114">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2726,11 +2726,11 @@
       <c r="DS14" s="40"/>
     </row>
     <row r="15" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2782,10 +2782,16 @@
       <c r="AG15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="45"/>
+      <c r="AH15" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="45" t="s">
+        <v>14</v>
+      </c>
       <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
+      <c r="AK15" s="45" t="s">
+        <v>14</v>
+      </c>
       <c r="AL15" s="46"/>
       <c r="AM15" s="49"/>
       <c r="AN15" s="49"/>
@@ -2874,7 +2880,7 @@
       <c r="DS15" s="50"/>
     </row>
     <row r="16" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102">
+      <c r="A16" s="107">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3014,7 +3020,7 @@
       <c r="DS16" s="42"/>
     </row>
     <row r="17" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25">
         <f>COUNTIF(D17:DS17, "C")</f>
@@ -3142,7 +3148,7 @@
       <c r="DS17" s="50"/>
     </row>
     <row r="18" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102">
+      <c r="A18" s="107">
         <v>4</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3296,7 +3302,7 @@
       <c r="DS18" s="42"/>
     </row>
     <row r="19" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
@@ -3434,7 +3440,7 @@
       <c r="DS19" s="50"/>
     </row>
     <row r="20" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102">
+      <c r="A20" s="107">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3588,11 +3594,11 @@
       <c r="DS20" s="42"/>
     </row>
     <row r="21" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
@@ -3626,7 +3632,9 @@
       <c r="AG21" s="65"/>
       <c r="AH21" s="48"/>
       <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
+      <c r="AJ21" s="45" t="s">
+        <v>14</v>
+      </c>
       <c r="AK21" s="45"/>
       <c r="AL21" s="46"/>
       <c r="AM21" s="49"/>
@@ -3716,7 +3724,7 @@
       <c r="DS21" s="50"/>
     </row>
     <row r="22" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102">
+      <c r="A22" s="107">
         <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3860,7 +3868,7 @@
       <c r="DS22" s="42"/>
     </row>
     <row r="23" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25">
         <f>COUNTIF(D23:DS23, "C")</f>
@@ -3988,7 +3996,7 @@
       <c r="DS23" s="50"/>
     </row>
     <row r="24" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="102">
+      <c r="A24" s="107">
         <v>7</v>
       </c>
       <c r="B24" s="22"/>
@@ -4118,7 +4126,7 @@
       <c r="DS24" s="42"/>
     </row>
     <row r="25" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25">
         <f>COUNTIF(D25:DS25, "C")</f>
@@ -4246,7 +4254,7 @@
       <c r="DS25" s="50"/>
     </row>
     <row r="26" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102">
+      <c r="A26" s="107">
         <v>8</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4406,7 +4414,7 @@
       <c r="DS26" s="42"/>
     </row>
     <row r="27" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
@@ -4536,7 +4544,7 @@
       <c r="DS27" s="50"/>
     </row>
     <row r="28" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="29" t="s">
         <v>5</v>
       </c>
@@ -4666,13 +4674,13 @@
       <c r="DS28" s="42"/>
     </row>
     <row r="29" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -4994,21 +5002,41 @@
     <row r="35" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="CZ6:DI6"/>
-    <mergeCell ref="DJ6:DS6"/>
-    <mergeCell ref="CZ7:DI7"/>
-    <mergeCell ref="DJ7:DS7"/>
-    <mergeCell ref="CZ8:DD8"/>
-    <mergeCell ref="DE8:DI8"/>
-    <mergeCell ref="DJ8:DN8"/>
-    <mergeCell ref="DO8:DS8"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="CU8:CY8"/>
+    <mergeCell ref="CF6:CO6"/>
+    <mergeCell ref="CP6:CY6"/>
+    <mergeCell ref="CF7:CO7"/>
+    <mergeCell ref="CP7:CY7"/>
+    <mergeCell ref="BL6:BU6"/>
+    <mergeCell ref="BV6:CE6"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CE7"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="CA8:CE8"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="AR7:BA7"/>
+    <mergeCell ref="BB7:BK7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BB8:BF8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AV2:BC2"/>
@@ -5023,41 +5051,21 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AV4:BC4"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="AR7:BA7"/>
-    <mergeCell ref="BB7:BK7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="BV6:CE6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CE7"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="CU8:CY8"/>
-    <mergeCell ref="CF6:CO6"/>
-    <mergeCell ref="CP6:CY6"/>
-    <mergeCell ref="CF7:CO7"/>
-    <mergeCell ref="CP7:CY7"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="CZ6:DI6"/>
+    <mergeCell ref="DJ6:DS6"/>
+    <mergeCell ref="CZ7:DI7"/>
+    <mergeCell ref="DJ7:DS7"/>
+    <mergeCell ref="CZ8:DD8"/>
+    <mergeCell ref="DE8:DI8"/>
+    <mergeCell ref="DJ8:DN8"/>
+    <mergeCell ref="DO8:DS8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D10:CY29">

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -1187,7 +1187,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AL15" sqref="AL15"/>
+      <selection pane="bottomRight" activeCell="AP24" sqref="AP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2730,7 +2730,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2792,7 +2792,9 @@
       <c r="AK15" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AL15" s="46"/>
+      <c r="AL15" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="AM15" s="49"/>
       <c r="AN15" s="49"/>
       <c r="AO15" s="49"/>
@@ -2800,10 +2802,18 @@
       <c r="AQ15" s="50"/>
       <c r="AR15" s="43"/>
       <c r="AS15" s="44"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="46"/>
-      <c r="AW15" s="46"/>
+      <c r="AT15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV15" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW15" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="AX15" s="46"/>
       <c r="AY15" s="46"/>
       <c r="AZ15" s="46"/>
@@ -3598,7 +3608,7 @@
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
@@ -3648,9 +3658,15 @@
       <c r="AU21" s="45"/>
       <c r="AV21" s="46"/>
       <c r="AW21" s="46"/>
-      <c r="AX21" s="46"/>
-      <c r="AY21" s="46"/>
-      <c r="AZ21" s="46"/>
+      <c r="AX21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ21" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="BA21" s="47"/>
       <c r="BB21" s="48"/>
       <c r="BC21" s="45"/>
@@ -4418,7 +4434,7 @@
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
@@ -4471,7 +4487,9 @@
       <c r="AX27" s="46"/>
       <c r="AY27" s="46"/>
       <c r="AZ27" s="46"/>
-      <c r="BA27" s="47"/>
+      <c r="BA27" s="47" t="s">
+        <v>14</v>
+      </c>
       <c r="BB27" s="48"/>
       <c r="BC27" s="45"/>
       <c r="BD27" s="45"/>
@@ -4680,7 +4698,7 @@
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -782,6 +782,21 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,36 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +841,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1187,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AP24" sqref="AP24"/>
+      <selection pane="bottomRight" activeCell="AX12" sqref="AX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,23 +1238,23 @@
       <c r="AI2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="104">
+      <c r="AN2" s="111">
         <v>43202</v>
       </c>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="111"/>
+      <c r="AS2" s="111"/>
+      <c r="AT2" s="111"/>
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="110"/>
+      <c r="AX2" s="110"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="110"/>
+      <c r="BA2" s="110"/>
+      <c r="BB2" s="110"/>
+      <c r="BC2" s="110"/>
     </row>
     <row r="3" spans="1:123" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1354,501 +1354,501 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="105">
+      <c r="AN4" s="112">
         <v>43235</v>
       </c>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
     </row>
     <row r="5" spans="1:123" s="1" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:123" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="95">
         <v>43202</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="90">
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="95">
         <v>43203</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="90">
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="95">
         <v>43206</v>
       </c>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="90">
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="95">
         <v>43207</v>
       </c>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="90">
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="98"/>
+      <c r="AR6" s="95">
         <v>43216</v>
       </c>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="92"/>
-      <c r="BA6" s="93"/>
-      <c r="BB6" s="90">
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="98"/>
+      <c r="BB6" s="95">
         <v>43217</v>
       </c>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="92"/>
-      <c r="BJ6" s="92"/>
-      <c r="BK6" s="93"/>
-      <c r="BL6" s="90">
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="97"/>
+      <c r="BJ6" s="97"/>
+      <c r="BK6" s="98"/>
+      <c r="BL6" s="95">
         <v>43220</v>
       </c>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="91"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="92"/>
-      <c r="BQ6" s="92"/>
-      <c r="BR6" s="92"/>
-      <c r="BS6" s="92"/>
-      <c r="BT6" s="92"/>
-      <c r="BU6" s="93"/>
-      <c r="BV6" s="90">
+      <c r="BM6" s="96"/>
+      <c r="BN6" s="96"/>
+      <c r="BO6" s="96"/>
+      <c r="BP6" s="97"/>
+      <c r="BQ6" s="97"/>
+      <c r="BR6" s="97"/>
+      <c r="BS6" s="97"/>
+      <c r="BT6" s="97"/>
+      <c r="BU6" s="98"/>
+      <c r="BV6" s="95">
         <v>43221</v>
       </c>
-      <c r="BW6" s="91"/>
-      <c r="BX6" s="91"/>
-      <c r="BY6" s="91"/>
-      <c r="BZ6" s="92"/>
-      <c r="CA6" s="92"/>
-      <c r="CB6" s="92"/>
-      <c r="CC6" s="92"/>
-      <c r="CD6" s="92"/>
-      <c r="CE6" s="93"/>
-      <c r="CF6" s="90">
+      <c r="BW6" s="96"/>
+      <c r="BX6" s="96"/>
+      <c r="BY6" s="96"/>
+      <c r="BZ6" s="97"/>
+      <c r="CA6" s="97"/>
+      <c r="CB6" s="97"/>
+      <c r="CC6" s="97"/>
+      <c r="CD6" s="97"/>
+      <c r="CE6" s="98"/>
+      <c r="CF6" s="95">
         <v>43230</v>
       </c>
-      <c r="CG6" s="91"/>
-      <c r="CH6" s="91"/>
-      <c r="CI6" s="91"/>
-      <c r="CJ6" s="92"/>
-      <c r="CK6" s="92"/>
-      <c r="CL6" s="92"/>
-      <c r="CM6" s="92"/>
-      <c r="CN6" s="92"/>
-      <c r="CO6" s="93"/>
-      <c r="CP6" s="90">
+      <c r="CG6" s="96"/>
+      <c r="CH6" s="96"/>
+      <c r="CI6" s="96"/>
+      <c r="CJ6" s="97"/>
+      <c r="CK6" s="97"/>
+      <c r="CL6" s="97"/>
+      <c r="CM6" s="97"/>
+      <c r="CN6" s="97"/>
+      <c r="CO6" s="98"/>
+      <c r="CP6" s="95">
         <v>43231</v>
       </c>
-      <c r="CQ6" s="91"/>
-      <c r="CR6" s="91"/>
-      <c r="CS6" s="91"/>
-      <c r="CT6" s="92"/>
-      <c r="CU6" s="92"/>
-      <c r="CV6" s="92"/>
-      <c r="CW6" s="92"/>
-      <c r="CX6" s="92"/>
-      <c r="CY6" s="93"/>
-      <c r="CZ6" s="90">
+      <c r="CQ6" s="96"/>
+      <c r="CR6" s="96"/>
+      <c r="CS6" s="96"/>
+      <c r="CT6" s="97"/>
+      <c r="CU6" s="97"/>
+      <c r="CV6" s="97"/>
+      <c r="CW6" s="97"/>
+      <c r="CX6" s="97"/>
+      <c r="CY6" s="98"/>
+      <c r="CZ6" s="95">
         <v>43234</v>
       </c>
-      <c r="DA6" s="91"/>
-      <c r="DB6" s="91"/>
-      <c r="DC6" s="91"/>
-      <c r="DD6" s="92"/>
-      <c r="DE6" s="92"/>
-      <c r="DF6" s="92"/>
-      <c r="DG6" s="92"/>
-      <c r="DH6" s="92"/>
-      <c r="DI6" s="93"/>
-      <c r="DJ6" s="90">
+      <c r="DA6" s="96"/>
+      <c r="DB6" s="96"/>
+      <c r="DC6" s="96"/>
+      <c r="DD6" s="97"/>
+      <c r="DE6" s="97"/>
+      <c r="DF6" s="97"/>
+      <c r="DG6" s="97"/>
+      <c r="DH6" s="97"/>
+      <c r="DI6" s="98"/>
+      <c r="DJ6" s="95">
         <v>43235</v>
       </c>
-      <c r="DK6" s="91"/>
-      <c r="DL6" s="91"/>
-      <c r="DM6" s="91"/>
-      <c r="DN6" s="92"/>
-      <c r="DO6" s="92"/>
-      <c r="DP6" s="92"/>
-      <c r="DQ6" s="92"/>
-      <c r="DR6" s="92"/>
-      <c r="DS6" s="93"/>
+      <c r="DK6" s="96"/>
+      <c r="DL6" s="96"/>
+      <c r="DM6" s="96"/>
+      <c r="DN6" s="97"/>
+      <c r="DO6" s="97"/>
+      <c r="DP6" s="97"/>
+      <c r="DQ6" s="97"/>
+      <c r="DR6" s="97"/>
+      <c r="DS6" s="98"/>
     </row>
     <row r="7" spans="1:123" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="94" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="94" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="94" t="s">
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="94" t="s">
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="94" t="s">
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="101"/>
+      <c r="BB7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="94" t="s">
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="100"/>
+      <c r="BK7" s="101"/>
+      <c r="BL7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
-      <c r="BQ7" s="95"/>
-      <c r="BR7" s="95"/>
-      <c r="BS7" s="95"/>
-      <c r="BT7" s="95"/>
-      <c r="BU7" s="96"/>
-      <c r="BV7" s="94" t="s">
+      <c r="BM7" s="100"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="100"/>
+      <c r="BP7" s="100"/>
+      <c r="BQ7" s="100"/>
+      <c r="BR7" s="100"/>
+      <c r="BS7" s="100"/>
+      <c r="BT7" s="100"/>
+      <c r="BU7" s="101"/>
+      <c r="BV7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="95"/>
-      <c r="BX7" s="95"/>
-      <c r="BY7" s="95"/>
-      <c r="BZ7" s="95"/>
-      <c r="CA7" s="95"/>
-      <c r="CB7" s="95"/>
-      <c r="CC7" s="95"/>
-      <c r="CD7" s="95"/>
-      <c r="CE7" s="96"/>
-      <c r="CF7" s="94" t="s">
+      <c r="BW7" s="100"/>
+      <c r="BX7" s="100"/>
+      <c r="BY7" s="100"/>
+      <c r="BZ7" s="100"/>
+      <c r="CA7" s="100"/>
+      <c r="CB7" s="100"/>
+      <c r="CC7" s="100"/>
+      <c r="CD7" s="100"/>
+      <c r="CE7" s="101"/>
+      <c r="CF7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="95"/>
-      <c r="CH7" s="95"/>
-      <c r="CI7" s="95"/>
-      <c r="CJ7" s="95"/>
-      <c r="CK7" s="95"/>
-      <c r="CL7" s="95"/>
-      <c r="CM7" s="95"/>
-      <c r="CN7" s="95"/>
-      <c r="CO7" s="96"/>
-      <c r="CP7" s="94" t="s">
+      <c r="CG7" s="100"/>
+      <c r="CH7" s="100"/>
+      <c r="CI7" s="100"/>
+      <c r="CJ7" s="100"/>
+      <c r="CK7" s="100"/>
+      <c r="CL7" s="100"/>
+      <c r="CM7" s="100"/>
+      <c r="CN7" s="100"/>
+      <c r="CO7" s="101"/>
+      <c r="CP7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="CQ7" s="95"/>
-      <c r="CR7" s="95"/>
-      <c r="CS7" s="95"/>
-      <c r="CT7" s="95"/>
-      <c r="CU7" s="95"/>
-      <c r="CV7" s="95"/>
-      <c r="CW7" s="95"/>
-      <c r="CX7" s="95"/>
-      <c r="CY7" s="96"/>
-      <c r="CZ7" s="94" t="s">
+      <c r="CQ7" s="100"/>
+      <c r="CR7" s="100"/>
+      <c r="CS7" s="100"/>
+      <c r="CT7" s="100"/>
+      <c r="CU7" s="100"/>
+      <c r="CV7" s="100"/>
+      <c r="CW7" s="100"/>
+      <c r="CX7" s="100"/>
+      <c r="CY7" s="101"/>
+      <c r="CZ7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="DA7" s="95"/>
-      <c r="DB7" s="95"/>
-      <c r="DC7" s="95"/>
-      <c r="DD7" s="95"/>
-      <c r="DE7" s="95"/>
-      <c r="DF7" s="95"/>
-      <c r="DG7" s="95"/>
-      <c r="DH7" s="95"/>
-      <c r="DI7" s="96"/>
-      <c r="DJ7" s="94" t="s">
+      <c r="DA7" s="100"/>
+      <c r="DB7" s="100"/>
+      <c r="DC7" s="100"/>
+      <c r="DD7" s="100"/>
+      <c r="DE7" s="100"/>
+      <c r="DF7" s="100"/>
+      <c r="DG7" s="100"/>
+      <c r="DH7" s="100"/>
+      <c r="DI7" s="101"/>
+      <c r="DJ7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="DK7" s="95"/>
-      <c r="DL7" s="95"/>
-      <c r="DM7" s="95"/>
-      <c r="DN7" s="95"/>
-      <c r="DO7" s="95"/>
-      <c r="DP7" s="95"/>
-      <c r="DQ7" s="95"/>
-      <c r="DR7" s="95"/>
-      <c r="DS7" s="96"/>
+      <c r="DK7" s="100"/>
+      <c r="DL7" s="100"/>
+      <c r="DM7" s="100"/>
+      <c r="DN7" s="100"/>
+      <c r="DO7" s="100"/>
+      <c r="DP7" s="100"/>
+      <c r="DQ7" s="100"/>
+      <c r="DR7" s="100"/>
+      <c r="DS7" s="101"/>
     </row>
     <row r="8" spans="1:123" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="97" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100" t="s">
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="97" t="s">
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="100" t="s">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="97" t="s">
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="100" t="s">
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="97" t="s">
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="100" t="s">
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="97" t="s">
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="100" t="s">
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BH8" s="99"/>
-      <c r="BI8" s="99"/>
-      <c r="BJ8" s="99"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="97" t="s">
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BM8" s="98"/>
-      <c r="BN8" s="98"/>
-      <c r="BO8" s="98"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="100" t="s">
+      <c r="BM8" s="91"/>
+      <c r="BN8" s="91"/>
+      <c r="BO8" s="91"/>
+      <c r="BP8" s="92"/>
+      <c r="BQ8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BR8" s="99"/>
-      <c r="BS8" s="99"/>
-      <c r="BT8" s="99"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="97" t="s">
+      <c r="BR8" s="92"/>
+      <c r="BS8" s="92"/>
+      <c r="BT8" s="92"/>
+      <c r="BU8" s="94"/>
+      <c r="BV8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BW8" s="98"/>
-      <c r="BX8" s="98"/>
-      <c r="BY8" s="98"/>
-      <c r="BZ8" s="99"/>
-      <c r="CA8" s="100" t="s">
+      <c r="BW8" s="91"/>
+      <c r="BX8" s="91"/>
+      <c r="BY8" s="91"/>
+      <c r="BZ8" s="92"/>
+      <c r="CA8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CB8" s="99"/>
-      <c r="CC8" s="99"/>
-      <c r="CD8" s="99"/>
-      <c r="CE8" s="101"/>
-      <c r="CF8" s="97" t="s">
+      <c r="CB8" s="92"/>
+      <c r="CC8" s="92"/>
+      <c r="CD8" s="92"/>
+      <c r="CE8" s="94"/>
+      <c r="CF8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CG8" s="98"/>
-      <c r="CH8" s="98"/>
-      <c r="CI8" s="98"/>
-      <c r="CJ8" s="99"/>
-      <c r="CK8" s="100" t="s">
+      <c r="CG8" s="91"/>
+      <c r="CH8" s="91"/>
+      <c r="CI8" s="91"/>
+      <c r="CJ8" s="92"/>
+      <c r="CK8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CL8" s="99"/>
-      <c r="CM8" s="99"/>
-      <c r="CN8" s="99"/>
-      <c r="CO8" s="101"/>
-      <c r="CP8" s="97" t="s">
+      <c r="CL8" s="92"/>
+      <c r="CM8" s="92"/>
+      <c r="CN8" s="92"/>
+      <c r="CO8" s="94"/>
+      <c r="CP8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="98"/>
-      <c r="CR8" s="98"/>
-      <c r="CS8" s="98"/>
-      <c r="CT8" s="99"/>
-      <c r="CU8" s="100" t="s">
+      <c r="CQ8" s="91"/>
+      <c r="CR8" s="91"/>
+      <c r="CS8" s="91"/>
+      <c r="CT8" s="92"/>
+      <c r="CU8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CV8" s="99"/>
-      <c r="CW8" s="99"/>
-      <c r="CX8" s="99"/>
-      <c r="CY8" s="101"/>
-      <c r="CZ8" s="97" t="s">
+      <c r="CV8" s="92"/>
+      <c r="CW8" s="92"/>
+      <c r="CX8" s="92"/>
+      <c r="CY8" s="94"/>
+      <c r="CZ8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="DA8" s="98"/>
-      <c r="DB8" s="98"/>
-      <c r="DC8" s="98"/>
-      <c r="DD8" s="99"/>
-      <c r="DE8" s="100" t="s">
+      <c r="DA8" s="91"/>
+      <c r="DB8" s="91"/>
+      <c r="DC8" s="91"/>
+      <c r="DD8" s="92"/>
+      <c r="DE8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DF8" s="99"/>
-      <c r="DG8" s="99"/>
-      <c r="DH8" s="99"/>
-      <c r="DI8" s="101"/>
-      <c r="DJ8" s="97" t="s">
+      <c r="DF8" s="92"/>
+      <c r="DG8" s="92"/>
+      <c r="DH8" s="92"/>
+      <c r="DI8" s="94"/>
+      <c r="DJ8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="DK8" s="98"/>
-      <c r="DL8" s="98"/>
-      <c r="DM8" s="98"/>
-      <c r="DN8" s="99"/>
-      <c r="DO8" s="100" t="s">
+      <c r="DK8" s="91"/>
+      <c r="DL8" s="91"/>
+      <c r="DM8" s="91"/>
+      <c r="DN8" s="92"/>
+      <c r="DO8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DP8" s="99"/>
-      <c r="DQ8" s="99"/>
-      <c r="DR8" s="99"/>
-      <c r="DS8" s="101"/>
+      <c r="DP8" s="92"/>
+      <c r="DQ8" s="92"/>
+      <c r="DR8" s="92"/>
+      <c r="DS8" s="94"/>
     </row>
     <row r="9" spans="1:123" s="10" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -1980,7 +1980,7 @@
       <c r="DS9" s="21"/>
     </row>
     <row r="10" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107">
+      <c r="A10" s="102">
         <v>0</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2132,7 +2132,7 @@
       <c r="DS10" s="42"/>
     </row>
     <row r="11" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
@@ -2274,7 +2274,7 @@
       <c r="DS11" s="50"/>
     </row>
     <row r="12" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107">
+      <c r="A12" s="102">
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2424,7 +2424,7 @@
       <c r="DS12" s="42"/>
     </row>
     <row r="13" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
@@ -2558,7 +2558,7 @@
       <c r="DS13" s="50"/>
     </row>
     <row r="14" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114">
+      <c r="A14" s="109">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2726,7 +2726,7 @@
       <c r="DS14" s="40"/>
     </row>
     <row r="15" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="109"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
@@ -2890,7 +2890,7 @@
       <c r="DS15" s="50"/>
     </row>
     <row r="16" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107">
+      <c r="A16" s="102">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3030,7 +3030,7 @@
       <c r="DS16" s="42"/>
     </row>
     <row r="17" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="109"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25">
         <f>COUNTIF(D17:DS17, "C")</f>
@@ -3158,7 +3158,7 @@
       <c r="DS17" s="50"/>
     </row>
     <row r="18" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107">
+      <c r="A18" s="102">
         <v>4</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3312,7 +3312,7 @@
       <c r="DS18" s="42"/>
     </row>
     <row r="19" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
@@ -3450,7 +3450,7 @@
       <c r="DS19" s="50"/>
     </row>
     <row r="20" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107">
+      <c r="A20" s="102">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3604,11 +3604,11 @@
       <c r="DS20" s="42"/>
     </row>
     <row r="21" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
@@ -3667,7 +3667,9 @@
       <c r="AZ21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BA21" s="47"/>
+      <c r="BA21" s="47" t="s">
+        <v>14</v>
+      </c>
       <c r="BB21" s="48"/>
       <c r="BC21" s="45"/>
       <c r="BD21" s="45"/>
@@ -3740,7 +3742,7 @@
       <c r="DS21" s="50"/>
     </row>
     <row r="22" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107">
+      <c r="A22" s="102">
         <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3884,7 +3886,7 @@
       <c r="DS22" s="42"/>
     </row>
     <row r="23" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25">
         <f>COUNTIF(D23:DS23, "C")</f>
@@ -4012,7 +4014,7 @@
       <c r="DS23" s="50"/>
     </row>
     <row r="24" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107">
+      <c r="A24" s="102">
         <v>7</v>
       </c>
       <c r="B24" s="22"/>
@@ -4142,7 +4144,7 @@
       <c r="DS24" s="42"/>
     </row>
     <row r="25" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25">
         <f>COUNTIF(D25:DS25, "C")</f>
@@ -4270,7 +4272,7 @@
       <c r="DS25" s="50"/>
     </row>
     <row r="26" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107">
+      <c r="A26" s="102">
         <v>8</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4430,11 +4432,11 @@
       <c r="DS26" s="42"/>
     </row>
     <row r="27" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
@@ -4487,9 +4489,7 @@
       <c r="AX27" s="46"/>
       <c r="AY27" s="46"/>
       <c r="AZ27" s="46"/>
-      <c r="BA27" s="47" t="s">
-        <v>14</v>
-      </c>
+      <c r="BA27" s="47"/>
       <c r="BB27" s="48"/>
       <c r="BC27" s="45"/>
       <c r="BD27" s="45"/>
@@ -4562,7 +4562,7 @@
       <c r="DS27" s="50"/>
     </row>
     <row r="28" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="29" t="s">
         <v>5</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="DS28" s="42"/>
     </row>
     <row r="29" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
@@ -5020,41 +5020,21 @@
     <row r="35" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="CU8:CY8"/>
-    <mergeCell ref="CF6:CO6"/>
-    <mergeCell ref="CP6:CY6"/>
-    <mergeCell ref="CF7:CO7"/>
-    <mergeCell ref="CP7:CY7"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="BV6:CE6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CE7"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="AR7:BA7"/>
-    <mergeCell ref="BB7:BK7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="CZ6:DI6"/>
+    <mergeCell ref="DJ6:DS6"/>
+    <mergeCell ref="CZ7:DI7"/>
+    <mergeCell ref="DJ7:DS7"/>
+    <mergeCell ref="CZ8:DD8"/>
+    <mergeCell ref="DE8:DI8"/>
+    <mergeCell ref="DJ8:DN8"/>
+    <mergeCell ref="DO8:DS8"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AV2:BC2"/>
@@ -5069,21 +5049,41 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AV4:BC4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="CZ6:DI6"/>
-    <mergeCell ref="DJ6:DS6"/>
-    <mergeCell ref="CZ7:DI7"/>
-    <mergeCell ref="DJ7:DS7"/>
-    <mergeCell ref="CZ8:DD8"/>
-    <mergeCell ref="DE8:DI8"/>
-    <mergeCell ref="DJ8:DN8"/>
-    <mergeCell ref="DO8:DS8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="AR7:BA7"/>
+    <mergeCell ref="BB7:BK7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BB8:BF8"/>
+    <mergeCell ref="BL6:BU6"/>
+    <mergeCell ref="BV6:CE6"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CE7"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="CA8:CE8"/>
+    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="CU8:CY8"/>
+    <mergeCell ref="CF6:CO6"/>
+    <mergeCell ref="CP6:CY6"/>
+    <mergeCell ref="CF7:CO7"/>
+    <mergeCell ref="CP7:CY7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D10:CY29">

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -782,21 +782,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,6 +802,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,21 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1187,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AX12" sqref="AX12"/>
+      <selection pane="bottomRight" activeCell="BG19" sqref="BG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,23 +1238,23 @@
       <c r="AI2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="111">
+      <c r="AN2" s="104">
         <v>43202</v>
       </c>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
-      <c r="AT2" s="111"/>
-      <c r="AV2" s="110"/>
-      <c r="AW2" s="110"/>
-      <c r="AX2" s="110"/>
-      <c r="AY2" s="110"/>
-      <c r="AZ2" s="110"/>
-      <c r="BA2" s="110"/>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
     </row>
     <row r="3" spans="1:123" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1354,501 +1354,501 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="112">
+      <c r="AN4" s="105">
         <v>43235</v>
       </c>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113"/>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="113"/>
-      <c r="AS4" s="113"/>
-      <c r="AT4" s="113"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BH4" s="114"/>
-      <c r="BI4" s="114"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
     </row>
     <row r="5" spans="1:123" s="1" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:123" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="95">
+      <c r="D6" s="90">
         <v>43202</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="95">
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="90">
         <v>43203</v>
       </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="95">
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="90">
         <v>43206</v>
       </c>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="95">
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="90">
         <v>43207</v>
       </c>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="95">
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="90">
         <v>43216</v>
       </c>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="97"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97"/>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="95">
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="90">
         <v>43217</v>
       </c>
-      <c r="BC6" s="96"/>
-      <c r="BD6" s="96"/>
-      <c r="BE6" s="96"/>
-      <c r="BF6" s="97"/>
-      <c r="BG6" s="97"/>
-      <c r="BH6" s="97"/>
-      <c r="BI6" s="97"/>
-      <c r="BJ6" s="97"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="95">
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="90">
         <v>43220</v>
       </c>
-      <c r="BM6" s="96"/>
-      <c r="BN6" s="96"/>
-      <c r="BO6" s="96"/>
-      <c r="BP6" s="97"/>
-      <c r="BQ6" s="97"/>
-      <c r="BR6" s="97"/>
-      <c r="BS6" s="97"/>
-      <c r="BT6" s="97"/>
-      <c r="BU6" s="98"/>
-      <c r="BV6" s="95">
+      <c r="BM6" s="91"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="92"/>
+      <c r="BQ6" s="92"/>
+      <c r="BR6" s="92"/>
+      <c r="BS6" s="92"/>
+      <c r="BT6" s="92"/>
+      <c r="BU6" s="93"/>
+      <c r="BV6" s="90">
         <v>43221</v>
       </c>
-      <c r="BW6" s="96"/>
-      <c r="BX6" s="96"/>
-      <c r="BY6" s="96"/>
-      <c r="BZ6" s="97"/>
-      <c r="CA6" s="97"/>
-      <c r="CB6" s="97"/>
-      <c r="CC6" s="97"/>
-      <c r="CD6" s="97"/>
-      <c r="CE6" s="98"/>
-      <c r="CF6" s="95">
+      <c r="BW6" s="91"/>
+      <c r="BX6" s="91"/>
+      <c r="BY6" s="91"/>
+      <c r="BZ6" s="92"/>
+      <c r="CA6" s="92"/>
+      <c r="CB6" s="92"/>
+      <c r="CC6" s="92"/>
+      <c r="CD6" s="92"/>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="90">
         <v>43230</v>
       </c>
-      <c r="CG6" s="96"/>
-      <c r="CH6" s="96"/>
-      <c r="CI6" s="96"/>
-      <c r="CJ6" s="97"/>
-      <c r="CK6" s="97"/>
-      <c r="CL6" s="97"/>
-      <c r="CM6" s="97"/>
-      <c r="CN6" s="97"/>
-      <c r="CO6" s="98"/>
-      <c r="CP6" s="95">
+      <c r="CG6" s="91"/>
+      <c r="CH6" s="91"/>
+      <c r="CI6" s="91"/>
+      <c r="CJ6" s="92"/>
+      <c r="CK6" s="92"/>
+      <c r="CL6" s="92"/>
+      <c r="CM6" s="92"/>
+      <c r="CN6" s="92"/>
+      <c r="CO6" s="93"/>
+      <c r="CP6" s="90">
         <v>43231</v>
       </c>
-      <c r="CQ6" s="96"/>
-      <c r="CR6" s="96"/>
-      <c r="CS6" s="96"/>
-      <c r="CT6" s="97"/>
-      <c r="CU6" s="97"/>
-      <c r="CV6" s="97"/>
-      <c r="CW6" s="97"/>
-      <c r="CX6" s="97"/>
-      <c r="CY6" s="98"/>
-      <c r="CZ6" s="95">
+      <c r="CQ6" s="91"/>
+      <c r="CR6" s="91"/>
+      <c r="CS6" s="91"/>
+      <c r="CT6" s="92"/>
+      <c r="CU6" s="92"/>
+      <c r="CV6" s="92"/>
+      <c r="CW6" s="92"/>
+      <c r="CX6" s="92"/>
+      <c r="CY6" s="93"/>
+      <c r="CZ6" s="90">
         <v>43234</v>
       </c>
-      <c r="DA6" s="96"/>
-      <c r="DB6" s="96"/>
-      <c r="DC6" s="96"/>
-      <c r="DD6" s="97"/>
-      <c r="DE6" s="97"/>
-      <c r="DF6" s="97"/>
-      <c r="DG6" s="97"/>
-      <c r="DH6" s="97"/>
-      <c r="DI6" s="98"/>
-      <c r="DJ6" s="95">
+      <c r="DA6" s="91"/>
+      <c r="DB6" s="91"/>
+      <c r="DC6" s="91"/>
+      <c r="DD6" s="92"/>
+      <c r="DE6" s="92"/>
+      <c r="DF6" s="92"/>
+      <c r="DG6" s="92"/>
+      <c r="DH6" s="92"/>
+      <c r="DI6" s="93"/>
+      <c r="DJ6" s="90">
         <v>43235</v>
       </c>
-      <c r="DK6" s="96"/>
-      <c r="DL6" s="96"/>
-      <c r="DM6" s="96"/>
-      <c r="DN6" s="97"/>
-      <c r="DO6" s="97"/>
-      <c r="DP6" s="97"/>
-      <c r="DQ6" s="97"/>
-      <c r="DR6" s="97"/>
-      <c r="DS6" s="98"/>
+      <c r="DK6" s="91"/>
+      <c r="DL6" s="91"/>
+      <c r="DM6" s="91"/>
+      <c r="DN6" s="92"/>
+      <c r="DO6" s="92"/>
+      <c r="DP6" s="92"/>
+      <c r="DQ6" s="92"/>
+      <c r="DR6" s="92"/>
+      <c r="DS6" s="93"/>
     </row>
     <row r="7" spans="1:123" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="99" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="99" t="s">
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="99" t="s">
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="99" t="s">
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
-      <c r="AU7" s="100"/>
-      <c r="AV7" s="100"/>
-      <c r="AW7" s="100"/>
-      <c r="AX7" s="100"/>
-      <c r="AY7" s="100"/>
-      <c r="AZ7" s="100"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="99" t="s">
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="100"/>
-      <c r="BD7" s="100"/>
-      <c r="BE7" s="100"/>
-      <c r="BF7" s="100"/>
-      <c r="BG7" s="100"/>
-      <c r="BH7" s="100"/>
-      <c r="BI7" s="100"/>
-      <c r="BJ7" s="100"/>
-      <c r="BK7" s="101"/>
-      <c r="BL7" s="99" t="s">
+      <c r="BC7" s="95"/>
+      <c r="BD7" s="95"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="95"/>
+      <c r="BK7" s="96"/>
+      <c r="BL7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="100"/>
-      <c r="BN7" s="100"/>
-      <c r="BO7" s="100"/>
-      <c r="BP7" s="100"/>
-      <c r="BQ7" s="100"/>
-      <c r="BR7" s="100"/>
-      <c r="BS7" s="100"/>
-      <c r="BT7" s="100"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="99" t="s">
+      <c r="BM7" s="95"/>
+      <c r="BN7" s="95"/>
+      <c r="BO7" s="95"/>
+      <c r="BP7" s="95"/>
+      <c r="BQ7" s="95"/>
+      <c r="BR7" s="95"/>
+      <c r="BS7" s="95"/>
+      <c r="BT7" s="95"/>
+      <c r="BU7" s="96"/>
+      <c r="BV7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="100"/>
-      <c r="BX7" s="100"/>
-      <c r="BY7" s="100"/>
-      <c r="BZ7" s="100"/>
-      <c r="CA7" s="100"/>
-      <c r="CB7" s="100"/>
-      <c r="CC7" s="100"/>
-      <c r="CD7" s="100"/>
-      <c r="CE7" s="101"/>
-      <c r="CF7" s="99" t="s">
+      <c r="BW7" s="95"/>
+      <c r="BX7" s="95"/>
+      <c r="BY7" s="95"/>
+      <c r="BZ7" s="95"/>
+      <c r="CA7" s="95"/>
+      <c r="CB7" s="95"/>
+      <c r="CC7" s="95"/>
+      <c r="CD7" s="95"/>
+      <c r="CE7" s="96"/>
+      <c r="CF7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="100"/>
-      <c r="CH7" s="100"/>
-      <c r="CI7" s="100"/>
-      <c r="CJ7" s="100"/>
-      <c r="CK7" s="100"/>
-      <c r="CL7" s="100"/>
-      <c r="CM7" s="100"/>
-      <c r="CN7" s="100"/>
-      <c r="CO7" s="101"/>
-      <c r="CP7" s="99" t="s">
+      <c r="CG7" s="95"/>
+      <c r="CH7" s="95"/>
+      <c r="CI7" s="95"/>
+      <c r="CJ7" s="95"/>
+      <c r="CK7" s="95"/>
+      <c r="CL7" s="95"/>
+      <c r="CM7" s="95"/>
+      <c r="CN7" s="95"/>
+      <c r="CO7" s="96"/>
+      <c r="CP7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="CQ7" s="100"/>
-      <c r="CR7" s="100"/>
-      <c r="CS7" s="100"/>
-      <c r="CT7" s="100"/>
-      <c r="CU7" s="100"/>
-      <c r="CV7" s="100"/>
-      <c r="CW7" s="100"/>
-      <c r="CX7" s="100"/>
-      <c r="CY7" s="101"/>
-      <c r="CZ7" s="99" t="s">
+      <c r="CQ7" s="95"/>
+      <c r="CR7" s="95"/>
+      <c r="CS7" s="95"/>
+      <c r="CT7" s="95"/>
+      <c r="CU7" s="95"/>
+      <c r="CV7" s="95"/>
+      <c r="CW7" s="95"/>
+      <c r="CX7" s="95"/>
+      <c r="CY7" s="96"/>
+      <c r="CZ7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="DA7" s="100"/>
-      <c r="DB7" s="100"/>
-      <c r="DC7" s="100"/>
-      <c r="DD7" s="100"/>
-      <c r="DE7" s="100"/>
-      <c r="DF7" s="100"/>
-      <c r="DG7" s="100"/>
-      <c r="DH7" s="100"/>
-      <c r="DI7" s="101"/>
-      <c r="DJ7" s="99" t="s">
+      <c r="DA7" s="95"/>
+      <c r="DB7" s="95"/>
+      <c r="DC7" s="95"/>
+      <c r="DD7" s="95"/>
+      <c r="DE7" s="95"/>
+      <c r="DF7" s="95"/>
+      <c r="DG7" s="95"/>
+      <c r="DH7" s="95"/>
+      <c r="DI7" s="96"/>
+      <c r="DJ7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="DK7" s="100"/>
-      <c r="DL7" s="100"/>
-      <c r="DM7" s="100"/>
-      <c r="DN7" s="100"/>
-      <c r="DO7" s="100"/>
-      <c r="DP7" s="100"/>
-      <c r="DQ7" s="100"/>
-      <c r="DR7" s="100"/>
-      <c r="DS7" s="101"/>
+      <c r="DK7" s="95"/>
+      <c r="DL7" s="95"/>
+      <c r="DM7" s="95"/>
+      <c r="DN7" s="95"/>
+      <c r="DO7" s="95"/>
+      <c r="DP7" s="95"/>
+      <c r="DQ7" s="95"/>
+      <c r="DR7" s="95"/>
+      <c r="DS7" s="96"/>
     </row>
     <row r="8" spans="1:123" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="90" t="s">
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="93" t="s">
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="90" t="s">
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="93" t="s">
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="90" t="s">
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="93" t="s">
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="90" t="s">
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="91"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="93" t="s">
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="90" t="s">
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="101"/>
+      <c r="BB8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="93" t="s">
+      <c r="BC8" s="98"/>
+      <c r="BD8" s="98"/>
+      <c r="BE8" s="98"/>
+      <c r="BF8" s="99"/>
+      <c r="BG8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="94"/>
-      <c r="BL8" s="90" t="s">
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="99"/>
+      <c r="BJ8" s="99"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BM8" s="91"/>
-      <c r="BN8" s="91"/>
-      <c r="BO8" s="91"/>
-      <c r="BP8" s="92"/>
-      <c r="BQ8" s="93" t="s">
+      <c r="BM8" s="98"/>
+      <c r="BN8" s="98"/>
+      <c r="BO8" s="98"/>
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BR8" s="92"/>
-      <c r="BS8" s="92"/>
-      <c r="BT8" s="92"/>
-      <c r="BU8" s="94"/>
-      <c r="BV8" s="90" t="s">
+      <c r="BR8" s="99"/>
+      <c r="BS8" s="99"/>
+      <c r="BT8" s="99"/>
+      <c r="BU8" s="101"/>
+      <c r="BV8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BW8" s="91"/>
-      <c r="BX8" s="91"/>
-      <c r="BY8" s="91"/>
-      <c r="BZ8" s="92"/>
-      <c r="CA8" s="93" t="s">
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="99"/>
+      <c r="CA8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CB8" s="92"/>
-      <c r="CC8" s="92"/>
-      <c r="CD8" s="92"/>
-      <c r="CE8" s="94"/>
-      <c r="CF8" s="90" t="s">
+      <c r="CB8" s="99"/>
+      <c r="CC8" s="99"/>
+      <c r="CD8" s="99"/>
+      <c r="CE8" s="101"/>
+      <c r="CF8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="CG8" s="91"/>
-      <c r="CH8" s="91"/>
-      <c r="CI8" s="91"/>
-      <c r="CJ8" s="92"/>
-      <c r="CK8" s="93" t="s">
+      <c r="CG8" s="98"/>
+      <c r="CH8" s="98"/>
+      <c r="CI8" s="98"/>
+      <c r="CJ8" s="99"/>
+      <c r="CK8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CL8" s="92"/>
-      <c r="CM8" s="92"/>
-      <c r="CN8" s="92"/>
-      <c r="CO8" s="94"/>
-      <c r="CP8" s="90" t="s">
+      <c r="CL8" s="99"/>
+      <c r="CM8" s="99"/>
+      <c r="CN8" s="99"/>
+      <c r="CO8" s="101"/>
+      <c r="CP8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="91"/>
-      <c r="CS8" s="91"/>
-      <c r="CT8" s="92"/>
-      <c r="CU8" s="93" t="s">
+      <c r="CQ8" s="98"/>
+      <c r="CR8" s="98"/>
+      <c r="CS8" s="98"/>
+      <c r="CT8" s="99"/>
+      <c r="CU8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CV8" s="92"/>
-      <c r="CW8" s="92"/>
-      <c r="CX8" s="92"/>
-      <c r="CY8" s="94"/>
-      <c r="CZ8" s="90" t="s">
+      <c r="CV8" s="99"/>
+      <c r="CW8" s="99"/>
+      <c r="CX8" s="99"/>
+      <c r="CY8" s="101"/>
+      <c r="CZ8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="DA8" s="91"/>
-      <c r="DB8" s="91"/>
-      <c r="DC8" s="91"/>
-      <c r="DD8" s="92"/>
-      <c r="DE8" s="93" t="s">
+      <c r="DA8" s="98"/>
+      <c r="DB8" s="98"/>
+      <c r="DC8" s="98"/>
+      <c r="DD8" s="99"/>
+      <c r="DE8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="DF8" s="92"/>
-      <c r="DG8" s="92"/>
-      <c r="DH8" s="92"/>
-      <c r="DI8" s="94"/>
-      <c r="DJ8" s="90" t="s">
+      <c r="DF8" s="99"/>
+      <c r="DG8" s="99"/>
+      <c r="DH8" s="99"/>
+      <c r="DI8" s="101"/>
+      <c r="DJ8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="DK8" s="91"/>
-      <c r="DL8" s="91"/>
-      <c r="DM8" s="91"/>
-      <c r="DN8" s="92"/>
-      <c r="DO8" s="93" t="s">
+      <c r="DK8" s="98"/>
+      <c r="DL8" s="98"/>
+      <c r="DM8" s="98"/>
+      <c r="DN8" s="99"/>
+      <c r="DO8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="DP8" s="92"/>
-      <c r="DQ8" s="92"/>
-      <c r="DR8" s="92"/>
-      <c r="DS8" s="94"/>
+      <c r="DP8" s="99"/>
+      <c r="DQ8" s="99"/>
+      <c r="DR8" s="99"/>
+      <c r="DS8" s="101"/>
     </row>
     <row r="9" spans="1:123" s="10" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -1980,7 +1980,7 @@
       <c r="DS9" s="21"/>
     </row>
     <row r="10" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102">
+      <c r="A10" s="107">
         <v>0</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2132,7 +2132,7 @@
       <c r="DS10" s="42"/>
     </row>
     <row r="11" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
@@ -2274,7 +2274,7 @@
       <c r="DS11" s="50"/>
     </row>
     <row r="12" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102">
+      <c r="A12" s="107">
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2424,7 +2424,7 @@
       <c r="DS12" s="42"/>
     </row>
     <row r="13" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
@@ -2558,7 +2558,7 @@
       <c r="DS13" s="50"/>
     </row>
     <row r="14" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="109">
+      <c r="A14" s="114">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2726,11 +2726,11 @@
       <c r="DS14" s="40"/>
     </row>
     <row r="15" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2818,11 +2818,21 @@
       <c r="AY15" s="46"/>
       <c r="AZ15" s="46"/>
       <c r="BA15" s="47"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="45"/>
-      <c r="BD15" s="45"/>
-      <c r="BE15" s="45"/>
-      <c r="BF15" s="46"/>
+      <c r="BB15" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF15" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="BG15" s="46"/>
       <c r="BH15" s="46"/>
       <c r="BI15" s="46"/>
@@ -2890,7 +2900,7 @@
       <c r="DS15" s="50"/>
     </row>
     <row r="16" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102">
+      <c r="A16" s="107">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3030,7 +3040,7 @@
       <c r="DS16" s="42"/>
     </row>
     <row r="17" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25">
         <f>COUNTIF(D17:DS17, "C")</f>
@@ -3158,7 +3168,7 @@
       <c r="DS17" s="50"/>
     </row>
     <row r="18" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102">
+      <c r="A18" s="107">
         <v>4</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3312,11 +3322,11 @@
       <c r="DS18" s="42"/>
     </row>
     <row r="19" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="44"/>
@@ -3384,9 +3394,15 @@
       <c r="BE19" s="45"/>
       <c r="BF19" s="46"/>
       <c r="BG19" s="46"/>
-      <c r="BH19" s="46"/>
-      <c r="BI19" s="46"/>
-      <c r="BJ19" s="46"/>
+      <c r="BH19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ19" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="BK19" s="50"/>
       <c r="BL19" s="48"/>
       <c r="BM19" s="45"/>
@@ -3450,7 +3466,7 @@
       <c r="DS19" s="50"/>
     </row>
     <row r="20" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102">
+      <c r="A20" s="107">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3604,11 +3620,11 @@
       <c r="DS20" s="42"/>
     </row>
     <row r="21" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
@@ -3675,7 +3691,9 @@
       <c r="BD21" s="45"/>
       <c r="BE21" s="45"/>
       <c r="BF21" s="46"/>
-      <c r="BG21" s="46"/>
+      <c r="BG21" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="BH21" s="46"/>
       <c r="BI21" s="46"/>
       <c r="BJ21" s="46"/>
@@ -3742,7 +3760,7 @@
       <c r="DS21" s="50"/>
     </row>
     <row r="22" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102">
+      <c r="A22" s="107">
         <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3886,7 +3904,7 @@
       <c r="DS22" s="42"/>
     </row>
     <row r="23" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25">
         <f>COUNTIF(D23:DS23, "C")</f>
@@ -4014,7 +4032,7 @@
       <c r="DS23" s="50"/>
     </row>
     <row r="24" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="102">
+      <c r="A24" s="107">
         <v>7</v>
       </c>
       <c r="B24" s="22"/>
@@ -4144,7 +4162,7 @@
       <c r="DS24" s="42"/>
     </row>
     <row r="25" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25">
         <f>COUNTIF(D25:DS25, "C")</f>
@@ -4272,7 +4290,7 @@
       <c r="DS25" s="50"/>
     </row>
     <row r="26" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102">
+      <c r="A26" s="107">
         <v>8</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4432,7 +4450,7 @@
       <c r="DS26" s="42"/>
     </row>
     <row r="27" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
@@ -4562,7 +4580,7 @@
       <c r="DS27" s="50"/>
     </row>
     <row r="28" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="29" t="s">
         <v>5</v>
       </c>
@@ -4692,13 +4710,13 @@
       <c r="DS28" s="42"/>
     </row>
     <row r="29" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -5020,21 +5038,41 @@
     <row r="35" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="CZ6:DI6"/>
-    <mergeCell ref="DJ6:DS6"/>
-    <mergeCell ref="CZ7:DI7"/>
-    <mergeCell ref="DJ7:DS7"/>
-    <mergeCell ref="CZ8:DD8"/>
-    <mergeCell ref="DE8:DI8"/>
-    <mergeCell ref="DJ8:DN8"/>
-    <mergeCell ref="DO8:DS8"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="CU8:CY8"/>
+    <mergeCell ref="CF6:CO6"/>
+    <mergeCell ref="CP6:CY6"/>
+    <mergeCell ref="CF7:CO7"/>
+    <mergeCell ref="CP7:CY7"/>
+    <mergeCell ref="BL6:BU6"/>
+    <mergeCell ref="BV6:CE6"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CE7"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="CA8:CE8"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="AR7:BA7"/>
+    <mergeCell ref="BB7:BK7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BB8:BF8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AV2:BC2"/>
@@ -5049,41 +5087,21 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AV4:BC4"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="AR7:BA7"/>
-    <mergeCell ref="BB7:BK7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="BV6:CE6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CE7"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="CU8:CY8"/>
-    <mergeCell ref="CF6:CO6"/>
-    <mergeCell ref="CP6:CY6"/>
-    <mergeCell ref="CF7:CO7"/>
-    <mergeCell ref="CP7:CY7"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="CZ6:DI6"/>
+    <mergeCell ref="DJ6:DS6"/>
+    <mergeCell ref="CZ7:DI7"/>
+    <mergeCell ref="DJ7:DS7"/>
+    <mergeCell ref="CZ8:DD8"/>
+    <mergeCell ref="DE8:DI8"/>
+    <mergeCell ref="DJ8:DN8"/>
+    <mergeCell ref="DO8:DS8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D10:CY29">

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -782,6 +782,21 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,36 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +841,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,10 +1184,10 @@
   <dimension ref="A1:DS35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BG19" sqref="BG19"/>
+      <selection pane="bottomRight" activeCell="BT27" sqref="BT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,23 +1238,23 @@
       <c r="AI2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="104">
+      <c r="AN2" s="111">
         <v>43202</v>
       </c>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="111"/>
+      <c r="AS2" s="111"/>
+      <c r="AT2" s="111"/>
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="110"/>
+      <c r="AX2" s="110"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="110"/>
+      <c r="BA2" s="110"/>
+      <c r="BB2" s="110"/>
+      <c r="BC2" s="110"/>
     </row>
     <row r="3" spans="1:123" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1354,501 +1354,501 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="105">
+      <c r="AN4" s="112">
         <v>43235</v>
       </c>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
     </row>
     <row r="5" spans="1:123" s="1" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:123" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="95">
         <v>43202</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="90">
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="95">
         <v>43203</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="90">
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="95">
         <v>43206</v>
       </c>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="90">
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="95">
         <v>43207</v>
       </c>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="90">
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="98"/>
+      <c r="AR6" s="95">
         <v>43216</v>
       </c>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="92"/>
-      <c r="BA6" s="93"/>
-      <c r="BB6" s="90">
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="98"/>
+      <c r="BB6" s="95">
         <v>43217</v>
       </c>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="92"/>
-      <c r="BJ6" s="92"/>
-      <c r="BK6" s="93"/>
-      <c r="BL6" s="90">
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="97"/>
+      <c r="BJ6" s="97"/>
+      <c r="BK6" s="98"/>
+      <c r="BL6" s="95">
         <v>43220</v>
       </c>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="91"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="92"/>
-      <c r="BQ6" s="92"/>
-      <c r="BR6" s="92"/>
-      <c r="BS6" s="92"/>
-      <c r="BT6" s="92"/>
-      <c r="BU6" s="93"/>
-      <c r="BV6" s="90">
+      <c r="BM6" s="96"/>
+      <c r="BN6" s="96"/>
+      <c r="BO6" s="96"/>
+      <c r="BP6" s="97"/>
+      <c r="BQ6" s="97"/>
+      <c r="BR6" s="97"/>
+      <c r="BS6" s="97"/>
+      <c r="BT6" s="97"/>
+      <c r="BU6" s="98"/>
+      <c r="BV6" s="95">
         <v>43221</v>
       </c>
-      <c r="BW6" s="91"/>
-      <c r="BX6" s="91"/>
-      <c r="BY6" s="91"/>
-      <c r="BZ6" s="92"/>
-      <c r="CA6" s="92"/>
-      <c r="CB6" s="92"/>
-      <c r="CC6" s="92"/>
-      <c r="CD6" s="92"/>
-      <c r="CE6" s="93"/>
-      <c r="CF6" s="90">
+      <c r="BW6" s="96"/>
+      <c r="BX6" s="96"/>
+      <c r="BY6" s="96"/>
+      <c r="BZ6" s="97"/>
+      <c r="CA6" s="97"/>
+      <c r="CB6" s="97"/>
+      <c r="CC6" s="97"/>
+      <c r="CD6" s="97"/>
+      <c r="CE6" s="98"/>
+      <c r="CF6" s="95">
         <v>43230</v>
       </c>
-      <c r="CG6" s="91"/>
-      <c r="CH6" s="91"/>
-      <c r="CI6" s="91"/>
-      <c r="CJ6" s="92"/>
-      <c r="CK6" s="92"/>
-      <c r="CL6" s="92"/>
-      <c r="CM6" s="92"/>
-      <c r="CN6" s="92"/>
-      <c r="CO6" s="93"/>
-      <c r="CP6" s="90">
+      <c r="CG6" s="96"/>
+      <c r="CH6" s="96"/>
+      <c r="CI6" s="96"/>
+      <c r="CJ6" s="97"/>
+      <c r="CK6" s="97"/>
+      <c r="CL6" s="97"/>
+      <c r="CM6" s="97"/>
+      <c r="CN6" s="97"/>
+      <c r="CO6" s="98"/>
+      <c r="CP6" s="95">
         <v>43231</v>
       </c>
-      <c r="CQ6" s="91"/>
-      <c r="CR6" s="91"/>
-      <c r="CS6" s="91"/>
-      <c r="CT6" s="92"/>
-      <c r="CU6" s="92"/>
-      <c r="CV6" s="92"/>
-      <c r="CW6" s="92"/>
-      <c r="CX6" s="92"/>
-      <c r="CY6" s="93"/>
-      <c r="CZ6" s="90">
+      <c r="CQ6" s="96"/>
+      <c r="CR6" s="96"/>
+      <c r="CS6" s="96"/>
+      <c r="CT6" s="97"/>
+      <c r="CU6" s="97"/>
+      <c r="CV6" s="97"/>
+      <c r="CW6" s="97"/>
+      <c r="CX6" s="97"/>
+      <c r="CY6" s="98"/>
+      <c r="CZ6" s="95">
         <v>43234</v>
       </c>
-      <c r="DA6" s="91"/>
-      <c r="DB6" s="91"/>
-      <c r="DC6" s="91"/>
-      <c r="DD6" s="92"/>
-      <c r="DE6" s="92"/>
-      <c r="DF6" s="92"/>
-      <c r="DG6" s="92"/>
-      <c r="DH6" s="92"/>
-      <c r="DI6" s="93"/>
-      <c r="DJ6" s="90">
+      <c r="DA6" s="96"/>
+      <c r="DB6" s="96"/>
+      <c r="DC6" s="96"/>
+      <c r="DD6" s="97"/>
+      <c r="DE6" s="97"/>
+      <c r="DF6" s="97"/>
+      <c r="DG6" s="97"/>
+      <c r="DH6" s="97"/>
+      <c r="DI6" s="98"/>
+      <c r="DJ6" s="95">
         <v>43235</v>
       </c>
-      <c r="DK6" s="91"/>
-      <c r="DL6" s="91"/>
-      <c r="DM6" s="91"/>
-      <c r="DN6" s="92"/>
-      <c r="DO6" s="92"/>
-      <c r="DP6" s="92"/>
-      <c r="DQ6" s="92"/>
-      <c r="DR6" s="92"/>
-      <c r="DS6" s="93"/>
+      <c r="DK6" s="96"/>
+      <c r="DL6" s="96"/>
+      <c r="DM6" s="96"/>
+      <c r="DN6" s="97"/>
+      <c r="DO6" s="97"/>
+      <c r="DP6" s="97"/>
+      <c r="DQ6" s="97"/>
+      <c r="DR6" s="97"/>
+      <c r="DS6" s="98"/>
     </row>
     <row r="7" spans="1:123" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="94" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="94" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="94" t="s">
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="94" t="s">
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="94" t="s">
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="101"/>
+      <c r="BB7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="94" t="s">
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="100"/>
+      <c r="BK7" s="101"/>
+      <c r="BL7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
-      <c r="BQ7" s="95"/>
-      <c r="BR7" s="95"/>
-      <c r="BS7" s="95"/>
-      <c r="BT7" s="95"/>
-      <c r="BU7" s="96"/>
-      <c r="BV7" s="94" t="s">
+      <c r="BM7" s="100"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="100"/>
+      <c r="BP7" s="100"/>
+      <c r="BQ7" s="100"/>
+      <c r="BR7" s="100"/>
+      <c r="BS7" s="100"/>
+      <c r="BT7" s="100"/>
+      <c r="BU7" s="101"/>
+      <c r="BV7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="95"/>
-      <c r="BX7" s="95"/>
-      <c r="BY7" s="95"/>
-      <c r="BZ7" s="95"/>
-      <c r="CA7" s="95"/>
-      <c r="CB7" s="95"/>
-      <c r="CC7" s="95"/>
-      <c r="CD7" s="95"/>
-      <c r="CE7" s="96"/>
-      <c r="CF7" s="94" t="s">
+      <c r="BW7" s="100"/>
+      <c r="BX7" s="100"/>
+      <c r="BY7" s="100"/>
+      <c r="BZ7" s="100"/>
+      <c r="CA7" s="100"/>
+      <c r="CB7" s="100"/>
+      <c r="CC7" s="100"/>
+      <c r="CD7" s="100"/>
+      <c r="CE7" s="101"/>
+      <c r="CF7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="95"/>
-      <c r="CH7" s="95"/>
-      <c r="CI7" s="95"/>
-      <c r="CJ7" s="95"/>
-      <c r="CK7" s="95"/>
-      <c r="CL7" s="95"/>
-      <c r="CM7" s="95"/>
-      <c r="CN7" s="95"/>
-      <c r="CO7" s="96"/>
-      <c r="CP7" s="94" t="s">
+      <c r="CG7" s="100"/>
+      <c r="CH7" s="100"/>
+      <c r="CI7" s="100"/>
+      <c r="CJ7" s="100"/>
+      <c r="CK7" s="100"/>
+      <c r="CL7" s="100"/>
+      <c r="CM7" s="100"/>
+      <c r="CN7" s="100"/>
+      <c r="CO7" s="101"/>
+      <c r="CP7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="CQ7" s="95"/>
-      <c r="CR7" s="95"/>
-      <c r="CS7" s="95"/>
-      <c r="CT7" s="95"/>
-      <c r="CU7" s="95"/>
-      <c r="CV7" s="95"/>
-      <c r="CW7" s="95"/>
-      <c r="CX7" s="95"/>
-      <c r="CY7" s="96"/>
-      <c r="CZ7" s="94" t="s">
+      <c r="CQ7" s="100"/>
+      <c r="CR7" s="100"/>
+      <c r="CS7" s="100"/>
+      <c r="CT7" s="100"/>
+      <c r="CU7" s="100"/>
+      <c r="CV7" s="100"/>
+      <c r="CW7" s="100"/>
+      <c r="CX7" s="100"/>
+      <c r="CY7" s="101"/>
+      <c r="CZ7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="DA7" s="95"/>
-      <c r="DB7" s="95"/>
-      <c r="DC7" s="95"/>
-      <c r="DD7" s="95"/>
-      <c r="DE7" s="95"/>
-      <c r="DF7" s="95"/>
-      <c r="DG7" s="95"/>
-      <c r="DH7" s="95"/>
-      <c r="DI7" s="96"/>
-      <c r="DJ7" s="94" t="s">
+      <c r="DA7" s="100"/>
+      <c r="DB7" s="100"/>
+      <c r="DC7" s="100"/>
+      <c r="DD7" s="100"/>
+      <c r="DE7" s="100"/>
+      <c r="DF7" s="100"/>
+      <c r="DG7" s="100"/>
+      <c r="DH7" s="100"/>
+      <c r="DI7" s="101"/>
+      <c r="DJ7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="DK7" s="95"/>
-      <c r="DL7" s="95"/>
-      <c r="DM7" s="95"/>
-      <c r="DN7" s="95"/>
-      <c r="DO7" s="95"/>
-      <c r="DP7" s="95"/>
-      <c r="DQ7" s="95"/>
-      <c r="DR7" s="95"/>
-      <c r="DS7" s="96"/>
+      <c r="DK7" s="100"/>
+      <c r="DL7" s="100"/>
+      <c r="DM7" s="100"/>
+      <c r="DN7" s="100"/>
+      <c r="DO7" s="100"/>
+      <c r="DP7" s="100"/>
+      <c r="DQ7" s="100"/>
+      <c r="DR7" s="100"/>
+      <c r="DS7" s="101"/>
     </row>
     <row r="8" spans="1:123" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="97" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100" t="s">
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="97" t="s">
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="100" t="s">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="97" t="s">
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="100" t="s">
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="97" t="s">
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="100" t="s">
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="97" t="s">
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="100" t="s">
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BH8" s="99"/>
-      <c r="BI8" s="99"/>
-      <c r="BJ8" s="99"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="97" t="s">
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BM8" s="98"/>
-      <c r="BN8" s="98"/>
-      <c r="BO8" s="98"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="100" t="s">
+      <c r="BM8" s="91"/>
+      <c r="BN8" s="91"/>
+      <c r="BO8" s="91"/>
+      <c r="BP8" s="92"/>
+      <c r="BQ8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BR8" s="99"/>
-      <c r="BS8" s="99"/>
-      <c r="BT8" s="99"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="97" t="s">
+      <c r="BR8" s="92"/>
+      <c r="BS8" s="92"/>
+      <c r="BT8" s="92"/>
+      <c r="BU8" s="94"/>
+      <c r="BV8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BW8" s="98"/>
-      <c r="BX8" s="98"/>
-      <c r="BY8" s="98"/>
-      <c r="BZ8" s="99"/>
-      <c r="CA8" s="100" t="s">
+      <c r="BW8" s="91"/>
+      <c r="BX8" s="91"/>
+      <c r="BY8" s="91"/>
+      <c r="BZ8" s="92"/>
+      <c r="CA8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CB8" s="99"/>
-      <c r="CC8" s="99"/>
-      <c r="CD8" s="99"/>
-      <c r="CE8" s="101"/>
-      <c r="CF8" s="97" t="s">
+      <c r="CB8" s="92"/>
+      <c r="CC8" s="92"/>
+      <c r="CD8" s="92"/>
+      <c r="CE8" s="94"/>
+      <c r="CF8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CG8" s="98"/>
-      <c r="CH8" s="98"/>
-      <c r="CI8" s="98"/>
-      <c r="CJ8" s="99"/>
-      <c r="CK8" s="100" t="s">
+      <c r="CG8" s="91"/>
+      <c r="CH8" s="91"/>
+      <c r="CI8" s="91"/>
+      <c r="CJ8" s="92"/>
+      <c r="CK8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CL8" s="99"/>
-      <c r="CM8" s="99"/>
-      <c r="CN8" s="99"/>
-      <c r="CO8" s="101"/>
-      <c r="CP8" s="97" t="s">
+      <c r="CL8" s="92"/>
+      <c r="CM8" s="92"/>
+      <c r="CN8" s="92"/>
+      <c r="CO8" s="94"/>
+      <c r="CP8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="98"/>
-      <c r="CR8" s="98"/>
-      <c r="CS8" s="98"/>
-      <c r="CT8" s="99"/>
-      <c r="CU8" s="100" t="s">
+      <c r="CQ8" s="91"/>
+      <c r="CR8" s="91"/>
+      <c r="CS8" s="91"/>
+      <c r="CT8" s="92"/>
+      <c r="CU8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CV8" s="99"/>
-      <c r="CW8" s="99"/>
-      <c r="CX8" s="99"/>
-      <c r="CY8" s="101"/>
-      <c r="CZ8" s="97" t="s">
+      <c r="CV8" s="92"/>
+      <c r="CW8" s="92"/>
+      <c r="CX8" s="92"/>
+      <c r="CY8" s="94"/>
+      <c r="CZ8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="DA8" s="98"/>
-      <c r="DB8" s="98"/>
-      <c r="DC8" s="98"/>
-      <c r="DD8" s="99"/>
-      <c r="DE8" s="100" t="s">
+      <c r="DA8" s="91"/>
+      <c r="DB8" s="91"/>
+      <c r="DC8" s="91"/>
+      <c r="DD8" s="92"/>
+      <c r="DE8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DF8" s="99"/>
-      <c r="DG8" s="99"/>
-      <c r="DH8" s="99"/>
-      <c r="DI8" s="101"/>
-      <c r="DJ8" s="97" t="s">
+      <c r="DF8" s="92"/>
+      <c r="DG8" s="92"/>
+      <c r="DH8" s="92"/>
+      <c r="DI8" s="94"/>
+      <c r="DJ8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="DK8" s="98"/>
-      <c r="DL8" s="98"/>
-      <c r="DM8" s="98"/>
-      <c r="DN8" s="99"/>
-      <c r="DO8" s="100" t="s">
+      <c r="DK8" s="91"/>
+      <c r="DL8" s="91"/>
+      <c r="DM8" s="91"/>
+      <c r="DN8" s="92"/>
+      <c r="DO8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DP8" s="99"/>
-      <c r="DQ8" s="99"/>
-      <c r="DR8" s="99"/>
-      <c r="DS8" s="101"/>
+      <c r="DP8" s="92"/>
+      <c r="DQ8" s="92"/>
+      <c r="DR8" s="92"/>
+      <c r="DS8" s="94"/>
     </row>
     <row r="9" spans="1:123" s="10" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -1980,7 +1980,7 @@
       <c r="DS9" s="21"/>
     </row>
     <row r="10" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107">
+      <c r="A10" s="102">
         <v>0</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2132,7 +2132,7 @@
       <c r="DS10" s="42"/>
     </row>
     <row r="11" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
@@ -2274,7 +2274,7 @@
       <c r="DS11" s="50"/>
     </row>
     <row r="12" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107">
+      <c r="A12" s="102">
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2424,7 +2424,7 @@
       <c r="DS12" s="42"/>
     </row>
     <row r="13" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
@@ -2558,7 +2558,7 @@
       <c r="DS13" s="50"/>
     </row>
     <row r="14" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114">
+      <c r="A14" s="109">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2726,11 +2726,11 @@
       <c r="DS14" s="40"/>
     </row>
     <row r="15" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="109"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2844,7 +2844,9 @@
       <c r="BO15" s="45"/>
       <c r="BP15" s="46"/>
       <c r="BQ15" s="46"/>
-      <c r="BR15" s="46"/>
+      <c r="BR15" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="BS15" s="46"/>
       <c r="BT15" s="46"/>
       <c r="BU15" s="47"/>
@@ -2900,7 +2902,7 @@
       <c r="DS15" s="50"/>
     </row>
     <row r="16" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107">
+      <c r="A16" s="102">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3040,7 +3042,7 @@
       <c r="DS16" s="42"/>
     </row>
     <row r="17" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="109"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25">
         <f>COUNTIF(D17:DS17, "C")</f>
@@ -3168,7 +3170,7 @@
       <c r="DS17" s="50"/>
     </row>
     <row r="18" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107">
+      <c r="A18" s="102">
         <v>4</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3322,11 +3324,11 @@
       <c r="DS18" s="42"/>
     </row>
     <row r="19" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="44"/>
@@ -3404,15 +3406,27 @@
         <v>14</v>
       </c>
       <c r="BK19" s="50"/>
-      <c r="BL19" s="48"/>
+      <c r="BL19" s="48" t="s">
+        <v>14</v>
+      </c>
       <c r="BM19" s="45"/>
-      <c r="BN19" s="45"/>
-      <c r="BO19" s="45"/>
-      <c r="BP19" s="46"/>
+      <c r="BN19" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO19" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP19" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="BQ19" s="46"/>
       <c r="BR19" s="46"/>
-      <c r="BS19" s="46"/>
-      <c r="BT19" s="46"/>
+      <c r="BS19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT19" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="BU19" s="47"/>
       <c r="BV19" s="74"/>
       <c r="BW19" s="75"/>
@@ -3466,7 +3480,7 @@
       <c r="DS19" s="50"/>
     </row>
     <row r="20" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107">
+      <c r="A20" s="102">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3620,11 +3634,11 @@
       <c r="DS20" s="42"/>
     </row>
     <row r="21" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
@@ -3699,11 +3713,15 @@
       <c r="BJ21" s="46"/>
       <c r="BK21" s="50"/>
       <c r="BL21" s="48"/>
-      <c r="BM21" s="45"/>
+      <c r="BM21" s="45" t="s">
+        <v>14</v>
+      </c>
       <c r="BN21" s="45"/>
       <c r="BO21" s="45"/>
       <c r="BP21" s="46"/>
-      <c r="BQ21" s="46"/>
+      <c r="BQ21" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="BR21" s="46"/>
       <c r="BS21" s="46"/>
       <c r="BT21" s="46"/>
@@ -3760,7 +3778,7 @@
       <c r="DS21" s="50"/>
     </row>
     <row r="22" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107">
+      <c r="A22" s="102">
         <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3904,7 +3922,7 @@
       <c r="DS22" s="42"/>
     </row>
     <row r="23" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25">
         <f>COUNTIF(D23:DS23, "C")</f>
@@ -4032,7 +4050,7 @@
       <c r="DS23" s="50"/>
     </row>
     <row r="24" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107">
+      <c r="A24" s="102">
         <v>7</v>
       </c>
       <c r="B24" s="22"/>
@@ -4162,7 +4180,7 @@
       <c r="DS24" s="42"/>
     </row>
     <row r="25" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25">
         <f>COUNTIF(D25:DS25, "C")</f>
@@ -4290,7 +4308,7 @@
       <c r="DS25" s="50"/>
     </row>
     <row r="26" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107">
+      <c r="A26" s="102">
         <v>8</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4450,11 +4468,11 @@
       <c r="DS26" s="42"/>
     </row>
     <row r="27" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
@@ -4527,7 +4545,9 @@
       <c r="BR27" s="46"/>
       <c r="BS27" s="46"/>
       <c r="BT27" s="46"/>
-      <c r="BU27" s="47"/>
+      <c r="BU27" s="47" t="s">
+        <v>14</v>
+      </c>
       <c r="BV27" s="74"/>
       <c r="BW27" s="75"/>
       <c r="BX27" s="75"/>
@@ -4580,7 +4600,7 @@
       <c r="DS27" s="50"/>
     </row>
     <row r="28" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="29" t="s">
         <v>5</v>
       </c>
@@ -4710,13 +4730,13 @@
       <c r="DS28" s="42"/>
     </row>
     <row r="29" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -5038,41 +5058,21 @@
     <row r="35" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="CU8:CY8"/>
-    <mergeCell ref="CF6:CO6"/>
-    <mergeCell ref="CP6:CY6"/>
-    <mergeCell ref="CF7:CO7"/>
-    <mergeCell ref="CP7:CY7"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="BV6:CE6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CE7"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="AR7:BA7"/>
-    <mergeCell ref="BB7:BK7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="CZ6:DI6"/>
+    <mergeCell ref="DJ6:DS6"/>
+    <mergeCell ref="CZ7:DI7"/>
+    <mergeCell ref="DJ7:DS7"/>
+    <mergeCell ref="CZ8:DD8"/>
+    <mergeCell ref="DE8:DI8"/>
+    <mergeCell ref="DJ8:DN8"/>
+    <mergeCell ref="DO8:DS8"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AV2:BC2"/>
@@ -5087,21 +5087,41 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AV4:BC4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="CZ6:DI6"/>
-    <mergeCell ref="DJ6:DS6"/>
-    <mergeCell ref="CZ7:DI7"/>
-    <mergeCell ref="DJ7:DS7"/>
-    <mergeCell ref="CZ8:DD8"/>
-    <mergeCell ref="DE8:DI8"/>
-    <mergeCell ref="DJ8:DN8"/>
-    <mergeCell ref="DO8:DS8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="AR7:BA7"/>
+    <mergeCell ref="BB7:BK7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BB8:BF8"/>
+    <mergeCell ref="BL6:BU6"/>
+    <mergeCell ref="BV6:CE6"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CE7"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="CA8:CE8"/>
+    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="CU8:CY8"/>
+    <mergeCell ref="CF6:CO6"/>
+    <mergeCell ref="CP6:CY6"/>
+    <mergeCell ref="CF7:CO7"/>
+    <mergeCell ref="CP7:CY7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D10:CY29">

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -782,21 +782,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,6 +802,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,21 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,11 +1183,11 @@
   </sheetPr>
   <dimension ref="A1:DS35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BT27" sqref="BT27"/>
+      <selection pane="bottomRight" activeCell="CQ32" sqref="CQ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1195,9 @@
     <col min="1" max="1" width="3.7109375" style="32" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="32" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="32" customWidth="1"/>
-    <col min="4" max="135" width="1.85546875" style="32" customWidth="1"/>
+    <col min="4" max="73" width="1.85546875" style="32" customWidth="1"/>
+    <col min="74" max="93" width="1.85546875" style="32" hidden="1" customWidth="1"/>
+    <col min="94" max="135" width="1.85546875" style="32" customWidth="1"/>
     <col min="136" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
@@ -1238,23 +1240,23 @@
       <c r="AI2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="111">
+      <c r="AN2" s="104">
         <v>43202</v>
       </c>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
-      <c r="AT2" s="111"/>
-      <c r="AV2" s="110"/>
-      <c r="AW2" s="110"/>
-      <c r="AX2" s="110"/>
-      <c r="AY2" s="110"/>
-      <c r="AZ2" s="110"/>
-      <c r="BA2" s="110"/>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
     </row>
     <row r="3" spans="1:123" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1354,501 +1356,501 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="112">
+      <c r="AN4" s="105">
         <v>43235</v>
       </c>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113"/>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="113"/>
-      <c r="AS4" s="113"/>
-      <c r="AT4" s="113"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BH4" s="114"/>
-      <c r="BI4" s="114"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
     </row>
     <row r="5" spans="1:123" s="1" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:123" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="95">
+      <c r="D6" s="90">
         <v>43202</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="95">
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="90">
         <v>43203</v>
       </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="95">
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="90">
         <v>43206</v>
       </c>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="95">
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="90">
         <v>43207</v>
       </c>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="95">
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="90">
         <v>43216</v>
       </c>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="97"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97"/>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="95">
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="90">
         <v>43217</v>
       </c>
-      <c r="BC6" s="96"/>
-      <c r="BD6" s="96"/>
-      <c r="BE6" s="96"/>
-      <c r="BF6" s="97"/>
-      <c r="BG6" s="97"/>
-      <c r="BH6" s="97"/>
-      <c r="BI6" s="97"/>
-      <c r="BJ6" s="97"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="95">
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="90">
         <v>43220</v>
       </c>
-      <c r="BM6" s="96"/>
-      <c r="BN6" s="96"/>
-      <c r="BO6" s="96"/>
-      <c r="BP6" s="97"/>
-      <c r="BQ6" s="97"/>
-      <c r="BR6" s="97"/>
-      <c r="BS6" s="97"/>
-      <c r="BT6" s="97"/>
-      <c r="BU6" s="98"/>
-      <c r="BV6" s="95">
+      <c r="BM6" s="91"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="92"/>
+      <c r="BQ6" s="92"/>
+      <c r="BR6" s="92"/>
+      <c r="BS6" s="92"/>
+      <c r="BT6" s="92"/>
+      <c r="BU6" s="93"/>
+      <c r="BV6" s="90">
         <v>43221</v>
       </c>
-      <c r="BW6" s="96"/>
-      <c r="BX6" s="96"/>
-      <c r="BY6" s="96"/>
-      <c r="BZ6" s="97"/>
-      <c r="CA6" s="97"/>
-      <c r="CB6" s="97"/>
-      <c r="CC6" s="97"/>
-      <c r="CD6" s="97"/>
-      <c r="CE6" s="98"/>
-      <c r="CF6" s="95">
+      <c r="BW6" s="91"/>
+      <c r="BX6" s="91"/>
+      <c r="BY6" s="91"/>
+      <c r="BZ6" s="92"/>
+      <c r="CA6" s="92"/>
+      <c r="CB6" s="92"/>
+      <c r="CC6" s="92"/>
+      <c r="CD6" s="92"/>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="90">
         <v>43230</v>
       </c>
-      <c r="CG6" s="96"/>
-      <c r="CH6" s="96"/>
-      <c r="CI6" s="96"/>
-      <c r="CJ6" s="97"/>
-      <c r="CK6" s="97"/>
-      <c r="CL6" s="97"/>
-      <c r="CM6" s="97"/>
-      <c r="CN6" s="97"/>
-      <c r="CO6" s="98"/>
-      <c r="CP6" s="95">
+      <c r="CG6" s="91"/>
+      <c r="CH6" s="91"/>
+      <c r="CI6" s="91"/>
+      <c r="CJ6" s="92"/>
+      <c r="CK6" s="92"/>
+      <c r="CL6" s="92"/>
+      <c r="CM6" s="92"/>
+      <c r="CN6" s="92"/>
+      <c r="CO6" s="93"/>
+      <c r="CP6" s="90">
         <v>43231</v>
       </c>
-      <c r="CQ6" s="96"/>
-      <c r="CR6" s="96"/>
-      <c r="CS6" s="96"/>
-      <c r="CT6" s="97"/>
-      <c r="CU6" s="97"/>
-      <c r="CV6" s="97"/>
-      <c r="CW6" s="97"/>
-      <c r="CX6" s="97"/>
-      <c r="CY6" s="98"/>
-      <c r="CZ6" s="95">
+      <c r="CQ6" s="91"/>
+      <c r="CR6" s="91"/>
+      <c r="CS6" s="91"/>
+      <c r="CT6" s="92"/>
+      <c r="CU6" s="92"/>
+      <c r="CV6" s="92"/>
+      <c r="CW6" s="92"/>
+      <c r="CX6" s="92"/>
+      <c r="CY6" s="93"/>
+      <c r="CZ6" s="90">
         <v>43234</v>
       </c>
-      <c r="DA6" s="96"/>
-      <c r="DB6" s="96"/>
-      <c r="DC6" s="96"/>
-      <c r="DD6" s="97"/>
-      <c r="DE6" s="97"/>
-      <c r="DF6" s="97"/>
-      <c r="DG6" s="97"/>
-      <c r="DH6" s="97"/>
-      <c r="DI6" s="98"/>
-      <c r="DJ6" s="95">
+      <c r="DA6" s="91"/>
+      <c r="DB6" s="91"/>
+      <c r="DC6" s="91"/>
+      <c r="DD6" s="92"/>
+      <c r="DE6" s="92"/>
+      <c r="DF6" s="92"/>
+      <c r="DG6" s="92"/>
+      <c r="DH6" s="92"/>
+      <c r="DI6" s="93"/>
+      <c r="DJ6" s="90">
         <v>43235</v>
       </c>
-      <c r="DK6" s="96"/>
-      <c r="DL6" s="96"/>
-      <c r="DM6" s="96"/>
-      <c r="DN6" s="97"/>
-      <c r="DO6" s="97"/>
-      <c r="DP6" s="97"/>
-      <c r="DQ6" s="97"/>
-      <c r="DR6" s="97"/>
-      <c r="DS6" s="98"/>
+      <c r="DK6" s="91"/>
+      <c r="DL6" s="91"/>
+      <c r="DM6" s="91"/>
+      <c r="DN6" s="92"/>
+      <c r="DO6" s="92"/>
+      <c r="DP6" s="92"/>
+      <c r="DQ6" s="92"/>
+      <c r="DR6" s="92"/>
+      <c r="DS6" s="93"/>
     </row>
     <row r="7" spans="1:123" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="99" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="99" t="s">
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="99" t="s">
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="99" t="s">
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
-      <c r="AU7" s="100"/>
-      <c r="AV7" s="100"/>
-      <c r="AW7" s="100"/>
-      <c r="AX7" s="100"/>
-      <c r="AY7" s="100"/>
-      <c r="AZ7" s="100"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="99" t="s">
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="100"/>
-      <c r="BD7" s="100"/>
-      <c r="BE7" s="100"/>
-      <c r="BF7" s="100"/>
-      <c r="BG7" s="100"/>
-      <c r="BH7" s="100"/>
-      <c r="BI7" s="100"/>
-      <c r="BJ7" s="100"/>
-      <c r="BK7" s="101"/>
-      <c r="BL7" s="99" t="s">
+      <c r="BC7" s="95"/>
+      <c r="BD7" s="95"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="95"/>
+      <c r="BK7" s="96"/>
+      <c r="BL7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="100"/>
-      <c r="BN7" s="100"/>
-      <c r="BO7" s="100"/>
-      <c r="BP7" s="100"/>
-      <c r="BQ7" s="100"/>
-      <c r="BR7" s="100"/>
-      <c r="BS7" s="100"/>
-      <c r="BT7" s="100"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="99" t="s">
+      <c r="BM7" s="95"/>
+      <c r="BN7" s="95"/>
+      <c r="BO7" s="95"/>
+      <c r="BP7" s="95"/>
+      <c r="BQ7" s="95"/>
+      <c r="BR7" s="95"/>
+      <c r="BS7" s="95"/>
+      <c r="BT7" s="95"/>
+      <c r="BU7" s="96"/>
+      <c r="BV7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="100"/>
-      <c r="BX7" s="100"/>
-      <c r="BY7" s="100"/>
-      <c r="BZ7" s="100"/>
-      <c r="CA7" s="100"/>
-      <c r="CB7" s="100"/>
-      <c r="CC7" s="100"/>
-      <c r="CD7" s="100"/>
-      <c r="CE7" s="101"/>
-      <c r="CF7" s="99" t="s">
+      <c r="BW7" s="95"/>
+      <c r="BX7" s="95"/>
+      <c r="BY7" s="95"/>
+      <c r="BZ7" s="95"/>
+      <c r="CA7" s="95"/>
+      <c r="CB7" s="95"/>
+      <c r="CC7" s="95"/>
+      <c r="CD7" s="95"/>
+      <c r="CE7" s="96"/>
+      <c r="CF7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="100"/>
-      <c r="CH7" s="100"/>
-      <c r="CI7" s="100"/>
-      <c r="CJ7" s="100"/>
-      <c r="CK7" s="100"/>
-      <c r="CL7" s="100"/>
-      <c r="CM7" s="100"/>
-      <c r="CN7" s="100"/>
-      <c r="CO7" s="101"/>
-      <c r="CP7" s="99" t="s">
+      <c r="CG7" s="95"/>
+      <c r="CH7" s="95"/>
+      <c r="CI7" s="95"/>
+      <c r="CJ7" s="95"/>
+      <c r="CK7" s="95"/>
+      <c r="CL7" s="95"/>
+      <c r="CM7" s="95"/>
+      <c r="CN7" s="95"/>
+      <c r="CO7" s="96"/>
+      <c r="CP7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="CQ7" s="100"/>
-      <c r="CR7" s="100"/>
-      <c r="CS7" s="100"/>
-      <c r="CT7" s="100"/>
-      <c r="CU7" s="100"/>
-      <c r="CV7" s="100"/>
-      <c r="CW7" s="100"/>
-      <c r="CX7" s="100"/>
-      <c r="CY7" s="101"/>
-      <c r="CZ7" s="99" t="s">
+      <c r="CQ7" s="95"/>
+      <c r="CR7" s="95"/>
+      <c r="CS7" s="95"/>
+      <c r="CT7" s="95"/>
+      <c r="CU7" s="95"/>
+      <c r="CV7" s="95"/>
+      <c r="CW7" s="95"/>
+      <c r="CX7" s="95"/>
+      <c r="CY7" s="96"/>
+      <c r="CZ7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="DA7" s="100"/>
-      <c r="DB7" s="100"/>
-      <c r="DC7" s="100"/>
-      <c r="DD7" s="100"/>
-      <c r="DE7" s="100"/>
-      <c r="DF7" s="100"/>
-      <c r="DG7" s="100"/>
-      <c r="DH7" s="100"/>
-      <c r="DI7" s="101"/>
-      <c r="DJ7" s="99" t="s">
+      <c r="DA7" s="95"/>
+      <c r="DB7" s="95"/>
+      <c r="DC7" s="95"/>
+      <c r="DD7" s="95"/>
+      <c r="DE7" s="95"/>
+      <c r="DF7" s="95"/>
+      <c r="DG7" s="95"/>
+      <c r="DH7" s="95"/>
+      <c r="DI7" s="96"/>
+      <c r="DJ7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="DK7" s="100"/>
-      <c r="DL7" s="100"/>
-      <c r="DM7" s="100"/>
-      <c r="DN7" s="100"/>
-      <c r="DO7" s="100"/>
-      <c r="DP7" s="100"/>
-      <c r="DQ7" s="100"/>
-      <c r="DR7" s="100"/>
-      <c r="DS7" s="101"/>
+      <c r="DK7" s="95"/>
+      <c r="DL7" s="95"/>
+      <c r="DM7" s="95"/>
+      <c r="DN7" s="95"/>
+      <c r="DO7" s="95"/>
+      <c r="DP7" s="95"/>
+      <c r="DQ7" s="95"/>
+      <c r="DR7" s="95"/>
+      <c r="DS7" s="96"/>
     </row>
     <row r="8" spans="1:123" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="90" t="s">
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="93" t="s">
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="90" t="s">
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="93" t="s">
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="90" t="s">
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="93" t="s">
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="90" t="s">
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="91"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="93" t="s">
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="90" t="s">
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="101"/>
+      <c r="BB8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="93" t="s">
+      <c r="BC8" s="98"/>
+      <c r="BD8" s="98"/>
+      <c r="BE8" s="98"/>
+      <c r="BF8" s="99"/>
+      <c r="BG8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="94"/>
-      <c r="BL8" s="90" t="s">
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="99"/>
+      <c r="BJ8" s="99"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BM8" s="91"/>
-      <c r="BN8" s="91"/>
-      <c r="BO8" s="91"/>
-      <c r="BP8" s="92"/>
-      <c r="BQ8" s="93" t="s">
+      <c r="BM8" s="98"/>
+      <c r="BN8" s="98"/>
+      <c r="BO8" s="98"/>
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="BR8" s="92"/>
-      <c r="BS8" s="92"/>
-      <c r="BT8" s="92"/>
-      <c r="BU8" s="94"/>
-      <c r="BV8" s="90" t="s">
+      <c r="BR8" s="99"/>
+      <c r="BS8" s="99"/>
+      <c r="BT8" s="99"/>
+      <c r="BU8" s="101"/>
+      <c r="BV8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="BW8" s="91"/>
-      <c r="BX8" s="91"/>
-      <c r="BY8" s="91"/>
-      <c r="BZ8" s="92"/>
-      <c r="CA8" s="93" t="s">
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="99"/>
+      <c r="CA8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CB8" s="92"/>
-      <c r="CC8" s="92"/>
-      <c r="CD8" s="92"/>
-      <c r="CE8" s="94"/>
-      <c r="CF8" s="90" t="s">
+      <c r="CB8" s="99"/>
+      <c r="CC8" s="99"/>
+      <c r="CD8" s="99"/>
+      <c r="CE8" s="101"/>
+      <c r="CF8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="CG8" s="91"/>
-      <c r="CH8" s="91"/>
-      <c r="CI8" s="91"/>
-      <c r="CJ8" s="92"/>
-      <c r="CK8" s="93" t="s">
+      <c r="CG8" s="98"/>
+      <c r="CH8" s="98"/>
+      <c r="CI8" s="98"/>
+      <c r="CJ8" s="99"/>
+      <c r="CK8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CL8" s="92"/>
-      <c r="CM8" s="92"/>
-      <c r="CN8" s="92"/>
-      <c r="CO8" s="94"/>
-      <c r="CP8" s="90" t="s">
+      <c r="CL8" s="99"/>
+      <c r="CM8" s="99"/>
+      <c r="CN8" s="99"/>
+      <c r="CO8" s="101"/>
+      <c r="CP8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="91"/>
-      <c r="CS8" s="91"/>
-      <c r="CT8" s="92"/>
-      <c r="CU8" s="93" t="s">
+      <c r="CQ8" s="98"/>
+      <c r="CR8" s="98"/>
+      <c r="CS8" s="98"/>
+      <c r="CT8" s="99"/>
+      <c r="CU8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="CV8" s="92"/>
-      <c r="CW8" s="92"/>
-      <c r="CX8" s="92"/>
-      <c r="CY8" s="94"/>
-      <c r="CZ8" s="90" t="s">
+      <c r="CV8" s="99"/>
+      <c r="CW8" s="99"/>
+      <c r="CX8" s="99"/>
+      <c r="CY8" s="101"/>
+      <c r="CZ8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="DA8" s="91"/>
-      <c r="DB8" s="91"/>
-      <c r="DC8" s="91"/>
-      <c r="DD8" s="92"/>
-      <c r="DE8" s="93" t="s">
+      <c r="DA8" s="98"/>
+      <c r="DB8" s="98"/>
+      <c r="DC8" s="98"/>
+      <c r="DD8" s="99"/>
+      <c r="DE8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="DF8" s="92"/>
-      <c r="DG8" s="92"/>
-      <c r="DH8" s="92"/>
-      <c r="DI8" s="94"/>
-      <c r="DJ8" s="90" t="s">
+      <c r="DF8" s="99"/>
+      <c r="DG8" s="99"/>
+      <c r="DH8" s="99"/>
+      <c r="DI8" s="101"/>
+      <c r="DJ8" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="DK8" s="91"/>
-      <c r="DL8" s="91"/>
-      <c r="DM8" s="91"/>
-      <c r="DN8" s="92"/>
-      <c r="DO8" s="93" t="s">
+      <c r="DK8" s="98"/>
+      <c r="DL8" s="98"/>
+      <c r="DM8" s="98"/>
+      <c r="DN8" s="99"/>
+      <c r="DO8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="DP8" s="92"/>
-      <c r="DQ8" s="92"/>
-      <c r="DR8" s="92"/>
-      <c r="DS8" s="94"/>
+      <c r="DP8" s="99"/>
+      <c r="DQ8" s="99"/>
+      <c r="DR8" s="99"/>
+      <c r="DS8" s="101"/>
     </row>
     <row r="9" spans="1:123" s="10" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -1980,7 +1982,7 @@
       <c r="DS9" s="21"/>
     </row>
     <row r="10" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102">
+      <c r="A10" s="107">
         <v>0</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2132,7 +2134,7 @@
       <c r="DS10" s="42"/>
     </row>
     <row r="11" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
@@ -2274,7 +2276,7 @@
       <c r="DS11" s="50"/>
     </row>
     <row r="12" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102">
+      <c r="A12" s="107">
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2424,7 +2426,7 @@
       <c r="DS12" s="42"/>
     </row>
     <row r="13" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
@@ -2558,7 +2560,7 @@
       <c r="DS13" s="50"/>
     </row>
     <row r="14" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="109">
+      <c r="A14" s="114">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2726,11 +2728,11 @@
       <c r="DS14" s="40"/>
     </row>
     <row r="15" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2885,8 +2887,12 @@
       <c r="DB15" s="45"/>
       <c r="DC15" s="45"/>
       <c r="DD15" s="46"/>
-      <c r="DE15" s="46"/>
-      <c r="DF15" s="46"/>
+      <c r="DE15" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="DF15" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="DG15" s="46"/>
       <c r="DH15" s="46"/>
       <c r="DI15" s="47"/>
@@ -2902,7 +2908,7 @@
       <c r="DS15" s="50"/>
     </row>
     <row r="16" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102">
+      <c r="A16" s="107">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3042,11 +3048,11 @@
       <c r="DS16" s="42"/>
     </row>
     <row r="17" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25">
         <f>COUNTIF(D17:DS17, "C")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="44"/>
@@ -3138,12 +3144,24 @@
       <c r="CM17" s="84"/>
       <c r="CN17" s="84"/>
       <c r="CO17" s="85"/>
-      <c r="CP17" s="48"/>
-      <c r="CQ17" s="45"/>
-      <c r="CR17" s="45"/>
-      <c r="CS17" s="45"/>
-      <c r="CT17" s="46"/>
-      <c r="CU17" s="46"/>
+      <c r="CP17" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT17" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="CU17" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="CV17" s="46"/>
       <c r="CW17" s="46"/>
       <c r="CX17" s="46"/>
@@ -3170,7 +3188,7 @@
       <c r="DS17" s="50"/>
     </row>
     <row r="18" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102">
+      <c r="A18" s="107">
         <v>4</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3324,11 +3342,11 @@
       <c r="DS18" s="42"/>
     </row>
     <row r="19" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="44"/>
@@ -3460,8 +3478,12 @@
       <c r="CY19" s="50"/>
       <c r="CZ19" s="48"/>
       <c r="DA19" s="45"/>
-      <c r="DB19" s="45"/>
-      <c r="DC19" s="45"/>
+      <c r="DB19" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="DC19" s="45" t="s">
+        <v>14</v>
+      </c>
       <c r="DD19" s="46"/>
       <c r="DE19" s="46"/>
       <c r="DF19" s="46"/>
@@ -3480,7 +3502,7 @@
       <c r="DS19" s="50"/>
     </row>
     <row r="20" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102">
+      <c r="A20" s="107">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3634,11 +3656,11 @@
       <c r="DS20" s="42"/>
     </row>
     <row r="21" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
@@ -3760,7 +3782,9 @@
       <c r="DA21" s="45"/>
       <c r="DB21" s="45"/>
       <c r="DC21" s="45"/>
-      <c r="DD21" s="46"/>
+      <c r="DD21" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="DE21" s="46"/>
       <c r="DF21" s="46"/>
       <c r="DG21" s="46"/>
@@ -3778,7 +3802,7 @@
       <c r="DS21" s="50"/>
     </row>
     <row r="22" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102">
+      <c r="A22" s="107">
         <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3922,11 +3946,11 @@
       <c r="DS22" s="42"/>
     </row>
     <row r="23" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25">
         <f>COUNTIF(D23:DS23, "C")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="44"/>
@@ -4024,12 +4048,20 @@
       <c r="CS23" s="45"/>
       <c r="CT23" s="46"/>
       <c r="CU23" s="46"/>
-      <c r="CV23" s="46"/>
-      <c r="CW23" s="46"/>
+      <c r="CV23" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="CW23" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="CX23" s="46"/>
       <c r="CY23" s="50"/>
-      <c r="CZ23" s="48"/>
-      <c r="DA23" s="45"/>
+      <c r="CZ23" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA23" s="45" t="s">
+        <v>14</v>
+      </c>
       <c r="DB23" s="45"/>
       <c r="DC23" s="45"/>
       <c r="DD23" s="46"/>
@@ -4050,7 +4082,7 @@
       <c r="DS23" s="50"/>
     </row>
     <row r="24" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="102">
+      <c r="A24" s="107">
         <v>7</v>
       </c>
       <c r="B24" s="22"/>
@@ -4180,7 +4212,7 @@
       <c r="DS24" s="42"/>
     </row>
     <row r="25" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25">
         <f>COUNTIF(D25:DS25, "C")</f>
@@ -4308,7 +4340,7 @@
       <c r="DS25" s="50"/>
     </row>
     <row r="26" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102">
+      <c r="A26" s="107">
         <v>8</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4468,11 +4500,11 @@
       <c r="DS26" s="42"/>
     </row>
     <row r="27" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
@@ -4576,7 +4608,9 @@
       <c r="CU27" s="46"/>
       <c r="CV27" s="46"/>
       <c r="CW27" s="46"/>
-      <c r="CX27" s="46"/>
+      <c r="CX27" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="CY27" s="50"/>
       <c r="CZ27" s="48"/>
       <c r="DA27" s="45"/>
@@ -4600,7 +4634,7 @@
       <c r="DS27" s="50"/>
     </row>
     <row r="28" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="102"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="29" t="s">
         <v>5</v>
       </c>
@@ -4730,13 +4764,13 @@
       <c r="DS28" s="42"/>
     </row>
     <row r="29" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -5058,21 +5092,41 @@
     <row r="35" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="CZ6:DI6"/>
-    <mergeCell ref="DJ6:DS6"/>
-    <mergeCell ref="CZ7:DI7"/>
-    <mergeCell ref="DJ7:DS7"/>
-    <mergeCell ref="CZ8:DD8"/>
-    <mergeCell ref="DE8:DI8"/>
-    <mergeCell ref="DJ8:DN8"/>
-    <mergeCell ref="DO8:DS8"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="CU8:CY8"/>
+    <mergeCell ref="CF6:CO6"/>
+    <mergeCell ref="CP6:CY6"/>
+    <mergeCell ref="CF7:CO7"/>
+    <mergeCell ref="CP7:CY7"/>
+    <mergeCell ref="BL6:BU6"/>
+    <mergeCell ref="BV6:CE6"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CE7"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="CA8:CE8"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="AR7:BA7"/>
+    <mergeCell ref="BB7:BK7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BB8:BF8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AV2:BC2"/>
@@ -5087,41 +5141,21 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AV4:BC4"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="AR7:BA7"/>
-    <mergeCell ref="BB7:BK7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="BV6:CE6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CE7"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="CU8:CY8"/>
-    <mergeCell ref="CF6:CO6"/>
-    <mergeCell ref="CP6:CY6"/>
-    <mergeCell ref="CF7:CO7"/>
-    <mergeCell ref="CP7:CY7"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="CZ6:DI6"/>
+    <mergeCell ref="DJ6:DS6"/>
+    <mergeCell ref="CZ7:DI7"/>
+    <mergeCell ref="DJ7:DS7"/>
+    <mergeCell ref="CZ8:DD8"/>
+    <mergeCell ref="DE8:DI8"/>
+    <mergeCell ref="DJ8:DN8"/>
+    <mergeCell ref="DO8:DS8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D10:CY29">

--- a/doc/Pianificazione.xlsx
+++ b/doc/Pianificazione.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
   <si>
     <t>ATTIVITÀ</t>
   </si>
@@ -782,6 +782,21 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,36 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,11 +842,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="4" tint="0.39994506668294322"/>
@@ -1187,7 +1207,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="CQ32" sqref="CQ32"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1240,23 +1260,23 @@
       <c r="AI2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="104">
+      <c r="AN2" s="111">
         <v>43202</v>
       </c>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="111"/>
+      <c r="AS2" s="111"/>
+      <c r="AT2" s="111"/>
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="110"/>
+      <c r="AX2" s="110"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="110"/>
+      <c r="BA2" s="110"/>
+      <c r="BB2" s="110"/>
+      <c r="BC2" s="110"/>
     </row>
     <row r="3" spans="1:123" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1356,501 +1376,501 @@
       <c r="AI4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="105">
+      <c r="AN4" s="112">
         <v>43235</v>
       </c>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="102"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
     </row>
     <row r="5" spans="1:123" s="1" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:123" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="95">
         <v>43202</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="90">
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="95">
         <v>43203</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="90">
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="95">
         <v>43206</v>
       </c>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="90">
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="95">
         <v>43207</v>
       </c>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="90">
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="98"/>
+      <c r="AR6" s="95">
         <v>43216</v>
       </c>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="92"/>
-      <c r="BA6" s="93"/>
-      <c r="BB6" s="90">
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="98"/>
+      <c r="BB6" s="95">
         <v>43217</v>
       </c>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="92"/>
-      <c r="BJ6" s="92"/>
-      <c r="BK6" s="93"/>
-      <c r="BL6" s="90">
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="97"/>
+      <c r="BJ6" s="97"/>
+      <c r="BK6" s="98"/>
+      <c r="BL6" s="95">
         <v>43220</v>
       </c>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="91"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="92"/>
-      <c r="BQ6" s="92"/>
-      <c r="BR6" s="92"/>
-      <c r="BS6" s="92"/>
-      <c r="BT6" s="92"/>
-      <c r="BU6" s="93"/>
-      <c r="BV6" s="90">
+      <c r="BM6" s="96"/>
+      <c r="BN6" s="96"/>
+      <c r="BO6" s="96"/>
+      <c r="BP6" s="97"/>
+      <c r="BQ6" s="97"/>
+      <c r="BR6" s="97"/>
+      <c r="BS6" s="97"/>
+      <c r="BT6" s="97"/>
+      <c r="BU6" s="98"/>
+      <c r="BV6" s="95">
         <v>43221</v>
       </c>
-      <c r="BW6" s="91"/>
-      <c r="BX6" s="91"/>
-      <c r="BY6" s="91"/>
-      <c r="BZ6" s="92"/>
-      <c r="CA6" s="92"/>
-      <c r="CB6" s="92"/>
-      <c r="CC6" s="92"/>
-      <c r="CD6" s="92"/>
-      <c r="CE6" s="93"/>
-      <c r="CF6" s="90">
+      <c r="BW6" s="96"/>
+      <c r="BX6" s="96"/>
+      <c r="BY6" s="96"/>
+      <c r="BZ6" s="97"/>
+      <c r="CA6" s="97"/>
+      <c r="CB6" s="97"/>
+      <c r="CC6" s="97"/>
+      <c r="CD6" s="97"/>
+      <c r="CE6" s="98"/>
+      <c r="CF6" s="95">
         <v>43230</v>
       </c>
-      <c r="CG6" s="91"/>
-      <c r="CH6" s="91"/>
-      <c r="CI6" s="91"/>
-      <c r="CJ6" s="92"/>
-      <c r="CK6" s="92"/>
-      <c r="CL6" s="92"/>
-      <c r="CM6" s="92"/>
-      <c r="CN6" s="92"/>
-      <c r="CO6" s="93"/>
-      <c r="CP6" s="90">
+      <c r="CG6" s="96"/>
+      <c r="CH6" s="96"/>
+      <c r="CI6" s="96"/>
+      <c r="CJ6" s="97"/>
+      <c r="CK6" s="97"/>
+      <c r="CL6" s="97"/>
+      <c r="CM6" s="97"/>
+      <c r="CN6" s="97"/>
+      <c r="CO6" s="98"/>
+      <c r="CP6" s="95">
         <v>43231</v>
       </c>
-      <c r="CQ6" s="91"/>
-      <c r="CR6" s="91"/>
-      <c r="CS6" s="91"/>
-      <c r="CT6" s="92"/>
-      <c r="CU6" s="92"/>
-      <c r="CV6" s="92"/>
-      <c r="CW6" s="92"/>
-      <c r="CX6" s="92"/>
-      <c r="CY6" s="93"/>
-      <c r="CZ6" s="90">
+      <c r="CQ6" s="96"/>
+      <c r="CR6" s="96"/>
+      <c r="CS6" s="96"/>
+      <c r="CT6" s="97"/>
+      <c r="CU6" s="97"/>
+      <c r="CV6" s="97"/>
+      <c r="CW6" s="97"/>
+      <c r="CX6" s="97"/>
+      <c r="CY6" s="98"/>
+      <c r="CZ6" s="95">
         <v>43234</v>
       </c>
-      <c r="DA6" s="91"/>
-      <c r="DB6" s="91"/>
-      <c r="DC6" s="91"/>
-      <c r="DD6" s="92"/>
-      <c r="DE6" s="92"/>
-      <c r="DF6" s="92"/>
-      <c r="DG6" s="92"/>
-      <c r="DH6" s="92"/>
-      <c r="DI6" s="93"/>
-      <c r="DJ6" s="90">
+      <c r="DA6" s="96"/>
+      <c r="DB6" s="96"/>
+      <c r="DC6" s="96"/>
+      <c r="DD6" s="97"/>
+      <c r="DE6" s="97"/>
+      <c r="DF6" s="97"/>
+      <c r="DG6" s="97"/>
+      <c r="DH6" s="97"/>
+      <c r="DI6" s="98"/>
+      <c r="DJ6" s="95">
         <v>43235</v>
       </c>
-      <c r="DK6" s="91"/>
-      <c r="DL6" s="91"/>
-      <c r="DM6" s="91"/>
-      <c r="DN6" s="92"/>
-      <c r="DO6" s="92"/>
-      <c r="DP6" s="92"/>
-      <c r="DQ6" s="92"/>
-      <c r="DR6" s="92"/>
-      <c r="DS6" s="93"/>
+      <c r="DK6" s="96"/>
+      <c r="DL6" s="96"/>
+      <c r="DM6" s="96"/>
+      <c r="DN6" s="97"/>
+      <c r="DO6" s="97"/>
+      <c r="DP6" s="97"/>
+      <c r="DQ6" s="97"/>
+      <c r="DR6" s="97"/>
+      <c r="DS6" s="98"/>
     </row>
     <row r="7" spans="1:123" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="94" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="94" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="94" t="s">
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="94" t="s">
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="94" t="s">
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="101"/>
+      <c r="BB7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="94" t="s">
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="100"/>
+      <c r="BK7" s="101"/>
+      <c r="BL7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
-      <c r="BQ7" s="95"/>
-      <c r="BR7" s="95"/>
-      <c r="BS7" s="95"/>
-      <c r="BT7" s="95"/>
-      <c r="BU7" s="96"/>
-      <c r="BV7" s="94" t="s">
+      <c r="BM7" s="100"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="100"/>
+      <c r="BP7" s="100"/>
+      <c r="BQ7" s="100"/>
+      <c r="BR7" s="100"/>
+      <c r="BS7" s="100"/>
+      <c r="BT7" s="100"/>
+      <c r="BU7" s="101"/>
+      <c r="BV7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="BW7" s="95"/>
-      <c r="BX7" s="95"/>
-      <c r="BY7" s="95"/>
-      <c r="BZ7" s="95"/>
-      <c r="CA7" s="95"/>
-      <c r="CB7" s="95"/>
-      <c r="CC7" s="95"/>
-      <c r="CD7" s="95"/>
-      <c r="CE7" s="96"/>
-      <c r="CF7" s="94" t="s">
+      <c r="BW7" s="100"/>
+      <c r="BX7" s="100"/>
+      <c r="BY7" s="100"/>
+      <c r="BZ7" s="100"/>
+      <c r="CA7" s="100"/>
+      <c r="CB7" s="100"/>
+      <c r="CC7" s="100"/>
+      <c r="CD7" s="100"/>
+      <c r="CE7" s="101"/>
+      <c r="CF7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="CG7" s="95"/>
-      <c r="CH7" s="95"/>
-      <c r="CI7" s="95"/>
-      <c r="CJ7" s="95"/>
-      <c r="CK7" s="95"/>
-      <c r="CL7" s="95"/>
-      <c r="CM7" s="95"/>
-      <c r="CN7" s="95"/>
-      <c r="CO7" s="96"/>
-      <c r="CP7" s="94" t="s">
+      <c r="CG7" s="100"/>
+      <c r="CH7" s="100"/>
+      <c r="CI7" s="100"/>
+      <c r="CJ7" s="100"/>
+      <c r="CK7" s="100"/>
+      <c r="CL7" s="100"/>
+      <c r="CM7" s="100"/>
+      <c r="CN7" s="100"/>
+      <c r="CO7" s="101"/>
+      <c r="CP7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="CQ7" s="95"/>
-      <c r="CR7" s="95"/>
-      <c r="CS7" s="95"/>
-      <c r="CT7" s="95"/>
-      <c r="CU7" s="95"/>
-      <c r="CV7" s="95"/>
-      <c r="CW7" s="95"/>
-      <c r="CX7" s="95"/>
-      <c r="CY7" s="96"/>
-      <c r="CZ7" s="94" t="s">
+      <c r="CQ7" s="100"/>
+      <c r="CR7" s="100"/>
+      <c r="CS7" s="100"/>
+      <c r="CT7" s="100"/>
+      <c r="CU7" s="100"/>
+      <c r="CV7" s="100"/>
+      <c r="CW7" s="100"/>
+      <c r="CX7" s="100"/>
+      <c r="CY7" s="101"/>
+      <c r="CZ7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="DA7" s="95"/>
-      <c r="DB7" s="95"/>
-      <c r="DC7" s="95"/>
-      <c r="DD7" s="95"/>
-      <c r="DE7" s="95"/>
-      <c r="DF7" s="95"/>
-      <c r="DG7" s="95"/>
-      <c r="DH7" s="95"/>
-      <c r="DI7" s="96"/>
-      <c r="DJ7" s="94" t="s">
+      <c r="DA7" s="100"/>
+      <c r="DB7" s="100"/>
+      <c r="DC7" s="100"/>
+      <c r="DD7" s="100"/>
+      <c r="DE7" s="100"/>
+      <c r="DF7" s="100"/>
+      <c r="DG7" s="100"/>
+      <c r="DH7" s="100"/>
+      <c r="DI7" s="101"/>
+      <c r="DJ7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="DK7" s="95"/>
-      <c r="DL7" s="95"/>
-      <c r="DM7" s="95"/>
-      <c r="DN7" s="95"/>
-      <c r="DO7" s="95"/>
-      <c r="DP7" s="95"/>
-      <c r="DQ7" s="95"/>
-      <c r="DR7" s="95"/>
-      <c r="DS7" s="96"/>
+      <c r="DK7" s="100"/>
+      <c r="DL7" s="100"/>
+      <c r="DM7" s="100"/>
+      <c r="DN7" s="100"/>
+      <c r="DO7" s="100"/>
+      <c r="DP7" s="100"/>
+      <c r="DQ7" s="100"/>
+      <c r="DR7" s="100"/>
+      <c r="DS7" s="101"/>
     </row>
     <row r="8" spans="1:123" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="97" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100" t="s">
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="97" t="s">
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="100" t="s">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="97" t="s">
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="100" t="s">
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="97" t="s">
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="100" t="s">
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="97" t="s">
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="100" t="s">
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BH8" s="99"/>
-      <c r="BI8" s="99"/>
-      <c r="BJ8" s="99"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="97" t="s">
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BM8" s="98"/>
-      <c r="BN8" s="98"/>
-      <c r="BO8" s="98"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="100" t="s">
+      <c r="BM8" s="91"/>
+      <c r="BN8" s="91"/>
+      <c r="BO8" s="91"/>
+      <c r="BP8" s="92"/>
+      <c r="BQ8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="BR8" s="99"/>
-      <c r="BS8" s="99"/>
-      <c r="BT8" s="99"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="97" t="s">
+      <c r="BR8" s="92"/>
+      <c r="BS8" s="92"/>
+      <c r="BT8" s="92"/>
+      <c r="BU8" s="94"/>
+      <c r="BV8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="BW8" s="98"/>
-      <c r="BX8" s="98"/>
-      <c r="BY8" s="98"/>
-      <c r="BZ8" s="99"/>
-      <c r="CA8" s="100" t="s">
+      <c r="BW8" s="91"/>
+      <c r="BX8" s="91"/>
+      <c r="BY8" s="91"/>
+      <c r="BZ8" s="92"/>
+      <c r="CA8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CB8" s="99"/>
-      <c r="CC8" s="99"/>
-      <c r="CD8" s="99"/>
-      <c r="CE8" s="101"/>
-      <c r="CF8" s="97" t="s">
+      <c r="CB8" s="92"/>
+      <c r="CC8" s="92"/>
+      <c r="CD8" s="92"/>
+      <c r="CE8" s="94"/>
+      <c r="CF8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CG8" s="98"/>
-      <c r="CH8" s="98"/>
-      <c r="CI8" s="98"/>
-      <c r="CJ8" s="99"/>
-      <c r="CK8" s="100" t="s">
+      <c r="CG8" s="91"/>
+      <c r="CH8" s="91"/>
+      <c r="CI8" s="91"/>
+      <c r="CJ8" s="92"/>
+      <c r="CK8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CL8" s="99"/>
-      <c r="CM8" s="99"/>
-      <c r="CN8" s="99"/>
-      <c r="CO8" s="101"/>
-      <c r="CP8" s="97" t="s">
+      <c r="CL8" s="92"/>
+      <c r="CM8" s="92"/>
+      <c r="CN8" s="92"/>
+      <c r="CO8" s="94"/>
+      <c r="CP8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="CQ8" s="98"/>
-      <c r="CR8" s="98"/>
-      <c r="CS8" s="98"/>
-      <c r="CT8" s="99"/>
-      <c r="CU8" s="100" t="s">
+      <c r="CQ8" s="91"/>
+      <c r="CR8" s="91"/>
+      <c r="CS8" s="91"/>
+      <c r="CT8" s="92"/>
+      <c r="CU8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="CV8" s="99"/>
-      <c r="CW8" s="99"/>
-      <c r="CX8" s="99"/>
-      <c r="CY8" s="101"/>
-      <c r="CZ8" s="97" t="s">
+      <c r="CV8" s="92"/>
+      <c r="CW8" s="92"/>
+      <c r="CX8" s="92"/>
+      <c r="CY8" s="94"/>
+      <c r="CZ8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="DA8" s="98"/>
-      <c r="DB8" s="98"/>
-      <c r="DC8" s="98"/>
-      <c r="DD8" s="99"/>
-      <c r="DE8" s="100" t="s">
+      <c r="DA8" s="91"/>
+      <c r="DB8" s="91"/>
+      <c r="DC8" s="91"/>
+      <c r="DD8" s="92"/>
+      <c r="DE8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DF8" s="99"/>
-      <c r="DG8" s="99"/>
-      <c r="DH8" s="99"/>
-      <c r="DI8" s="101"/>
-      <c r="DJ8" s="97" t="s">
+      <c r="DF8" s="92"/>
+      <c r="DG8" s="92"/>
+      <c r="DH8" s="92"/>
+      <c r="DI8" s="94"/>
+      <c r="DJ8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="DK8" s="98"/>
-      <c r="DL8" s="98"/>
-      <c r="DM8" s="98"/>
-      <c r="DN8" s="99"/>
-      <c r="DO8" s="100" t="s">
+      <c r="DK8" s="91"/>
+      <c r="DL8" s="91"/>
+      <c r="DM8" s="91"/>
+      <c r="DN8" s="92"/>
+      <c r="DO8" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DP8" s="99"/>
-      <c r="DQ8" s="99"/>
-      <c r="DR8" s="99"/>
-      <c r="DS8" s="101"/>
+      <c r="DP8" s="92"/>
+      <c r="DQ8" s="92"/>
+      <c r="DR8" s="92"/>
+      <c r="DS8" s="94"/>
     </row>
     <row r="9" spans="1:123" s="10" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
@@ -1982,7 +2002,7 @@
       <c r="DS9" s="21"/>
     </row>
     <row r="10" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107">
+      <c r="A10" s="102">
         <v>0</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2134,16 +2154,18 @@
       <c r="DS10" s="42"/>
     </row>
     <row r="11" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25">
         <f>COUNTIF(D11:DS11, "C")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="44"/>
       <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="45" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="46" t="s">
         <v>14</v>
       </c>
@@ -2276,7 +2298,7 @@
       <c r="DS11" s="50"/>
     </row>
     <row r="12" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107">
+      <c r="A12" s="102">
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2426,7 +2448,7 @@
       <c r="DS12" s="42"/>
     </row>
     <row r="13" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25">
         <f>COUNTIF(D13:DS13, "C")</f>
@@ -2557,10 +2579,10 @@
       <c r="DP13" s="49"/>
       <c r="DQ13" s="49"/>
       <c r="DR13" s="49"/>
-      <c r="DS13" s="50"/>
+      <c r="DS13" s="42"/>
     </row>
     <row r="14" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114">
+      <c r="A14" s="109">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2728,7 +2750,7 @@
       <c r="DS14" s="40"/>
     </row>
     <row r="15" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="109"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25">
         <f>COUNTIF(D15:DS15, "C")</f>
@@ -2908,7 +2930,7 @@
       <c r="DS15" s="50"/>
     </row>
     <row r="16" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107">
+      <c r="A16" s="102">
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3048,7 +3070,7 @@
       <c r="DS16" s="42"/>
     </row>
     <row r="17" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="109"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25">
         <f>COUNTIF(D17:DS17, "C")</f>
@@ -3188,7 +3210,7 @@
       <c r="DS17" s="50"/>
     </row>
     <row r="18" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107">
+      <c r="A18" s="102">
         <v>4</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3342,7 +3364,7 @@
       <c r="DS18" s="42"/>
     </row>
     <row r="19" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25">
         <f>COUNTIF(D19:DS19, "C")</f>
@@ -3502,7 +3524,7 @@
       <c r="DS19" s="50"/>
     </row>
     <row r="20" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107">
+      <c r="A20" s="102">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3656,7 +3678,7 @@
       <c r="DS20" s="42"/>
     </row>
     <row r="21" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25">
         <f>COUNTIF(D21:DS21, "C")</f>
@@ -3802,7 +3824,7 @@
       <c r="DS21" s="50"/>
     </row>
     <row r="22" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107">
+      <c r="A22" s="102">
         <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3946,7 +3968,7 @@
       <c r="DS22" s="42"/>
     </row>
     <row r="23" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25">
         <f>COUNTIF(D23:DS23, "C")</f>
@@ -4082,7 +4104,7 @@
       <c r="DS23" s="50"/>
     </row>
     <row r="24" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107">
+      <c r="A24" s="102">
         <v>7</v>
       </c>
       <c r="B24" s="22"/>
@@ -4212,7 +4234,7 @@
       <c r="DS24" s="42"/>
     </row>
     <row r="25" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25">
         <f>COUNTIF(D25:DS25, "C")</f>
@@ -4340,7 +4362,7 @@
       <c r="DS25" s="50"/>
     </row>
     <row r="26" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107">
+      <c r="A26" s="102">
         <v>8</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -4500,11 +4522,11 @@
       <c r="DS26" s="42"/>
     </row>
     <row r="27" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="27"/>
       <c r="C27" s="25">
         <f>COUNTIF(D27:DS27, "C")</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
@@ -4619,14 +4641,30 @@
       <c r="DD27" s="46"/>
       <c r="DE27" s="46"/>
       <c r="DF27" s="46"/>
-      <c r="DG27" s="46"/>
-      <c r="DH27" s="46"/>
-      <c r="DI27" s="47"/>
-      <c r="DJ27" s="48"/>
-      <c r="DK27" s="45"/>
-      <c r="DL27" s="45"/>
-      <c r="DM27" s="45"/>
-      <c r="DN27" s="46"/>
+      <c r="DG27" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="DH27" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="DI27" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="DJ27" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="DK27" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="DL27" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="DM27" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="DN27" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="DO27" s="49"/>
       <c r="DP27" s="49"/>
       <c r="DQ27" s="49"/>
@@ -4634,7 +4672,7 @@
       <c r="DS27" s="50"/>
     </row>
     <row r="28" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="29" t="s">
         <v>5</v>
       </c>
@@ -4764,13 +4802,13 @@
       <c r="DS28" s="42"/>
     </row>
     <row r="29" spans="1:123" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="31">
         <f>SUM(C11,C13,C15,C17,C19,C21,C23,C25,C27)</f>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -5092,41 +5130,21 @@
     <row r="35" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="CF8:CJ8"/>
-    <mergeCell ref="CK8:CO8"/>
-    <mergeCell ref="CP8:CT8"/>
-    <mergeCell ref="CU8:CY8"/>
-    <mergeCell ref="CF6:CO6"/>
-    <mergeCell ref="CP6:CY6"/>
-    <mergeCell ref="CF7:CO7"/>
-    <mergeCell ref="CP7:CY7"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="BV6:CE6"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BV7:CE7"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="CA8:CE8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="AR7:BA7"/>
-    <mergeCell ref="BB7:BK7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="CZ6:DI6"/>
+    <mergeCell ref="DJ6:DS6"/>
+    <mergeCell ref="CZ7:DI7"/>
+    <mergeCell ref="DJ7:DS7"/>
+    <mergeCell ref="CZ8:DD8"/>
+    <mergeCell ref="DE8:DI8"/>
+    <mergeCell ref="DJ8:DN8"/>
+    <mergeCell ref="DO8:DS8"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AV2:BC2"/>
@@ -5141,36 +5159,56 @@
     <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AV4:BC4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="X6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="CZ6:DI6"/>
-    <mergeCell ref="DJ6:DS6"/>
-    <mergeCell ref="CZ7:DI7"/>
-    <mergeCell ref="DJ7:DS7"/>
-    <mergeCell ref="CZ8:DD8"/>
-    <mergeCell ref="DE8:DI8"/>
-    <mergeCell ref="DJ8:DN8"/>
-    <mergeCell ref="DO8:DS8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="BG8:BK8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="AR7:BA7"/>
+    <mergeCell ref="BB7:BK7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="BB8:BF8"/>
+    <mergeCell ref="BL6:BU6"/>
+    <mergeCell ref="BV6:CE6"/>
+    <mergeCell ref="BL7:BU7"/>
+    <mergeCell ref="BV7:CE7"/>
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="CA8:CE8"/>
+    <mergeCell ref="CF8:CJ8"/>
+    <mergeCell ref="CK8:CO8"/>
+    <mergeCell ref="CP8:CT8"/>
+    <mergeCell ref="CU8:CY8"/>
+    <mergeCell ref="CF6:CO6"/>
+    <mergeCell ref="CP6:CY6"/>
+    <mergeCell ref="CF7:CO7"/>
+    <mergeCell ref="CP7:CY7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D10:CY29">
-    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" stopIfTrue="1" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ10:DS29">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",CZ10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",CZ10)))</formula>
     </cfRule>
   </conditionalFormatting>
